--- a/name/vnindex/20230105/VNINDEX_HOSE_5p_20230105.xlsx
+++ b/name/vnindex/20230105/VNINDEX_HOSE_5p_20230105.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +504,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1672909500000</v>
+        <v>1672909560000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>66000000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-05T09:05:00.000Z</v>
+        <v>2023-01-05T09:06:00.000Z</v>
       </c>
       <c r="K3">
         <v>67320000</v>
@@ -554,13 +554,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672909800000</v>
+        <v>1672909920000</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>7900</v>
+        <v>3000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -569,2642 +569,6392 @@
         <v>1320000</v>
       </c>
       <c r="F4">
-        <v>104770000</v>
+        <v>39600000</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>3100</v>
+      </c>
+      <c r="I4">
+        <v>40920000</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2023-01-05T09:12:00.000Z</v>
+      </c>
+      <c r="K4">
+        <v>108240000</v>
+      </c>
+      <c r="L4">
+        <v>8200</v>
+      </c>
+      <c r="M4">
+        <v>2900</v>
+      </c>
+      <c r="N4">
+        <v>38280000</v>
+      </c>
+      <c r="O4">
         <v>8000</v>
       </c>
-      <c r="I4">
-        <v>106090000</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2023-01-05T09:10:00.000Z</v>
-      </c>
-      <c r="K4">
-        <v>173410000</v>
-      </c>
-      <c r="L4">
-        <v>13100</v>
-      </c>
-      <c r="M4">
-        <v>7800</v>
-      </c>
-      <c r="N4">
-        <v>103450000</v>
-      </c>
-      <c r="O4">
-        <v>12900</v>
-      </c>
       <c r="P4">
-        <v>170770000</v>
+        <v>105600000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1672910100000</v>
+        <v>1672910040000</v>
       </c>
       <c r="B5">
-        <v>2790600</v>
+        <v>978300</v>
       </c>
       <c r="C5">
-        <v>7919800</v>
+        <v>3804900</v>
       </c>
       <c r="D5">
-        <v>1364300</v>
+        <v>1315300</v>
       </c>
       <c r="E5">
-        <v>40513257000</v>
+        <v>14520886000</v>
       </c>
       <c r="F5">
-        <v>86024049000</v>
+        <v>29459580000</v>
       </c>
       <c r="G5">
-        <v>20246143000</v>
+        <v>19545647000</v>
       </c>
       <c r="H5">
-        <v>12074700</v>
+        <v>6098500</v>
       </c>
       <c r="I5">
-        <v>146783449000</v>
+        <v>63526113000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-05T09:15:00.000Z</v>
+        <v>2023-01-05T09:14:00.000Z</v>
       </c>
       <c r="K5">
-        <v>146956859000</v>
+        <v>63634353000</v>
       </c>
       <c r="L5">
-        <v>12087800</v>
+        <v>6106700</v>
       </c>
       <c r="M5">
-        <v>5129200</v>
+        <v>2826600</v>
       </c>
       <c r="N5">
-        <v>45510792000</v>
+        <v>14938694000</v>
       </c>
       <c r="O5">
-        <v>5142100</v>
+        <v>2834600</v>
       </c>
       <c r="P5">
-        <v>45681562000</v>
+        <v>15044294000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672910400000</v>
+        <v>1672910160000</v>
       </c>
       <c r="B6">
-        <v>2603800</v>
+        <v>887700</v>
       </c>
       <c r="C6">
-        <v>3090800</v>
+        <v>1882100</v>
       </c>
       <c r="D6">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="E6">
-        <v>37495075000</v>
+        <v>12461063000</v>
       </c>
       <c r="F6">
-        <v>59150444000</v>
+        <v>21568582000</v>
       </c>
       <c r="G6">
-        <v>300009000</v>
+        <v>228307000</v>
       </c>
       <c r="H6">
-        <v>5709900</v>
+        <v>2785500</v>
       </c>
       <c r="I6">
-        <v>96945528000</v>
+        <v>34257952000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-05T09:20:00.000Z</v>
+        <v>2023-01-05T09:16:00.000Z</v>
       </c>
       <c r="K6">
-        <v>243902387000</v>
+        <v>97892305000</v>
       </c>
       <c r="L6">
-        <v>17797700</v>
+        <v>8892200</v>
       </c>
       <c r="M6">
-        <v>487000</v>
+        <v>994400</v>
       </c>
       <c r="N6">
-        <v>21655369000</v>
+        <v>9107519000</v>
       </c>
       <c r="O6">
-        <v>5629100</v>
+        <v>3829000</v>
       </c>
       <c r="P6">
-        <v>67336931000</v>
+        <v>24151813000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672910700000</v>
+        <v>1672910280000</v>
       </c>
       <c r="B7">
-        <v>3987500</v>
+        <v>924600</v>
       </c>
       <c r="C7">
-        <v>2378800</v>
+        <v>2237700</v>
       </c>
       <c r="D7">
-        <v>29300</v>
+        <v>33300</v>
       </c>
       <c r="E7">
-        <v>57146549000</v>
+        <v>13531308000</v>
       </c>
       <c r="F7">
-        <v>42954502000</v>
+        <v>35061057000</v>
       </c>
       <c r="G7">
-        <v>199406000</v>
+        <v>472189000</v>
       </c>
       <c r="H7">
-        <v>6395600</v>
+        <v>3195600</v>
       </c>
       <c r="I7">
-        <v>100300457000</v>
+        <v>49064554000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-05T09:25:00.000Z</v>
+        <v>2023-01-05T09:18:00.000Z</v>
       </c>
       <c r="K7">
-        <v>344202844000</v>
+        <v>146956859000</v>
       </c>
       <c r="L7">
-        <v>24193300</v>
+        <v>12087800</v>
       </c>
       <c r="M7">
-        <v>-1608700</v>
+        <v>1313100</v>
       </c>
       <c r="N7">
-        <v>-14192047000</v>
+        <v>21529749000</v>
       </c>
       <c r="O7">
-        <v>4020400</v>
+        <v>5142100</v>
       </c>
       <c r="P7">
-        <v>53144884000</v>
+        <v>45681562000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672911000000</v>
+        <v>1672910400000</v>
       </c>
       <c r="B8">
-        <v>4106200</v>
+        <v>843400</v>
       </c>
       <c r="C8">
-        <v>3364100</v>
+        <v>1266600</v>
       </c>
       <c r="D8">
-        <v>33100</v>
+        <v>11000</v>
       </c>
       <c r="E8">
-        <v>62355207000</v>
+        <v>10720027000</v>
       </c>
       <c r="F8">
-        <v>63993390000</v>
+        <v>24969261000</v>
       </c>
       <c r="G8">
-        <v>844581000</v>
+        <v>149450000</v>
       </c>
       <c r="H8">
-        <v>7503400</v>
+        <v>2121000</v>
       </c>
       <c r="I8">
-        <v>127193178000</v>
+        <v>35838738000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-05T09:30:00.000Z</v>
+        <v>2023-01-05T09:20:00.000Z</v>
       </c>
       <c r="K8">
-        <v>471396022000</v>
+        <v>182795597000</v>
       </c>
       <c r="L8">
-        <v>31696700</v>
+        <v>14208800</v>
       </c>
       <c r="M8">
-        <v>-742100</v>
+        <v>423200</v>
       </c>
       <c r="N8">
-        <v>1638183000</v>
+        <v>14249234000</v>
       </c>
       <c r="O8">
-        <v>3278300</v>
+        <v>5565300</v>
       </c>
       <c r="P8">
-        <v>54783067000</v>
+        <v>59930796000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672911300000</v>
+        <v>1672910520000</v>
       </c>
       <c r="B9">
-        <v>3380300</v>
+        <v>961400</v>
       </c>
       <c r="C9">
-        <v>5935000</v>
+        <v>1416900</v>
       </c>
       <c r="D9">
-        <v>27200</v>
+        <v>4000</v>
       </c>
       <c r="E9">
-        <v>54732202000</v>
+        <v>14248986000</v>
       </c>
       <c r="F9">
-        <v>106331741000</v>
+        <v>25613880000</v>
       </c>
       <c r="G9">
-        <v>762595000</v>
+        <v>114719000</v>
       </c>
       <c r="H9">
-        <v>9342500</v>
+        <v>2382300</v>
       </c>
       <c r="I9">
-        <v>161826538000</v>
+        <v>39977585000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-05T09:35:00.000Z</v>
+        <v>2023-01-05T09:22:00.000Z</v>
       </c>
       <c r="K9">
-        <v>633222560000</v>
+        <v>222773182000</v>
       </c>
       <c r="L9">
-        <v>41039200</v>
+        <v>16591100</v>
       </c>
       <c r="M9">
-        <v>2554700</v>
+        <v>455500</v>
       </c>
       <c r="N9">
-        <v>51599539000</v>
+        <v>11364894000</v>
       </c>
       <c r="O9">
-        <v>5833000</v>
+        <v>6020800</v>
       </c>
       <c r="P9">
-        <v>106382606000</v>
+        <v>71295690000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672911600000</v>
+        <v>1672910640000</v>
       </c>
       <c r="B10">
-        <v>2858200</v>
+        <v>1514100</v>
       </c>
       <c r="C10">
-        <v>5822700</v>
+        <v>960100</v>
       </c>
       <c r="D10">
-        <v>63900</v>
+        <v>5800</v>
       </c>
       <c r="E10">
-        <v>44725312000</v>
+        <v>22468739000</v>
       </c>
       <c r="F10">
-        <v>93475402000</v>
+        <v>18267655000</v>
       </c>
       <c r="G10">
-        <v>1389761000</v>
+        <v>104303000</v>
       </c>
       <c r="H10">
-        <v>8744800</v>
+        <v>2480000</v>
       </c>
       <c r="I10">
-        <v>139590475000</v>
+        <v>40840697000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-05T09:40:00.000Z</v>
+        <v>2023-01-05T09:24:00.000Z</v>
       </c>
       <c r="K10">
-        <v>772813035000</v>
+        <v>263613879000</v>
       </c>
       <c r="L10">
-        <v>49784000</v>
+        <v>19071100</v>
       </c>
       <c r="M10">
-        <v>2964500</v>
+        <v>-554000</v>
       </c>
       <c r="N10">
-        <v>48750090000</v>
+        <v>-4201084000</v>
       </c>
       <c r="O10">
-        <v>8797500</v>
+        <v>5466800</v>
       </c>
       <c r="P10">
-        <v>155132696000</v>
+        <v>67094606000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672911900000</v>
+        <v>1672910760000</v>
       </c>
       <c r="B11">
-        <v>4004800</v>
+        <v>1264800</v>
       </c>
       <c r="C11">
-        <v>3299500</v>
+        <v>1069800</v>
       </c>
       <c r="D11">
-        <v>49500</v>
+        <v>17300</v>
       </c>
       <c r="E11">
-        <v>57798607000</v>
+        <v>18710449000</v>
       </c>
       <c r="F11">
-        <v>56290453000</v>
+        <v>20172115000</v>
       </c>
       <c r="G11">
-        <v>854260000</v>
+        <v>61780000</v>
       </c>
       <c r="H11">
-        <v>7353800</v>
+        <v>2351900</v>
       </c>
       <c r="I11">
-        <v>114943320000</v>
+        <v>38944344000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-05T09:45:00.000Z</v>
+        <v>2023-01-05T09:26:00.000Z</v>
       </c>
       <c r="K11">
-        <v>887756355000</v>
+        <v>302558223000</v>
       </c>
       <c r="L11">
-        <v>57137800</v>
+        <v>21423000</v>
       </c>
       <c r="M11">
-        <v>-705300</v>
+        <v>-195000</v>
       </c>
       <c r="N11">
-        <v>-1508154000</v>
+        <v>1461666000</v>
       </c>
       <c r="O11">
-        <v>8092200</v>
+        <v>5271800</v>
       </c>
       <c r="P11">
-        <v>153624542000</v>
+        <v>68556272000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672912200000</v>
+        <v>1672910880000</v>
       </c>
       <c r="B12">
-        <v>3232500</v>
+        <v>2007600</v>
       </c>
       <c r="C12">
-        <v>1920000</v>
+        <v>756200</v>
       </c>
       <c r="D12">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="E12">
-        <v>54268503000</v>
+        <v>28493423000</v>
       </c>
       <c r="F12">
-        <v>36979251000</v>
+        <v>13082035000</v>
       </c>
       <c r="G12">
-        <v>275818000</v>
+        <v>69163000</v>
       </c>
       <c r="H12">
-        <v>5169500</v>
+        <v>2770300</v>
       </c>
       <c r="I12">
-        <v>91523572000</v>
+        <v>41644621000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-05T09:50:00.000Z</v>
+        <v>2023-01-05T09:28:00.000Z</v>
       </c>
       <c r="K12">
-        <v>979279927000</v>
+        <v>344202844000</v>
       </c>
       <c r="L12">
-        <v>62307300</v>
+        <v>24193300</v>
       </c>
       <c r="M12">
-        <v>-1312500</v>
+        <v>-1251400</v>
       </c>
       <c r="N12">
-        <v>-17289252000</v>
+        <v>-15411388000</v>
       </c>
       <c r="O12">
-        <v>6779700</v>
+        <v>4020400</v>
       </c>
       <c r="P12">
-        <v>136335290000</v>
+        <v>53144884000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672912500000</v>
+        <v>1672911000000</v>
       </c>
       <c r="B13">
-        <v>2122300</v>
+        <v>2071800</v>
       </c>
       <c r="C13">
-        <v>3470800</v>
+        <v>921900</v>
       </c>
       <c r="D13">
-        <v>38500</v>
+        <v>14900</v>
       </c>
       <c r="E13">
-        <v>34729354000</v>
+        <v>31613047000</v>
       </c>
       <c r="F13">
-        <v>65115664000</v>
+        <v>17613888000</v>
       </c>
       <c r="G13">
-        <v>668912000</v>
+        <v>248456000</v>
       </c>
       <c r="H13">
-        <v>5631600</v>
+        <v>3008600</v>
       </c>
       <c r="I13">
-        <v>100513930000</v>
+        <v>49475391000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-05T09:55:00.000Z</v>
+        <v>2023-01-05T09:30:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1079793857000</v>
+        <v>393678235000</v>
       </c>
       <c r="L13">
-        <v>67938900</v>
+        <v>27201900</v>
       </c>
       <c r="M13">
-        <v>1348500</v>
+        <v>-1149900</v>
       </c>
       <c r="N13">
-        <v>30386310000</v>
+        <v>-13999159000</v>
       </c>
       <c r="O13">
-        <v>8128200</v>
+        <v>2870500</v>
       </c>
       <c r="P13">
-        <v>166721600000</v>
+        <v>39145725000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672912800000</v>
+        <v>1672911120000</v>
       </c>
       <c r="B14">
-        <v>2507500</v>
+        <v>1263400</v>
       </c>
       <c r="C14">
-        <v>5417200</v>
+        <v>1236100</v>
       </c>
       <c r="D14">
-        <v>29800</v>
+        <v>15000</v>
       </c>
       <c r="E14">
-        <v>37035346000</v>
+        <v>20243480000</v>
       </c>
       <c r="F14">
-        <v>112284223000</v>
+        <v>25790005000</v>
       </c>
       <c r="G14">
-        <v>565650000</v>
+        <v>477155000</v>
       </c>
       <c r="H14">
-        <v>7954500</v>
+        <v>2514500</v>
       </c>
       <c r="I14">
-        <v>149885219000</v>
+        <v>46510640000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-05T10:00:00.000Z</v>
+        <v>2023-01-05T09:32:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1229679076000</v>
+        <v>440188875000</v>
       </c>
       <c r="L14">
-        <v>75893400</v>
+        <v>29716400</v>
       </c>
       <c r="M14">
-        <v>2909700</v>
+        <v>-27300</v>
       </c>
       <c r="N14">
-        <v>75248877000</v>
+        <v>5546525000</v>
       </c>
       <c r="O14">
-        <v>11037900</v>
+        <v>2843200</v>
       </c>
       <c r="P14">
-        <v>241970477000</v>
+        <v>44692250000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672913100000</v>
+        <v>1672911240000</v>
       </c>
       <c r="B15">
-        <v>3000000</v>
+        <v>1305700</v>
       </c>
       <c r="C15">
-        <v>3666400</v>
+        <v>1989700</v>
       </c>
       <c r="D15">
-        <v>18600</v>
+        <v>5000</v>
       </c>
       <c r="E15">
-        <v>52209089000</v>
+        <v>18404133000</v>
       </c>
       <c r="F15">
-        <v>66188527000</v>
+        <v>33004145000</v>
       </c>
       <c r="G15">
-        <v>266607000</v>
+        <v>128197000</v>
       </c>
       <c r="H15">
-        <v>6685000</v>
+        <v>3300400</v>
       </c>
       <c r="I15">
-        <v>118664223000</v>
+        <v>51536475000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-05T10:05:00.000Z</v>
+        <v>2023-01-05T09:34:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1348343299000</v>
+        <v>491725350000</v>
       </c>
       <c r="L15">
-        <v>82578400</v>
+        <v>33016800</v>
       </c>
       <c r="M15">
-        <v>666400</v>
+        <v>684000</v>
       </c>
       <c r="N15">
-        <v>13979438000</v>
+        <v>14600012000</v>
       </c>
       <c r="O15">
-        <v>11704300</v>
+        <v>3527200</v>
       </c>
       <c r="P15">
-        <v>255949915000</v>
+        <v>59292262000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672913400000</v>
+        <v>1672911360000</v>
       </c>
       <c r="B16">
-        <v>3039200</v>
+        <v>1607200</v>
       </c>
       <c r="C16">
-        <v>2897100</v>
+        <v>2140600</v>
       </c>
       <c r="D16">
-        <v>38200</v>
+        <v>16800</v>
       </c>
       <c r="E16">
-        <v>54350825000</v>
+        <v>25633346000</v>
       </c>
       <c r="F16">
-        <v>58609515000</v>
+        <v>37932551000</v>
       </c>
       <c r="G16">
-        <v>517701000</v>
+        <v>421753000</v>
       </c>
       <c r="H16">
-        <v>5974500</v>
+        <v>3764600</v>
       </c>
       <c r="I16">
-        <v>113478041000</v>
+        <v>63987650000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-05T10:10:00.000Z</v>
+        <v>2023-01-05T09:36:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1461821340000</v>
+        <v>555713000000</v>
       </c>
       <c r="L16">
-        <v>88552900</v>
+        <v>36781400</v>
       </c>
       <c r="M16">
-        <v>-142100</v>
+        <v>533400</v>
       </c>
       <c r="N16">
-        <v>4258690000</v>
+        <v>12299205000</v>
       </c>
       <c r="O16">
-        <v>11562200</v>
+        <v>4060600</v>
       </c>
       <c r="P16">
-        <v>260208605000</v>
+        <v>71591467000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672913700000</v>
+        <v>1672911480000</v>
       </c>
       <c r="B17">
-        <v>3107600</v>
+        <v>1238400</v>
       </c>
       <c r="C17">
-        <v>2333100</v>
+        <v>3010800</v>
       </c>
       <c r="D17">
         <v>8600</v>
       </c>
       <c r="E17">
-        <v>47697050000</v>
+        <v>21193403000</v>
       </c>
       <c r="F17">
-        <v>53326507000</v>
+        <v>55984542000</v>
       </c>
       <c r="G17">
-        <v>179752000</v>
+        <v>331615000</v>
       </c>
       <c r="H17">
-        <v>5449300</v>
+        <v>4257800</v>
       </c>
       <c r="I17">
-        <v>101203309000</v>
+        <v>77509560000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-05T10:15:00.000Z</v>
+        <v>2023-01-05T09:38:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1563024649000</v>
+        <v>633222560000</v>
       </c>
       <c r="L17">
-        <v>94002200</v>
+        <v>41039200</v>
       </c>
       <c r="M17">
-        <v>-774500</v>
+        <v>1772400</v>
       </c>
       <c r="N17">
-        <v>5629457000</v>
+        <v>34791139000</v>
       </c>
       <c r="O17">
-        <v>10787700</v>
+        <v>5833000</v>
       </c>
       <c r="P17">
-        <v>265838062000</v>
+        <v>106382606000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1672914000000</v>
+        <v>1672911600000</v>
       </c>
       <c r="B18">
-        <v>5304600</v>
+        <v>1223400</v>
       </c>
       <c r="C18">
-        <v>2210400</v>
+        <v>2365100</v>
       </c>
       <c r="D18">
-        <v>24600</v>
+        <v>41500</v>
       </c>
       <c r="E18">
-        <v>79575745000</v>
+        <v>19480427000</v>
       </c>
       <c r="F18">
-        <v>60316178000</v>
+        <v>38677462000</v>
       </c>
       <c r="G18">
-        <v>909210000</v>
+        <v>1069050000</v>
       </c>
       <c r="H18">
-        <v>7539600</v>
+        <v>3630000</v>
       </c>
       <c r="I18">
-        <v>140801133000</v>
+        <v>59226939000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-05T10:20:00.000Z</v>
+        <v>2023-01-05T09:40:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1703825782000</v>
+        <v>692449499000</v>
       </c>
       <c r="L18">
-        <v>101541800</v>
+        <v>44669200</v>
       </c>
       <c r="M18">
-        <v>-3094200</v>
+        <v>1141700</v>
       </c>
       <c r="N18">
-        <v>-19259567000</v>
+        <v>19197035000</v>
       </c>
       <c r="O18">
-        <v>7693500</v>
+        <v>6974700</v>
       </c>
       <c r="P18">
-        <v>246578495000</v>
+        <v>125579641000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1672914300000</v>
+        <v>1672911720000</v>
       </c>
       <c r="B19">
-        <v>5352700</v>
+        <v>942600</v>
       </c>
       <c r="C19">
-        <v>2268300</v>
+        <v>2512400</v>
       </c>
       <c r="D19">
-        <v>15100</v>
+        <v>4700</v>
       </c>
       <c r="E19">
-        <v>77417456000</v>
+        <v>15384430000</v>
       </c>
       <c r="F19">
-        <v>47142956000</v>
+        <v>39922434000</v>
       </c>
       <c r="G19">
-        <v>205917000</v>
+        <v>93230000</v>
       </c>
       <c r="H19">
-        <v>7636100</v>
+        <v>3459700</v>
       </c>
       <c r="I19">
-        <v>124766329000</v>
+        <v>55400094000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-05T10:25:00.000Z</v>
+        <v>2023-01-05T09:42:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1828592111000</v>
+        <v>747849593000</v>
       </c>
       <c r="L19">
-        <v>109177900</v>
+        <v>48128900</v>
       </c>
       <c r="M19">
-        <v>-3084400</v>
+        <v>1569800</v>
       </c>
       <c r="N19">
-        <v>-30274500000</v>
+        <v>24538004000</v>
       </c>
       <c r="O19">
-        <v>4609100</v>
+        <v>8544500</v>
       </c>
       <c r="P19">
-        <v>216303995000</v>
+        <v>150117645000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1672914600000</v>
+        <v>1672911840000</v>
       </c>
       <c r="B20">
-        <v>5867800</v>
+        <v>1365600</v>
       </c>
       <c r="C20">
-        <v>2306300</v>
+        <v>1879500</v>
       </c>
       <c r="D20">
-        <v>305700</v>
+        <v>34200</v>
       </c>
       <c r="E20">
-        <v>90398625000</v>
+        <v>19910408000</v>
       </c>
       <c r="F20">
-        <v>43365115000</v>
+        <v>29635485000</v>
       </c>
       <c r="G20">
-        <v>1441234000</v>
+        <v>612272000</v>
       </c>
       <c r="H20">
-        <v>8479800</v>
+        <v>3279300</v>
       </c>
       <c r="I20">
-        <v>135204974000</v>
+        <v>50158165000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-05T10:30:00.000Z</v>
+        <v>2023-01-05T09:44:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1963797085000</v>
+        <v>798007758000</v>
       </c>
       <c r="L20">
-        <v>117657700</v>
+        <v>51408200</v>
       </c>
       <c r="M20">
-        <v>-3561500</v>
+        <v>513900</v>
       </c>
       <c r="N20">
-        <v>-47033510000</v>
+        <v>9725077000</v>
       </c>
       <c r="O20">
-        <v>1047600</v>
+        <v>9058400</v>
       </c>
       <c r="P20">
-        <v>169270485000</v>
+        <v>159842722000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1672914900000</v>
+        <v>1672911960000</v>
       </c>
       <c r="B21">
-        <v>4172300</v>
+        <v>2114500</v>
       </c>
       <c r="C21">
-        <v>1689100</v>
+        <v>1474000</v>
       </c>
       <c r="D21">
-        <v>19500</v>
+        <v>13100</v>
       </c>
       <c r="E21">
-        <v>64132373000</v>
+        <v>28441180000</v>
       </c>
       <c r="F21">
-        <v>34131640000</v>
+        <v>26862529000</v>
       </c>
       <c r="G21">
-        <v>191512000</v>
+        <v>191657000</v>
       </c>
       <c r="H21">
-        <v>5880900</v>
+        <v>3601600</v>
       </c>
       <c r="I21">
-        <v>98455525000</v>
+        <v>55495366000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-05T10:35:00.000Z</v>
+        <v>2023-01-05T09:46:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2062252610000</v>
+        <v>853503124000</v>
       </c>
       <c r="L21">
-        <v>123538600</v>
+        <v>55009800</v>
       </c>
       <c r="M21">
-        <v>-2483200</v>
+        <v>-640500</v>
       </c>
       <c r="N21">
-        <v>-30000733000</v>
+        <v>-1578651000</v>
       </c>
       <c r="O21">
-        <v>-1435600</v>
+        <v>8417900</v>
       </c>
       <c r="P21">
-        <v>139269752000</v>
+        <v>158264071000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1672915200000</v>
+        <v>1672912080000</v>
       </c>
       <c r="B22">
-        <v>6034400</v>
+        <v>1216900</v>
       </c>
       <c r="C22">
-        <v>1804500</v>
+        <v>891200</v>
       </c>
       <c r="D22">
-        <v>207500</v>
+        <v>19900</v>
       </c>
       <c r="E22">
-        <v>100917089000</v>
+        <v>19307474000</v>
       </c>
       <c r="F22">
-        <v>34139849000</v>
+        <v>14667945000</v>
       </c>
       <c r="G22">
-        <v>2938378000</v>
+        <v>277812000</v>
       </c>
       <c r="H22">
-        <v>8046400</v>
+        <v>2128000</v>
       </c>
       <c r="I22">
-        <v>137995316000</v>
+        <v>34253231000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-05T10:40:00.000Z</v>
+        <v>2023-01-05T09:48:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2200247926000</v>
+        <v>887756355000</v>
       </c>
       <c r="L22">
-        <v>131585000</v>
+        <v>57137800</v>
       </c>
       <c r="M22">
-        <v>-4229900</v>
+        <v>-325700</v>
       </c>
       <c r="N22">
-        <v>-66777240000</v>
+        <v>-4639529000</v>
       </c>
       <c r="O22">
-        <v>-5665500</v>
+        <v>8092200</v>
       </c>
       <c r="P22">
-        <v>72492512000</v>
+        <v>153624542000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1672915500000</v>
+        <v>1672912200000</v>
       </c>
       <c r="B23">
-        <v>6402700</v>
+        <v>1330400</v>
       </c>
       <c r="C23">
-        <v>2592700</v>
+        <v>707100</v>
       </c>
       <c r="D23">
-        <v>28600</v>
+        <v>5300</v>
       </c>
       <c r="E23">
-        <v>112118609000</v>
+        <v>23116948000</v>
       </c>
       <c r="F23">
-        <v>49380441000</v>
+        <v>13566779000</v>
       </c>
       <c r="G23">
-        <v>326112000</v>
+        <v>107100000</v>
       </c>
       <c r="H23">
-        <v>9024000</v>
+        <v>2042800</v>
       </c>
       <c r="I23">
-        <v>161825162000</v>
+        <v>36790827000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-05T10:45:00.000Z</v>
+        <v>2023-01-05T09:50:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2362073088000</v>
+        <v>924547182000</v>
       </c>
       <c r="L23">
-        <v>140609000</v>
+        <v>59180600</v>
       </c>
       <c r="M23">
-        <v>-3810000</v>
+        <v>-623300</v>
       </c>
       <c r="N23">
-        <v>-62738168000</v>
+        <v>-9550169000</v>
       </c>
       <c r="O23">
-        <v>-9475500</v>
+        <v>7468900</v>
       </c>
       <c r="P23">
-        <v>9754344000</v>
+        <v>144074373000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1672915800000</v>
+        <v>1672912320000</v>
       </c>
       <c r="B24">
-        <v>4359100</v>
+        <v>1214300</v>
       </c>
       <c r="C24">
-        <v>2535800</v>
+        <v>849300</v>
       </c>
       <c r="D24">
-        <v>36900</v>
+        <v>11200</v>
       </c>
       <c r="E24">
-        <v>75627806000</v>
+        <v>20525731000</v>
       </c>
       <c r="F24">
-        <v>43188185000</v>
+        <v>15933824000</v>
       </c>
       <c r="G24">
-        <v>271187000</v>
+        <v>166808000</v>
       </c>
       <c r="H24">
-        <v>6931800</v>
+        <v>2074800</v>
       </c>
       <c r="I24">
-        <v>119087178000</v>
+        <v>36626363000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-05T10:50:00.000Z</v>
+        <v>2023-01-05T09:52:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2481160266000</v>
+        <v>961173545000</v>
       </c>
       <c r="L24">
-        <v>147540800</v>
+        <v>61255400</v>
       </c>
       <c r="M24">
-        <v>-1823300</v>
+        <v>-365000</v>
       </c>
       <c r="N24">
-        <v>-32439621000</v>
+        <v>-4591907000</v>
       </c>
       <c r="O24">
-        <v>-11298800</v>
+        <v>7103900</v>
       </c>
       <c r="P24">
-        <v>-22685277000</v>
+        <v>139482466000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1672916100000</v>
+        <v>1672912440000</v>
       </c>
       <c r="B25">
-        <v>2415700</v>
+        <v>1280300</v>
       </c>
       <c r="C25">
-        <v>4523000</v>
+        <v>742100</v>
       </c>
       <c r="D25">
-        <v>37700</v>
+        <v>20000</v>
       </c>
       <c r="E25">
-        <v>40602676000</v>
+        <v>21956148000</v>
       </c>
       <c r="F25">
-        <v>81195390000</v>
+        <v>15228425000</v>
       </c>
       <c r="G25">
-        <v>1008420000</v>
+        <v>401046000</v>
       </c>
       <c r="H25">
-        <v>6976400</v>
+        <v>2042400</v>
       </c>
       <c r="I25">
-        <v>122806486000</v>
+        <v>37585619000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-05T10:55:00.000Z</v>
+        <v>2023-01-05T09:54:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2603966752000</v>
+        <v>998759164000</v>
       </c>
       <c r="L25">
-        <v>154517200</v>
+        <v>63297800</v>
       </c>
       <c r="M25">
-        <v>2107300</v>
+        <v>-538200</v>
       </c>
       <c r="N25">
-        <v>40592714000</v>
+        <v>-6727723000</v>
       </c>
       <c r="O25">
-        <v>-9191500</v>
+        <v>6565700</v>
       </c>
       <c r="P25">
-        <v>17907437000</v>
+        <v>132754743000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1672916400000</v>
+        <v>1672912560000</v>
       </c>
       <c r="B26">
-        <v>1478200</v>
+        <v>711200</v>
       </c>
       <c r="C26">
-        <v>2666800</v>
+        <v>1718800</v>
       </c>
       <c r="D26">
-        <v>58000</v>
+        <v>3000</v>
       </c>
       <c r="E26">
-        <v>27345290000</v>
+        <v>10623580000</v>
       </c>
       <c r="F26">
-        <v>56478206000</v>
+        <v>33449145000</v>
       </c>
       <c r="G26">
-        <v>849937000</v>
+        <v>79264000</v>
       </c>
       <c r="H26">
-        <v>4203000</v>
+        <v>2433000</v>
       </c>
       <c r="I26">
-        <v>84673433000</v>
+        <v>44151989000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-05T11:00:00.000Z</v>
+        <v>2023-01-05T09:56:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2688640185000</v>
+        <v>1042911153000</v>
       </c>
       <c r="L26">
-        <v>158720200</v>
+        <v>65730800</v>
       </c>
       <c r="M26">
-        <v>1188600</v>
+        <v>1007600</v>
       </c>
       <c r="N26">
-        <v>29132916000</v>
+        <v>22825565000</v>
       </c>
       <c r="O26">
-        <v>-8002900</v>
+        <v>7573300</v>
       </c>
       <c r="P26">
-        <v>47040353000</v>
+        <v>155580308000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1672916700000</v>
+        <v>1672912680000</v>
       </c>
       <c r="B27">
-        <v>3163900</v>
+        <v>818600</v>
       </c>
       <c r="C27">
-        <v>2323500</v>
+        <v>1373500</v>
       </c>
       <c r="D27">
-        <v>65100</v>
+        <v>16000</v>
       </c>
       <c r="E27">
-        <v>54624655000</v>
+        <v>12775450000</v>
       </c>
       <c r="F27">
-        <v>39089636000</v>
+        <v>23916742000</v>
       </c>
       <c r="G27">
-        <v>781908000</v>
+        <v>190512000</v>
       </c>
       <c r="H27">
-        <v>5552500</v>
+        <v>2208100</v>
       </c>
       <c r="I27">
-        <v>94496199000</v>
+        <v>36882704000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-05T11:05:00.000Z</v>
+        <v>2023-01-05T09:58:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2783136384000</v>
+        <v>1079793857000</v>
       </c>
       <c r="L27">
-        <v>164272700</v>
+        <v>67938900</v>
       </c>
       <c r="M27">
-        <v>-840400</v>
+        <v>554900</v>
       </c>
       <c r="N27">
-        <v>-15535019000</v>
+        <v>11141292000</v>
       </c>
       <c r="O27">
-        <v>-8843300</v>
+        <v>8128200</v>
       </c>
       <c r="P27">
-        <v>31505334000</v>
+        <v>166721600000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1672917000000</v>
+        <v>1672912800000</v>
       </c>
       <c r="B28">
-        <v>2732900</v>
+        <v>865100</v>
       </c>
       <c r="C28">
-        <v>1716400</v>
+        <v>1969800</v>
       </c>
       <c r="D28">
-        <v>5100</v>
+        <v>800</v>
       </c>
       <c r="E28">
-        <v>44494879000</v>
+        <v>11632594000</v>
       </c>
       <c r="F28">
-        <v>31493775000</v>
+        <v>40378256000</v>
       </c>
       <c r="G28">
-        <v>66991000</v>
+        <v>3311999.9999999995</v>
       </c>
       <c r="H28">
-        <v>4454400</v>
+        <v>2835700</v>
       </c>
       <c r="I28">
-        <v>76055645000</v>
+        <v>52014162000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-05T11:10:00.000Z</v>
+        <v>2023-01-05T10:00:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2859192029000</v>
+        <v>1131808019000</v>
       </c>
       <c r="L28">
-        <v>168727100</v>
+        <v>70774600</v>
       </c>
       <c r="M28">
-        <v>-1016500</v>
+        <v>1104700</v>
       </c>
       <c r="N28">
-        <v>-13001104000</v>
+        <v>28745662000</v>
       </c>
       <c r="O28">
-        <v>-9859800</v>
+        <v>9232900</v>
       </c>
       <c r="P28">
-        <v>18504230000</v>
+        <v>195467262000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1672917300000</v>
+        <v>1672912920000</v>
       </c>
       <c r="B29">
-        <v>3579300</v>
+        <v>1156000</v>
       </c>
       <c r="C29">
-        <v>1314500</v>
+        <v>2485900</v>
       </c>
       <c r="D29">
-        <v>10500</v>
+        <v>7900</v>
       </c>
       <c r="E29">
-        <v>57492810000</v>
+        <v>18015112000</v>
       </c>
       <c r="F29">
-        <v>28472656000</v>
+        <v>53242260000</v>
       </c>
       <c r="G29">
-        <v>165902000</v>
+        <v>196175000</v>
       </c>
       <c r="H29">
-        <v>4904300</v>
+        <v>3649800</v>
       </c>
       <c r="I29">
-        <v>86131368000</v>
+        <v>71453547000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-05T11:15:00.000Z</v>
+        <v>2023-01-05T10:02:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2945323397000</v>
+        <v>1203261566000</v>
       </c>
       <c r="L29">
-        <v>173631400</v>
+        <v>74424400</v>
       </c>
       <c r="M29">
-        <v>-2264800</v>
+        <v>1329900</v>
       </c>
       <c r="N29">
-        <v>-29020154000</v>
+        <v>35227148000</v>
       </c>
       <c r="O29">
-        <v>-12124600</v>
+        <v>10562800</v>
       </c>
       <c r="P29">
-        <v>-10515924000</v>
+        <v>230694410000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1672917600000</v>
+        <v>1672913040000</v>
       </c>
       <c r="B30">
-        <v>3831200</v>
+        <v>1080100</v>
       </c>
       <c r="C30">
-        <v>1368200</v>
+        <v>1765100</v>
       </c>
       <c r="D30">
-        <v>14100</v>
+        <v>30700</v>
       </c>
       <c r="E30">
-        <v>60300402000</v>
+        <v>17965519000</v>
       </c>
       <c r="F30">
-        <v>28626675000</v>
+        <v>34090001000</v>
       </c>
       <c r="G30">
-        <v>214376000</v>
+        <v>508520000</v>
       </c>
       <c r="H30">
-        <v>5213500</v>
+        <v>2875900</v>
       </c>
       <c r="I30">
-        <v>89141453000</v>
+        <v>52564040000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-05T11:20:00.000Z</v>
+        <v>2023-01-05T10:04:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3034464850000</v>
+        <v>1255825606000</v>
       </c>
       <c r="L30">
-        <v>178844900</v>
+        <v>77300300</v>
       </c>
       <c r="M30">
-        <v>-2463000</v>
+        <v>685000</v>
       </c>
       <c r="N30">
-        <v>-31673727000</v>
+        <v>16124482000</v>
       </c>
       <c r="O30">
-        <v>-14587600</v>
+        <v>11247800</v>
       </c>
       <c r="P30">
-        <v>-42189651000</v>
+        <v>246818892000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1672917900000</v>
+        <v>1672913160000</v>
       </c>
       <c r="B31">
-        <v>3408200</v>
+        <v>1124100</v>
       </c>
       <c r="C31">
-        <v>1701000</v>
+        <v>1562900</v>
       </c>
       <c r="D31">
-        <v>14200</v>
+        <v>3000</v>
       </c>
       <c r="E31">
-        <v>59334825000</v>
+        <v>17895248000</v>
       </c>
       <c r="F31">
-        <v>31902477000</v>
+        <v>24581525000</v>
       </c>
       <c r="G31">
-        <v>328473000</v>
+        <v>45000000</v>
       </c>
       <c r="H31">
-        <v>5123400</v>
+        <v>2690000</v>
       </c>
       <c r="I31">
-        <v>91565775000</v>
+        <v>42521773000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-05T11:25:00.000Z</v>
+        <v>2023-01-05T10:06:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3126030625000</v>
+        <v>1298347379000</v>
       </c>
       <c r="L31">
-        <v>183968300</v>
+        <v>79990300</v>
       </c>
       <c r="M31">
-        <v>-1707200</v>
+        <v>438800</v>
       </c>
       <c r="N31">
-        <v>-27432348000</v>
+        <v>6686277000</v>
       </c>
       <c r="O31">
-        <v>-16294800</v>
+        <v>11686600</v>
       </c>
       <c r="P31">
-        <v>-69621999000</v>
+        <v>253505169000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1672918200000</v>
+        <v>1672913280000</v>
       </c>
       <c r="B32">
-        <v>32800</v>
+        <v>1282200</v>
       </c>
       <c r="C32">
-        <v>1100</v>
+        <v>1299900</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E32">
-        <v>347393000</v>
+        <v>23735962000</v>
       </c>
       <c r="F32">
-        <v>30367000</v>
+        <v>26180708000</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>79250000</v>
       </c>
       <c r="H32">
-        <v>33900</v>
+        <v>2588100</v>
       </c>
       <c r="I32">
-        <v>377760000</v>
+        <v>49995920000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-05T11:30:00.000Z</v>
+        <v>2023-01-05T10:08:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3126408385000</v>
+        <v>1348343299000</v>
       </c>
       <c r="L32">
-        <v>184002200</v>
+        <v>82578400</v>
       </c>
       <c r="M32">
-        <v>-31700</v>
+        <v>17700</v>
       </c>
       <c r="N32">
-        <v>-317026000</v>
+        <v>2444746000</v>
       </c>
       <c r="O32">
-        <v>-16326500</v>
+        <v>11704300</v>
       </c>
       <c r="P32">
-        <v>-69939025000</v>
+        <v>255949915000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1672923600000</v>
+        <v>1672913400000</v>
       </c>
       <c r="B33">
-        <v>8665400</v>
+        <v>1358200</v>
       </c>
       <c r="C33">
-        <v>5880000</v>
+        <v>1047600</v>
       </c>
       <c r="D33">
-        <v>329800</v>
+        <v>1200</v>
       </c>
       <c r="E33">
-        <v>140260072000</v>
+        <v>23465741000</v>
       </c>
       <c r="F33">
-        <v>102788698000</v>
+        <v>20442668000</v>
       </c>
       <c r="G33">
-        <v>4737511000</v>
+        <v>79530000</v>
       </c>
       <c r="H33">
-        <v>14875200</v>
+        <v>2407000</v>
       </c>
       <c r="I33">
-        <v>247786281000</v>
+        <v>43987939000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-05T13:00:00.000Z</v>
+        <v>2023-01-05T10:10:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3374194666000</v>
+        <v>1392331238000</v>
       </c>
       <c r="L33">
-        <v>198877400</v>
+        <v>84985400</v>
       </c>
       <c r="M33">
-        <v>-2785400</v>
+        <v>-310600</v>
       </c>
       <c r="N33">
-        <v>-37471374000</v>
+        <v>-3023073000</v>
       </c>
       <c r="O33">
-        <v>-19111900</v>
+        <v>11393700</v>
       </c>
       <c r="P33">
-        <v>-107410399000</v>
+        <v>252926842000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1672923900000</v>
+        <v>1672913520000</v>
       </c>
       <c r="B34">
-        <v>3611000</v>
+        <v>1170000</v>
       </c>
       <c r="C34">
-        <v>6878500</v>
+        <v>963300</v>
       </c>
       <c r="D34">
-        <v>64100</v>
+        <v>32700</v>
       </c>
       <c r="E34">
-        <v>57197591000</v>
+        <v>20547516000</v>
       </c>
       <c r="F34">
-        <v>113398790000</v>
+        <v>18661305000</v>
       </c>
       <c r="G34">
-        <v>1000440000</v>
+        <v>378151000</v>
       </c>
       <c r="H34">
-        <v>10553600</v>
+        <v>2166000</v>
       </c>
       <c r="I34">
-        <v>171596821000</v>
+        <v>39586972000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-05T13:05:00.000Z</v>
+        <v>2023-01-05T10:12:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3545791487000</v>
+        <v>1431918210000</v>
       </c>
       <c r="L34">
-        <v>209431000</v>
+        <v>87151400</v>
       </c>
       <c r="M34">
-        <v>3267500</v>
+        <v>-206700</v>
       </c>
       <c r="N34">
-        <v>56201199000</v>
+        <v>-1886211000</v>
       </c>
       <c r="O34">
-        <v>-15844400</v>
+        <v>11187000</v>
       </c>
       <c r="P34">
-        <v>-51209200000</v>
+        <v>251040631000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1672924200000</v>
+        <v>1672913640000</v>
       </c>
       <c r="B35">
-        <v>2916300</v>
+        <v>1457100</v>
       </c>
       <c r="C35">
-        <v>6007100</v>
+        <v>1398400</v>
       </c>
       <c r="D35">
-        <v>30600</v>
+        <v>9700</v>
       </c>
       <c r="E35">
-        <v>51326028000</v>
+        <v>25017912000</v>
       </c>
       <c r="F35">
-        <v>97789655000</v>
+        <v>31383556000</v>
       </c>
       <c r="G35">
-        <v>371148000</v>
+        <v>134810000</v>
       </c>
       <c r="H35">
-        <v>8954000</v>
+        <v>2865200</v>
       </c>
       <c r="I35">
-        <v>149486831000</v>
+        <v>56536278000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-05T13:10:00.000Z</v>
+        <v>2023-01-05T10:14:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3695278318000</v>
+        <v>1488454488000</v>
       </c>
       <c r="L35">
-        <v>218385000</v>
+        <v>90016600</v>
       </c>
       <c r="M35">
-        <v>3090800</v>
+        <v>-58700</v>
       </c>
       <c r="N35">
-        <v>46463627000</v>
+        <v>6365644000</v>
       </c>
       <c r="O35">
-        <v>-12753600</v>
+        <v>11128300</v>
       </c>
       <c r="P35">
-        <v>-4745573000</v>
+        <v>257406275000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1672924500000</v>
+        <v>1672913760000</v>
       </c>
       <c r="B36">
-        <v>4884400</v>
+        <v>921400</v>
       </c>
       <c r="C36">
-        <v>3310600</v>
+        <v>865600</v>
       </c>
       <c r="D36">
-        <v>15800</v>
+        <v>2600</v>
       </c>
       <c r="E36">
-        <v>82626291000</v>
+        <v>14579800000</v>
       </c>
       <c r="F36">
-        <v>57026835000</v>
+        <v>20256497000</v>
       </c>
       <c r="G36">
-        <v>213187000</v>
+        <v>68482000</v>
       </c>
       <c r="H36">
-        <v>8210800</v>
+        <v>1789600</v>
       </c>
       <c r="I36">
-        <v>139866313000</v>
+        <v>34904779000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-05T13:15:00.000Z</v>
+        <v>2023-01-05T10:16:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3835144631000</v>
+        <v>1523359267000</v>
       </c>
       <c r="L36">
-        <v>226595800</v>
+        <v>91806200</v>
       </c>
       <c r="M36">
-        <v>-1573800</v>
+        <v>-55800</v>
       </c>
       <c r="N36">
-        <v>-25599456000</v>
+        <v>5676697000</v>
       </c>
       <c r="O36">
-        <v>-14327400</v>
+        <v>11072500</v>
       </c>
       <c r="P36">
-        <v>-30345029000</v>
+        <v>263082972000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1672924800000</v>
+        <v>1672913880000</v>
       </c>
       <c r="B37">
-        <v>3819600</v>
+        <v>1240100</v>
       </c>
       <c r="C37">
-        <v>4133300</v>
+        <v>955300</v>
       </c>
       <c r="D37">
-        <v>44500</v>
+        <v>600</v>
       </c>
       <c r="E37">
-        <v>58783836000</v>
+        <v>18436906000</v>
       </c>
       <c r="F37">
-        <v>73622803000</v>
+        <v>21191996000</v>
       </c>
       <c r="G37">
-        <v>1024032000</v>
+        <v>36480000</v>
       </c>
       <c r="H37">
-        <v>7997400</v>
+        <v>2196000</v>
       </c>
       <c r="I37">
-        <v>133430671000</v>
+        <v>39665382000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-05T13:20:00.000Z</v>
+        <v>2023-01-05T10:18:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3968575302000</v>
+        <v>1563024649000</v>
       </c>
       <c r="L37">
-        <v>234593200</v>
+        <v>94002200</v>
       </c>
       <c r="M37">
-        <v>313700</v>
+        <v>-284800</v>
       </c>
       <c r="N37">
-        <v>14838967000</v>
+        <v>2755090000</v>
       </c>
       <c r="O37">
-        <v>-14013700</v>
+        <v>10787700</v>
       </c>
       <c r="P37">
-        <v>-15506062000</v>
+        <v>265838062000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1672925100000</v>
+        <v>1672914000000</v>
       </c>
       <c r="B38">
-        <v>4409000</v>
+        <v>1478400</v>
       </c>
       <c r="C38">
-        <v>12294900</v>
+        <v>848400</v>
       </c>
       <c r="D38">
-        <v>48200</v>
+        <v>20700</v>
       </c>
       <c r="E38">
-        <v>65571930000</v>
+        <v>23479758000</v>
       </c>
       <c r="F38">
-        <v>202297048000</v>
+        <v>19615261000</v>
       </c>
       <c r="G38">
-        <v>1038142000</v>
+        <v>852863000</v>
       </c>
       <c r="H38">
-        <v>16752100</v>
+        <v>2347500</v>
       </c>
       <c r="I38">
-        <v>268907120000</v>
+        <v>43947882000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-05T13:25:00.000Z</v>
+        <v>2023-01-05T10:20:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4237482422000</v>
+        <v>1606972531000</v>
       </c>
       <c r="L38">
-        <v>251345300</v>
+        <v>96349700</v>
       </c>
       <c r="M38">
-        <v>7885900</v>
+        <v>-630000</v>
       </c>
       <c r="N38">
-        <v>136725118000</v>
+        <v>-3864497000</v>
       </c>
       <c r="O38">
-        <v>-6127800</v>
+        <v>10157700</v>
       </c>
       <c r="P38">
-        <v>121219056000</v>
+        <v>261973565000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1672925400000</v>
+        <v>1672914120000</v>
       </c>
       <c r="B39">
-        <v>6207400</v>
+        <v>2706300</v>
       </c>
       <c r="C39">
-        <v>8907900</v>
+        <v>1017100</v>
       </c>
       <c r="D39">
-        <v>89600</v>
+        <v>1900</v>
       </c>
       <c r="E39">
-        <v>91284281000</v>
+        <v>40755157000</v>
       </c>
       <c r="F39">
-        <v>140833723000</v>
+        <v>33201163000</v>
       </c>
       <c r="G39">
-        <v>1219360000</v>
+        <v>21200000</v>
       </c>
       <c r="H39">
-        <v>15204900</v>
+        <v>3725300</v>
       </c>
       <c r="I39">
-        <v>233337364000</v>
+        <v>73977520000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-05T13:30:00.000Z</v>
+        <v>2023-01-05T10:22:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4470819786000</v>
+        <v>1680950051000</v>
       </c>
       <c r="L39">
-        <v>266550200</v>
+        <v>100075000</v>
       </c>
       <c r="M39">
-        <v>2700500</v>
+        <v>-1689200</v>
       </c>
       <c r="N39">
-        <v>49549442000</v>
+        <v>-7553994000</v>
       </c>
       <c r="O39">
-        <v>-3427300</v>
+        <v>8468500</v>
       </c>
       <c r="P39">
-        <v>170768498000</v>
+        <v>254419571000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1672925700000</v>
+        <v>1672914240000</v>
       </c>
       <c r="B40">
-        <v>5363500</v>
+        <v>2383000</v>
       </c>
       <c r="C40">
-        <v>4503500</v>
+        <v>754100</v>
       </c>
       <c r="D40">
-        <v>16100</v>
+        <v>2500</v>
       </c>
       <c r="E40">
-        <v>81311562000</v>
+        <v>29611935000</v>
       </c>
       <c r="F40">
-        <v>76088145000</v>
+        <v>19513706000</v>
       </c>
       <c r="G40">
-        <v>268012000</v>
+        <v>57672000</v>
       </c>
       <c r="H40">
-        <v>9883100</v>
+        <v>3139600</v>
       </c>
       <c r="I40">
-        <v>157667719000</v>
+        <v>49183313000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-05T13:35:00.000Z</v>
+        <v>2023-01-05T10:24:00.000Z</v>
       </c>
       <c r="K40">
-        <v>4628487505000</v>
+        <v>1730133364000</v>
       </c>
       <c r="L40">
-        <v>276433300</v>
+        <v>103214600</v>
       </c>
       <c r="M40">
-        <v>-860000</v>
+        <v>-1628900</v>
       </c>
       <c r="N40">
-        <v>-5223417000</v>
+        <v>-10098229000</v>
       </c>
       <c r="O40">
-        <v>-4287300</v>
+        <v>6839600</v>
       </c>
       <c r="P40">
-        <v>165545081000</v>
+        <v>244321342000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1672926000000</v>
+        <v>1672914360000</v>
       </c>
       <c r="B41">
-        <v>3515700</v>
+        <v>1995400</v>
       </c>
       <c r="C41">
-        <v>7646100</v>
+        <v>1077500</v>
       </c>
       <c r="D41">
-        <v>69600</v>
+        <v>9100</v>
       </c>
       <c r="E41">
-        <v>52832212000</v>
+        <v>29866466000</v>
       </c>
       <c r="F41">
-        <v>132444980000</v>
+        <v>19202018000</v>
       </c>
       <c r="G41">
-        <v>1455658000</v>
+        <v>44407000</v>
       </c>
       <c r="H41">
-        <v>11231400</v>
+        <v>3082000</v>
       </c>
       <c r="I41">
-        <v>186732850000</v>
+        <v>49112891000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-05T13:40:00.000Z</v>
+        <v>2023-01-05T10:26:00.000Z</v>
       </c>
       <c r="K41">
-        <v>4815220355000</v>
+        <v>1779246255000</v>
       </c>
       <c r="L41">
-        <v>287664700</v>
+        <v>106296600</v>
       </c>
       <c r="M41">
-        <v>4130400</v>
+        <v>-917900</v>
       </c>
       <c r="N41">
-        <v>79612768000</v>
+        <v>-10664448000</v>
       </c>
       <c r="O41">
-        <v>-156900</v>
+        <v>5921700</v>
       </c>
       <c r="P41">
-        <v>245157849000</v>
+        <v>233656894000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1672926300000</v>
+        <v>1672914480000</v>
       </c>
       <c r="B42">
-        <v>5508200</v>
+        <v>2094200</v>
       </c>
       <c r="C42">
-        <v>19205200</v>
+        <v>781600</v>
       </c>
       <c r="D42">
-        <v>51000</v>
+        <v>5500</v>
       </c>
       <c r="E42">
-        <v>85646715000</v>
+        <v>33279885000</v>
       </c>
       <c r="F42">
-        <v>322944612000</v>
+        <v>15926986000</v>
       </c>
       <c r="G42">
-        <v>883466000</v>
+        <v>138985000</v>
       </c>
       <c r="H42">
-        <v>24764400</v>
+        <v>2881300</v>
       </c>
       <c r="I42">
-        <v>409474793000</v>
+        <v>49345856000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-05T13:45:00.000Z</v>
+        <v>2023-01-05T10:28:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5224695148000</v>
+        <v>1828592111000</v>
       </c>
       <c r="L42">
-        <v>312429100</v>
+        <v>109177900</v>
       </c>
       <c r="M42">
-        <v>13697000</v>
+        <v>-1312600</v>
       </c>
       <c r="N42">
-        <v>237297897000</v>
+        <v>-17352899000</v>
       </c>
       <c r="O42">
-        <v>13540100</v>
+        <v>4609100</v>
       </c>
       <c r="P42">
-        <v>482455746000</v>
+        <v>216303995000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1672926600000</v>
+        <v>1672914600000</v>
       </c>
       <c r="B43">
-        <v>7807300</v>
+        <v>2564400</v>
       </c>
       <c r="C43">
-        <v>10978400</v>
+        <v>710800</v>
       </c>
       <c r="D43">
-        <v>90100</v>
+        <v>14900</v>
       </c>
       <c r="E43">
-        <v>120997288000</v>
+        <v>38417406000</v>
       </c>
       <c r="F43">
-        <v>191174012000</v>
+        <v>13098286000</v>
       </c>
       <c r="G43">
-        <v>1353949000</v>
+        <v>279732000</v>
       </c>
       <c r="H43">
-        <v>18875800</v>
+        <v>3290100</v>
       </c>
       <c r="I43">
-        <v>313525249000</v>
+        <v>51795424000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-05T13:50:00.000Z</v>
+        <v>2023-01-05T10:30:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5538220397000</v>
+        <v>1880387535000</v>
       </c>
       <c r="L43">
-        <v>331304900</v>
+        <v>112468000</v>
       </c>
       <c r="M43">
-        <v>3171100</v>
+        <v>-1853600</v>
       </c>
       <c r="N43">
-        <v>70176724000</v>
+        <v>-25319120000</v>
       </c>
       <c r="O43">
-        <v>16711200</v>
+        <v>2755500</v>
       </c>
       <c r="P43">
-        <v>552632470000</v>
+        <v>190984875000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1672926900000</v>
+        <v>1672914720000</v>
       </c>
       <c r="B44">
-        <v>6853900</v>
+        <v>2072500</v>
       </c>
       <c r="C44">
-        <v>5201700</v>
+        <v>842200</v>
       </c>
       <c r="D44">
-        <v>109900</v>
+        <v>287700</v>
       </c>
       <c r="E44">
-        <v>114896092000</v>
+        <v>32409285000</v>
       </c>
       <c r="F44">
-        <v>102488958000</v>
+        <v>16964924000</v>
       </c>
       <c r="G44">
-        <v>1575197000</v>
+        <v>1100750000</v>
       </c>
       <c r="H44">
-        <v>12165500</v>
+        <v>3202400</v>
       </c>
       <c r="I44">
-        <v>218960247000</v>
+        <v>50474959000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-05T13:55:00.000Z</v>
+        <v>2023-01-05T10:32:00.000Z</v>
       </c>
       <c r="K44">
-        <v>5757180644000</v>
+        <v>1930862494000</v>
       </c>
       <c r="L44">
-        <v>343470400</v>
+        <v>115670400</v>
       </c>
       <c r="M44">
-        <v>-1652200</v>
+        <v>-1230300</v>
       </c>
       <c r="N44">
-        <v>-12407134000</v>
+        <v>-15444361000</v>
       </c>
       <c r="O44">
-        <v>15059000</v>
+        <v>1525200</v>
       </c>
       <c r="P44">
-        <v>540225336000</v>
+        <v>175540514000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1672927200000</v>
+        <v>1672914840000</v>
       </c>
       <c r="B45">
-        <v>4924600</v>
+        <v>1947200</v>
       </c>
       <c r="C45">
-        <v>19229700</v>
+        <v>1091000</v>
       </c>
       <c r="D45">
-        <v>243400</v>
+        <v>3100</v>
       </c>
       <c r="E45">
-        <v>85904121000</v>
+        <v>30326222000</v>
       </c>
       <c r="F45">
-        <v>372661296000</v>
+        <v>19535894000</v>
       </c>
       <c r="G45">
-        <v>3836913000</v>
+        <v>60752000</v>
       </c>
       <c r="H45">
-        <v>24397700</v>
+        <v>3041300</v>
       </c>
       <c r="I45">
-        <v>462402330000</v>
+        <v>49922868000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-05T14:00:00.000Z</v>
+        <v>2023-01-05T10:34:00.000Z</v>
       </c>
       <c r="K45">
-        <v>6219582974000</v>
+        <v>1980785362000</v>
       </c>
       <c r="L45">
-        <v>367868100</v>
+        <v>118711700</v>
       </c>
       <c r="M45">
-        <v>14305100</v>
+        <v>-856200</v>
       </c>
       <c r="N45">
-        <v>286757175000</v>
+        <v>-10790328000</v>
       </c>
       <c r="O45">
-        <v>29364100</v>
+        <v>669000</v>
       </c>
       <c r="P45">
-        <v>826982511000</v>
+        <v>164750186000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1672927500000</v>
+        <v>1672914960000</v>
       </c>
       <c r="B46">
-        <v>8334700</v>
+        <v>1495700</v>
       </c>
       <c r="C46">
-        <v>11933900</v>
+        <v>606800</v>
       </c>
       <c r="D46">
-        <v>134500</v>
+        <v>11900</v>
       </c>
       <c r="E46">
-        <v>152135554000</v>
+        <v>23420329000</v>
       </c>
       <c r="F46">
-        <v>211298289000</v>
+        <v>12410701000</v>
       </c>
       <c r="G46">
-        <v>3072941000</v>
+        <v>57150000</v>
       </c>
       <c r="H46">
-        <v>20403100</v>
+        <v>2114400</v>
       </c>
       <c r="I46">
-        <v>366506784000</v>
+        <v>35888180000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-05T14:05:00.000Z</v>
+        <v>2023-01-05T10:36:00.000Z</v>
       </c>
       <c r="K46">
-        <v>6586089758000</v>
+        <v>2016673542000</v>
       </c>
       <c r="L46">
-        <v>388271200</v>
+        <v>120826100</v>
       </c>
       <c r="M46">
-        <v>3599200</v>
+        <v>-888900</v>
       </c>
       <c r="N46">
-        <v>59162735000</v>
+        <v>-11009628000</v>
       </c>
       <c r="O46">
-        <v>32963300</v>
+        <v>-219900</v>
       </c>
       <c r="P46">
-        <v>886145246000</v>
+        <v>153740558000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1672927800000</v>
+        <v>1672915080000</v>
       </c>
       <c r="B47">
-        <v>7029900</v>
+        <v>1960300</v>
       </c>
       <c r="C47">
-        <v>5995100</v>
+        <v>744600</v>
       </c>
       <c r="D47">
-        <v>102600</v>
+        <v>7600</v>
       </c>
       <c r="E47">
-        <v>123449026000</v>
+        <v>29957756000</v>
       </c>
       <c r="F47">
-        <v>118824386000</v>
+        <v>15486950000</v>
       </c>
       <c r="G47">
-        <v>1469197000</v>
+        <v>134362000</v>
       </c>
       <c r="H47">
-        <v>13127600</v>
+        <v>2712500</v>
       </c>
       <c r="I47">
-        <v>243742609000</v>
+        <v>45579068000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-05T14:10:00.000Z</v>
+        <v>2023-01-05T10:38:00.000Z</v>
       </c>
       <c r="K47">
-        <v>6829832367000</v>
+        <v>2062252610000</v>
       </c>
       <c r="L47">
-        <v>401398800</v>
+        <v>123538600</v>
       </c>
       <c r="M47">
-        <v>-1034800</v>
+        <v>-1215700</v>
       </c>
       <c r="N47">
-        <v>-4624640000</v>
+        <v>-14470806000</v>
       </c>
       <c r="O47">
-        <v>31928500</v>
+        <v>-1435600</v>
       </c>
       <c r="P47">
-        <v>881520606000</v>
+        <v>139269752000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1672928100000</v>
+        <v>1672915200000</v>
       </c>
       <c r="B48">
-        <v>5307000</v>
+        <v>2204300</v>
       </c>
       <c r="C48">
-        <v>6804600</v>
+        <v>665000</v>
       </c>
       <c r="D48">
-        <v>52300</v>
+        <v>12900</v>
       </c>
       <c r="E48">
-        <v>92192570000</v>
+        <v>35308826000</v>
       </c>
       <c r="F48">
-        <v>123436912000</v>
+        <v>12738921000</v>
       </c>
       <c r="G48">
-        <v>970767000</v>
+        <v>203535000</v>
       </c>
       <c r="H48">
-        <v>12163900</v>
+        <v>2882200</v>
       </c>
       <c r="I48">
-        <v>216600249000</v>
+        <v>48251282000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-05T14:15:00.000Z</v>
+        <v>2023-01-05T10:40:00.000Z</v>
       </c>
       <c r="K48">
-        <v>7046432616000</v>
+        <v>2110503892000</v>
       </c>
       <c r="L48">
-        <v>413562700</v>
+        <v>126420800</v>
       </c>
       <c r="M48">
-        <v>1497600</v>
+        <v>-1539300</v>
       </c>
       <c r="N48">
-        <v>31244342000</v>
+        <v>-22569905000</v>
       </c>
       <c r="O48">
-        <v>33426100</v>
+        <v>-2974900</v>
       </c>
       <c r="P48">
-        <v>912764948000</v>
+        <v>116699847000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1672928400000</v>
+        <v>1672915320000</v>
       </c>
       <c r="B49">
-        <v>7220000</v>
+        <v>2532400</v>
       </c>
       <c r="C49">
-        <v>4997800</v>
+        <v>782300</v>
       </c>
       <c r="D49">
-        <v>90000</v>
+        <v>28600</v>
       </c>
       <c r="E49">
-        <v>119985299000</v>
+        <v>43579211000</v>
       </c>
       <c r="F49">
-        <v>98955804000</v>
+        <v>14839424000</v>
       </c>
       <c r="G49">
-        <v>1649986000</v>
+        <v>432007000</v>
       </c>
       <c r="H49">
-        <v>12307800</v>
+        <v>3343300</v>
       </c>
       <c r="I49">
-        <v>220591089000</v>
+        <v>58850642000</v>
       </c>
       <c r="J49" t="str">
-        <v>2023-01-05T14:20:00.000Z</v>
+        <v>2023-01-05T10:42:00.000Z</v>
       </c>
       <c r="K49">
-        <v>7267023705000</v>
+        <v>2169354534000</v>
       </c>
       <c r="L49">
-        <v>425870500</v>
+        <v>129764100</v>
       </c>
       <c r="M49">
-        <v>-2222200</v>
+        <v>-1750100</v>
       </c>
       <c r="N49">
-        <v>-21029495000</v>
+        <v>-28739787000</v>
       </c>
       <c r="O49">
-        <v>31203900</v>
+        <v>-4725000</v>
       </c>
       <c r="P49">
-        <v>891735453000</v>
+        <v>87960060000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1672928700000</v>
+        <v>1672915440000</v>
       </c>
       <c r="B50">
-        <v>10391700</v>
+        <v>3322200</v>
       </c>
       <c r="C50">
-        <v>5133500</v>
+        <v>956200</v>
       </c>
       <c r="D50">
-        <v>75100</v>
+        <v>169100</v>
       </c>
       <c r="E50">
-        <v>173228512000</v>
+        <v>54641135000</v>
       </c>
       <c r="F50">
-        <v>88150519000</v>
+        <v>18265134000</v>
       </c>
       <c r="G50">
-        <v>889089000</v>
+        <v>2360536000</v>
       </c>
       <c r="H50">
-        <v>15600300</v>
+        <v>4447500</v>
       </c>
       <c r="I50">
-        <v>262268120000</v>
+        <v>75266805000</v>
       </c>
       <c r="J50" t="str">
-        <v>2023-01-05T14:25:00.000Z</v>
+        <v>2023-01-05T10:44:00.000Z</v>
       </c>
       <c r="K50">
-        <v>7529291825000</v>
+        <v>2244621339000</v>
       </c>
       <c r="L50">
-        <v>441470800</v>
+        <v>134211600</v>
       </c>
       <c r="M50">
-        <v>-5258200</v>
+        <v>-2366000</v>
       </c>
       <c r="N50">
-        <v>-85077993000</v>
+        <v>-36376001000</v>
       </c>
       <c r="O50">
-        <v>25945700</v>
+        <v>-7091000</v>
       </c>
       <c r="P50">
-        <v>806657460000</v>
+        <v>51584059000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1672929000000</v>
+        <v>1672915560000</v>
       </c>
       <c r="B51">
-        <v>12100</v>
+        <v>2209500</v>
       </c>
       <c r="C51">
-        <v>41700</v>
+        <v>987300</v>
       </c>
       <c r="D51">
-        <v>3000</v>
+        <v>20300</v>
       </c>
       <c r="E51">
-        <v>194189000</v>
+        <v>38367366000</v>
       </c>
       <c r="F51">
-        <v>559464000</v>
+        <v>17247609000</v>
       </c>
       <c r="G51">
-        <v>27750000</v>
+        <v>244510000</v>
       </c>
       <c r="H51">
-        <v>56800</v>
+        <v>3217100</v>
       </c>
       <c r="I51">
-        <v>781403000</v>
+        <v>55859485000</v>
       </c>
       <c r="J51" t="str">
-        <v>2023-01-05T14:30:00.000Z</v>
+        <v>2023-01-05T10:46:00.000Z</v>
       </c>
       <c r="K51">
-        <v>7530073228000</v>
+        <v>2300480824000</v>
       </c>
       <c r="L51">
-        <v>441527600</v>
+        <v>137428700</v>
       </c>
       <c r="M51">
-        <v>29600</v>
+        <v>-1222200</v>
       </c>
       <c r="N51">
-        <v>365275000</v>
+        <v>-21119757000</v>
       </c>
       <c r="O51">
-        <v>25975300</v>
+        <v>-8313200</v>
       </c>
       <c r="P51">
-        <v>807022735000</v>
+        <v>30464302000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1672929300000</v>
+        <v>1672915680000</v>
       </c>
       <c r="B52">
-        <v>2200</v>
+        <v>2168700</v>
       </c>
       <c r="C52">
-        <v>4400</v>
+        <v>1006400</v>
       </c>
       <c r="D52">
-        <v>700</v>
+        <v>5200</v>
       </c>
       <c r="E52">
-        <v>27940000</v>
+        <v>41139160000</v>
       </c>
       <c r="F52">
-        <v>56320000</v>
+        <v>20429202000</v>
       </c>
       <c r="G52">
-        <v>8960000</v>
+        <v>23902000</v>
       </c>
       <c r="H52">
-        <v>7300</v>
+        <v>3180300</v>
       </c>
       <c r="I52">
-        <v>93220000</v>
+        <v>61592264000</v>
       </c>
       <c r="J52" t="str">
-        <v>2023-01-05T14:35:00.000Z</v>
+        <v>2023-01-05T10:48:00.000Z</v>
       </c>
       <c r="K52">
-        <v>7530166448000</v>
+        <v>2362073088000</v>
       </c>
       <c r="L52">
-        <v>441534900</v>
+        <v>140609000</v>
       </c>
       <c r="M52">
-        <v>2200</v>
+        <v>-1162300</v>
       </c>
       <c r="N52">
-        <v>28380000</v>
+        <v>-20709958000</v>
       </c>
       <c r="O52">
-        <v>25977500</v>
+        <v>-9475500</v>
       </c>
       <c r="P52">
-        <v>807051115000</v>
+        <v>9754344000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1672929600000</v>
+        <v>1672915800000</v>
       </c>
       <c r="B53">
-        <v>2000</v>
+        <v>1761600</v>
       </c>
       <c r="C53">
-        <v>14300</v>
+        <v>1062300</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>22500</v>
       </c>
       <c r="E53">
-        <v>25400000</v>
+        <v>32727551000</v>
       </c>
       <c r="F53">
-        <v>183040000</v>
+        <v>17901118000</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>126020000</v>
       </c>
       <c r="H53">
-        <v>16300</v>
+        <v>2846400</v>
       </c>
       <c r="I53">
-        <v>208440000</v>
+        <v>50754689000</v>
       </c>
       <c r="J53" t="str">
-        <v>2023-01-05T14:40:00.000Z</v>
+        <v>2023-01-05T10:50:00.000Z</v>
       </c>
       <c r="K53">
-        <v>7530374888000</v>
+        <v>2412827777000</v>
       </c>
       <c r="L53">
-        <v>441551200</v>
+        <v>143455400</v>
       </c>
       <c r="M53">
-        <v>12300</v>
+        <v>-699300</v>
       </c>
       <c r="N53">
-        <v>157640000</v>
+        <v>-14826433000</v>
       </c>
       <c r="O53">
-        <v>25989800</v>
+        <v>-10174800</v>
       </c>
       <c r="P53">
-        <v>807208755000</v>
+        <v>-5072089000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1672929900000</v>
+        <v>1672915920000</v>
       </c>
       <c r="B54">
-        <v>575200</v>
+        <v>1553900</v>
       </c>
       <c r="C54">
-        <v>1242000</v>
+        <v>992200</v>
       </c>
       <c r="D54">
-        <v>26567000</v>
+        <v>7300</v>
       </c>
       <c r="E54">
-        <v>18390862000</v>
+        <v>25196619000</v>
       </c>
       <c r="F54">
-        <v>31492974000</v>
+        <v>15960115000</v>
       </c>
       <c r="G54">
-        <v>500328609000</v>
+        <v>117856000</v>
       </c>
       <c r="H54">
-        <v>28384200</v>
+        <v>2553400</v>
       </c>
       <c r="I54">
-        <v>550212445000</v>
+        <v>41274590000</v>
       </c>
       <c r="J54" t="str">
-        <v>2023-01-05T14:45:00.000Z</v>
+        <v>2023-01-05T10:52:00.000Z</v>
       </c>
       <c r="K54">
-        <v>8080587333000</v>
+        <v>2454102367000</v>
       </c>
       <c r="L54">
-        <v>469935400</v>
+        <v>146008800</v>
       </c>
       <c r="M54">
-        <v>666800</v>
+        <v>-561700</v>
       </c>
       <c r="N54">
-        <v>13102112000</v>
+        <v>-9236504000</v>
       </c>
       <c r="O54">
-        <v>26656600</v>
+        <v>-10736500</v>
       </c>
       <c r="P54">
-        <v>820310867000</v>
+        <v>-14308593000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1672930200000</v>
+        <v>1672916040000</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1831600</v>
       </c>
       <c r="C55">
-        <v>10400</v>
+        <v>1342700</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>29673934000</v>
       </c>
       <c r="F55">
-        <v>133860000</v>
+        <v>22582798000</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>408411000</v>
       </c>
       <c r="H55">
-        <v>10400</v>
+        <v>3188800</v>
       </c>
       <c r="I55">
-        <v>133860000</v>
+        <v>52665143000</v>
       </c>
       <c r="J55" t="str">
-        <v>2023-01-05T14:50:00.000Z</v>
+        <v>2023-01-05T10:54:00.000Z</v>
       </c>
       <c r="K55">
-        <v>8080721193000</v>
+        <v>2506767510000</v>
       </c>
       <c r="L55">
-        <v>469945800</v>
+        <v>149197600</v>
       </c>
       <c r="M55">
-        <v>10400</v>
+        <v>-488900</v>
       </c>
       <c r="N55">
-        <v>133860000</v>
+        <v>-7091136000</v>
       </c>
       <c r="O55">
-        <v>26667000</v>
+        <v>-11225400</v>
       </c>
       <c r="P55">
-        <v>820444727000</v>
+        <v>-21399729000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1672930500000</v>
+        <v>1672916160000</v>
       </c>
       <c r="B56">
+        <v>778700</v>
+      </c>
+      <c r="C56">
+        <v>1795000</v>
+      </c>
+      <c r="D56">
+        <v>27900</v>
+      </c>
+      <c r="E56">
+        <v>14283152000</v>
+      </c>
+      <c r="F56">
+        <v>35853369000</v>
+      </c>
+      <c r="G56">
+        <v>566180000</v>
+      </c>
+      <c r="H56">
+        <v>2601600</v>
+      </c>
+      <c r="I56">
+        <v>50702701000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-05T10:56:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2557470211000</v>
+      </c>
+      <c r="L56">
+        <v>151799200</v>
+      </c>
+      <c r="M56">
+        <v>1016300</v>
+      </c>
+      <c r="N56">
+        <v>21570217000</v>
+      </c>
+      <c r="O56">
+        <v>-10209100</v>
+      </c>
+      <c r="P56">
+        <v>170488000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1672916280000</v>
+      </c>
+      <c r="B57">
+        <v>849000</v>
+      </c>
+      <c r="C57">
+        <v>1866600</v>
+      </c>
+      <c r="D57">
+        <v>2400</v>
+      </c>
+      <c r="E57">
+        <v>14349226000</v>
+      </c>
+      <c r="F57">
+        <v>32086175000</v>
+      </c>
+      <c r="G57">
+        <v>61140000</v>
+      </c>
+      <c r="H57">
+        <v>2718000</v>
+      </c>
+      <c r="I57">
+        <v>46496541000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-05T10:58:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2603966752000</v>
+      </c>
+      <c r="L57">
+        <v>154517200</v>
+      </c>
+      <c r="M57">
+        <v>1017600</v>
+      </c>
+      <c r="N57">
+        <v>17736949000</v>
+      </c>
+      <c r="O57">
+        <v>-9191500</v>
+      </c>
+      <c r="P57">
+        <v>17907437000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1672916400000</v>
+      </c>
+      <c r="B58">
+        <v>459700</v>
+      </c>
+      <c r="C58">
+        <v>1247900</v>
+      </c>
+      <c r="D58">
+        <v>15000</v>
+      </c>
+      <c r="E58">
+        <v>8604283000</v>
+      </c>
+      <c r="F58">
+        <v>26790889000</v>
+      </c>
+      <c r="G58">
+        <v>373945000</v>
+      </c>
+      <c r="H58">
+        <v>1722600</v>
+      </c>
+      <c r="I58">
+        <v>35769117000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-05T11:00:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2639735869000</v>
+      </c>
+      <c r="L58">
+        <v>156239800</v>
+      </c>
+      <c r="M58">
+        <v>788200</v>
+      </c>
+      <c r="N58">
+        <v>18186606000</v>
+      </c>
+      <c r="O58">
+        <v>-8403300</v>
+      </c>
+      <c r="P58">
+        <v>36094043000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1672916520000</v>
+      </c>
+      <c r="B59">
+        <v>585000</v>
+      </c>
+      <c r="C59">
+        <v>940000</v>
+      </c>
+      <c r="D59">
+        <v>43000</v>
+      </c>
+      <c r="E59">
+        <v>11141663000</v>
+      </c>
+      <c r="F59">
+        <v>19890982000</v>
+      </c>
+      <c r="G59">
+        <v>475992000</v>
+      </c>
+      <c r="H59">
+        <v>1568000</v>
+      </c>
+      <c r="I59">
+        <v>31508637000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-05T11:02:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2671244506000</v>
+      </c>
+      <c r="L59">
+        <v>157807800</v>
+      </c>
+      <c r="M59">
+        <v>355000</v>
+      </c>
+      <c r="N59">
+        <v>8749319000</v>
+      </c>
+      <c r="O59">
+        <v>-8048300</v>
+      </c>
+      <c r="P59">
+        <v>44843362000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1672916640000</v>
+      </c>
+      <c r="B60">
+        <v>869200</v>
+      </c>
+      <c r="C60">
+        <v>1139000</v>
+      </c>
+      <c r="D60">
+        <v>47200</v>
+      </c>
+      <c r="E60">
+        <v>15645959000</v>
+      </c>
+      <c r="F60">
+        <v>19765920000</v>
+      </c>
+      <c r="G60">
+        <v>434491000</v>
+      </c>
+      <c r="H60">
+        <v>2055400</v>
+      </c>
+      <c r="I60">
+        <v>35846370000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-05T11:04:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2707090876000</v>
+      </c>
+      <c r="L60">
+        <v>159863200</v>
+      </c>
+      <c r="M60">
+        <v>269800</v>
+      </c>
+      <c r="N60">
+        <v>4119961000</v>
+      </c>
+      <c r="O60">
+        <v>-7778500</v>
+      </c>
+      <c r="P60">
+        <v>48963323000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1672916760000</v>
+      </c>
+      <c r="B61">
+        <v>1058900</v>
+      </c>
+      <c r="C61">
+        <v>806100</v>
+      </c>
+      <c r="D61">
+        <v>12600</v>
+      </c>
+      <c r="E61">
+        <v>20287404000</v>
+      </c>
+      <c r="F61">
+        <v>16150523000</v>
+      </c>
+      <c r="G61">
+        <v>302613000</v>
+      </c>
+      <c r="H61">
+        <v>1877600</v>
+      </c>
+      <c r="I61">
+        <v>36740540000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-05T11:06:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2743831416000</v>
+      </c>
+      <c r="L61">
+        <v>161740800</v>
+      </c>
+      <c r="M61">
+        <v>-252800</v>
+      </c>
+      <c r="N61">
+        <v>-4136881000</v>
+      </c>
+      <c r="O61">
+        <v>-8031300</v>
+      </c>
+      <c r="P61">
+        <v>44826442000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1672916880000</v>
+      </c>
+      <c r="B62">
+        <v>1669300</v>
+      </c>
+      <c r="C62">
+        <v>857300</v>
+      </c>
+      <c r="D62">
+        <v>5300</v>
+      </c>
+      <c r="E62">
+        <v>26290636000</v>
+      </c>
+      <c r="F62">
+        <v>12969528000</v>
+      </c>
+      <c r="G62">
+        <v>44804000</v>
+      </c>
+      <c r="H62">
+        <v>2531900</v>
+      </c>
+      <c r="I62">
+        <v>39304968000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-05T11:08:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2783136384000</v>
+      </c>
+      <c r="L62">
+        <v>164272700</v>
+      </c>
+      <c r="M62">
+        <v>-812000</v>
+      </c>
+      <c r="N62">
+        <v>-13321108000</v>
+      </c>
+      <c r="O62">
+        <v>-8843300</v>
+      </c>
+      <c r="P62">
+        <v>31505334000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1672917000000</v>
+      </c>
+      <c r="B63">
+        <v>1229000</v>
+      </c>
+      <c r="C63">
+        <v>750500</v>
+      </c>
+      <c r="D63">
+        <v>700</v>
+      </c>
+      <c r="E63">
+        <v>19650023000</v>
+      </c>
+      <c r="F63">
+        <v>12372287000</v>
+      </c>
+      <c r="G63">
+        <v>46046000</v>
+      </c>
+      <c r="H63">
+        <v>1980200</v>
+      </c>
+      <c r="I63">
+        <v>32068356000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-05T11:10:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2815204740000</v>
+      </c>
+      <c r="L63">
+        <v>166252900</v>
+      </c>
+      <c r="M63">
+        <v>-478500</v>
+      </c>
+      <c r="N63">
+        <v>-7277736000</v>
+      </c>
+      <c r="O63">
+        <v>-9321800</v>
+      </c>
+      <c r="P63">
+        <v>24227598000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1672917120000</v>
+      </c>
+      <c r="B64">
+        <v>1099900</v>
+      </c>
+      <c r="C64">
+        <v>734400</v>
+      </c>
+      <c r="D64">
+        <v>4100</v>
+      </c>
+      <c r="E64">
+        <v>18648352000</v>
+      </c>
+      <c r="F64">
+        <v>14457784000</v>
+      </c>
+      <c r="G64">
+        <v>18851000</v>
+      </c>
+      <c r="H64">
+        <v>1838400</v>
+      </c>
+      <c r="I64">
+        <v>33124987000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-05T11:12:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2848329727000</v>
+      </c>
+      <c r="L64">
+        <v>168091300</v>
+      </c>
+      <c r="M64">
+        <v>-365500</v>
+      </c>
+      <c r="N64">
+        <v>-4190568000</v>
+      </c>
+      <c r="O64">
+        <v>-9687300</v>
+      </c>
+      <c r="P64">
+        <v>20037030000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1672917240000</v>
+      </c>
+      <c r="B65">
+        <v>1092400</v>
+      </c>
+      <c r="C65">
+        <v>479500</v>
+      </c>
+      <c r="D65">
+        <v>3500</v>
+      </c>
+      <c r="E65">
+        <v>17261573000</v>
+      </c>
+      <c r="F65">
+        <v>10860096000</v>
+      </c>
+      <c r="G65">
+        <v>79103000</v>
+      </c>
+      <c r="H65">
+        <v>1575400</v>
+      </c>
+      <c r="I65">
+        <v>28200772000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-05T11:14:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2876530499000</v>
+      </c>
+      <c r="L65">
+        <v>169666700</v>
+      </c>
+      <c r="M65">
+        <v>-612900</v>
+      </c>
+      <c r="N65">
+        <v>-6401477000</v>
+      </c>
+      <c r="O65">
+        <v>-10300200</v>
+      </c>
+      <c r="P65">
+        <v>13635553000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1672917360000</v>
+      </c>
+      <c r="B66">
+        <v>1372300</v>
+      </c>
+      <c r="C66">
+        <v>570800</v>
+      </c>
+      <c r="D66">
+        <v>5800</v>
+      </c>
+      <c r="E66">
+        <v>21251387000</v>
+      </c>
+      <c r="F66">
+        <v>13480745000</v>
+      </c>
+      <c r="G66">
+        <v>70588000</v>
+      </c>
+      <c r="H66">
+        <v>1948900</v>
+      </c>
+      <c r="I66">
+        <v>34802720000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-05T11:16:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2911333219000</v>
+      </c>
+      <c r="L66">
+        <v>171615600</v>
+      </c>
+      <c r="M66">
+        <v>-801500</v>
+      </c>
+      <c r="N66">
+        <v>-7770642000</v>
+      </c>
+      <c r="O66">
+        <v>-11101700</v>
+      </c>
+      <c r="P66">
+        <v>5864911000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1672917480000</v>
+      </c>
+      <c r="B67">
+        <v>1518600</v>
+      </c>
+      <c r="C67">
+        <v>495700</v>
+      </c>
+      <c r="D67">
+        <v>1500</v>
+      </c>
+      <c r="E67">
+        <v>25176354000</v>
+      </c>
+      <c r="F67">
+        <v>8795519000</v>
+      </c>
+      <c r="G67">
+        <v>18305000</v>
+      </c>
+      <c r="H67">
+        <v>2015800</v>
+      </c>
+      <c r="I67">
+        <v>33990178000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-05T11:18:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2945323397000</v>
+      </c>
+      <c r="L67">
+        <v>173631400</v>
+      </c>
+      <c r="M67">
+        <v>-1022900</v>
+      </c>
+      <c r="N67">
+        <v>-16380835000</v>
+      </c>
+      <c r="O67">
+        <v>-12124600</v>
+      </c>
+      <c r="P67">
+        <v>-10515924000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1672917600000</v>
+      </c>
+      <c r="B68">
+        <v>1943900</v>
+      </c>
+      <c r="C68">
+        <v>472200</v>
+      </c>
+      <c r="D68">
+        <v>11500</v>
+      </c>
+      <c r="E68">
+        <v>29932503000</v>
+      </c>
+      <c r="F68">
+        <v>10156034000</v>
+      </c>
+      <c r="G68">
+        <v>102078000</v>
+      </c>
+      <c r="H68">
+        <v>2427600</v>
+      </c>
+      <c r="I68">
+        <v>40190615000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-05T11:20:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>2985514012000</v>
+      </c>
+      <c r="L68">
+        <v>176059000</v>
+      </c>
+      <c r="M68">
+        <v>-1471700</v>
+      </c>
+      <c r="N68">
+        <v>-19776469000</v>
+      </c>
+      <c r="O68">
+        <v>-13596300</v>
+      </c>
+      <c r="P68">
+        <v>-30292393000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1672917720000</v>
+      </c>
+      <c r="B69">
+        <v>1383900</v>
+      </c>
+      <c r="C69">
+        <v>611100</v>
+      </c>
+      <c r="D69">
+        <v>2600</v>
+      </c>
+      <c r="E69">
+        <v>22455414000</v>
+      </c>
+      <c r="F69">
+        <v>11850263000</v>
+      </c>
+      <c r="G69">
+        <v>112298000</v>
+      </c>
+      <c r="H69">
+        <v>1997600</v>
+      </c>
+      <c r="I69">
+        <v>34417975000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-05T11:22:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3019931987000</v>
+      </c>
+      <c r="L69">
+        <v>178056600</v>
+      </c>
+      <c r="M69">
+        <v>-772800</v>
+      </c>
+      <c r="N69">
+        <v>-10605151000</v>
+      </c>
+      <c r="O69">
+        <v>-14369100</v>
+      </c>
+      <c r="P69">
+        <v>-40897544000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1672917840000</v>
+      </c>
+      <c r="B70">
+        <v>973100</v>
+      </c>
+      <c r="C70">
+        <v>627100</v>
+      </c>
+      <c r="D70">
+        <v>2500</v>
+      </c>
+      <c r="E70">
+        <v>16377665000</v>
+      </c>
+      <c r="F70">
+        <v>13244181000</v>
+      </c>
+      <c r="G70">
+        <v>89782000</v>
+      </c>
+      <c r="H70">
+        <v>1602700</v>
+      </c>
+      <c r="I70">
+        <v>29711628000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-05T11:24:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3049643615000</v>
+      </c>
+      <c r="L70">
+        <v>179659300</v>
+      </c>
+      <c r="M70">
+        <v>-346000</v>
+      </c>
+      <c r="N70">
+        <v>-3133484000</v>
+      </c>
+      <c r="O70">
+        <v>-14715100</v>
+      </c>
+      <c r="P70">
+        <v>-44031028000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1672917960000</v>
+      </c>
+      <c r="B71">
+        <v>1436400</v>
+      </c>
+      <c r="C71">
+        <v>734000</v>
+      </c>
+      <c r="D71">
+        <v>5100</v>
+      </c>
+      <c r="E71">
+        <v>24088511000</v>
+      </c>
+      <c r="F71">
+        <v>14753037000</v>
+      </c>
+      <c r="G71">
+        <v>34891000</v>
+      </c>
+      <c r="H71">
+        <v>2175500</v>
+      </c>
+      <c r="I71">
+        <v>38876439000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-05T11:26:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3088520054000</v>
+      </c>
+      <c r="L71">
+        <v>181834800</v>
+      </c>
+      <c r="M71">
+        <v>-702400</v>
+      </c>
+      <c r="N71">
+        <v>-9335474000</v>
+      </c>
+      <c r="O71">
+        <v>-15417500</v>
+      </c>
+      <c r="P71">
+        <v>-53366502000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1672918080000</v>
+      </c>
+      <c r="B72">
+        <v>1502100</v>
+      </c>
+      <c r="C72">
+        <v>624800</v>
+      </c>
+      <c r="D72">
+        <v>6600</v>
+      </c>
+      <c r="E72">
+        <v>26781134000</v>
+      </c>
+      <c r="F72">
+        <v>10525637000</v>
+      </c>
+      <c r="G72">
+        <v>203800000</v>
+      </c>
+      <c r="H72">
+        <v>2133500</v>
+      </c>
+      <c r="I72">
+        <v>37510571000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-05T11:28:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3126030625000</v>
+      </c>
+      <c r="L72">
+        <v>183968300</v>
+      </c>
+      <c r="M72">
+        <v>-877300</v>
+      </c>
+      <c r="N72">
+        <v>-16255497000</v>
+      </c>
+      <c r="O72">
+        <v>-16294800</v>
+      </c>
+      <c r="P72">
+        <v>-69621999000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1672918200000</v>
+      </c>
+      <c r="B73">
+        <v>32800</v>
+      </c>
+      <c r="C73">
+        <v>1100</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>347393000</v>
+      </c>
+      <c r="F73">
+        <v>30367000</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>33900</v>
+      </c>
+      <c r="I73">
+        <v>377760000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-05T11:30:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3126408385000</v>
+      </c>
+      <c r="L73">
+        <v>184002200</v>
+      </c>
+      <c r="M73">
+        <v>-31700</v>
+      </c>
+      <c r="N73">
+        <v>-317026000</v>
+      </c>
+      <c r="O73">
+        <v>-16326500</v>
+      </c>
+      <c r="P73">
+        <v>-69939025000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1672923600000</v>
+      </c>
+      <c r="B74">
+        <v>5900900</v>
+      </c>
+      <c r="C74">
+        <v>2414700</v>
+      </c>
+      <c r="D74">
+        <v>307200</v>
+      </c>
+      <c r="E74">
+        <v>92589752000</v>
+      </c>
+      <c r="F74">
+        <v>41588421000</v>
+      </c>
+      <c r="G74">
+        <v>4113204000</v>
+      </c>
+      <c r="H74">
+        <v>8622800</v>
+      </c>
+      <c r="I74">
+        <v>138291377000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-05T13:00:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3264699762000</v>
+      </c>
+      <c r="L74">
+        <v>192625000</v>
+      </c>
+      <c r="M74">
+        <v>-3486200</v>
+      </c>
+      <c r="N74">
+        <v>-51001331000</v>
+      </c>
+      <c r="O74">
+        <v>-19812700</v>
+      </c>
+      <c r="P74">
+        <v>-120940356000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1672923720000</v>
+      </c>
+      <c r="B75">
+        <v>1758300</v>
+      </c>
+      <c r="C75">
+        <v>2511100</v>
+      </c>
+      <c r="D75">
+        <v>4100</v>
+      </c>
+      <c r="E75">
+        <v>30560647000</v>
+      </c>
+      <c r="F75">
+        <v>41426661000</v>
+      </c>
+      <c r="G75">
+        <v>83700000</v>
+      </c>
+      <c r="H75">
+        <v>4273500</v>
+      </c>
+      <c r="I75">
+        <v>72071008000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-05T13:02:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3336770770000</v>
+      </c>
+      <c r="L75">
+        <v>196898500</v>
+      </c>
+      <c r="M75">
+        <v>752800</v>
+      </c>
+      <c r="N75">
+        <v>10866014000</v>
+      </c>
+      <c r="O75">
+        <v>-19059900</v>
+      </c>
+      <c r="P75">
+        <v>-110074342000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1672923840000</v>
+      </c>
+      <c r="B76">
+        <v>1942400</v>
+      </c>
+      <c r="C76">
+        <v>1751300</v>
+      </c>
+      <c r="D76">
+        <v>19800</v>
+      </c>
+      <c r="E76">
+        <v>33371268000</v>
+      </c>
+      <c r="F76">
+        <v>35207373000</v>
+      </c>
+      <c r="G76">
+        <v>558887000</v>
+      </c>
+      <c r="H76">
+        <v>3713500</v>
+      </c>
+      <c r="I76">
+        <v>69137528000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-05T13:04:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3405908298000</v>
+      </c>
+      <c r="L76">
+        <v>200612000</v>
+      </c>
+      <c r="M76">
+        <v>-191100</v>
+      </c>
+      <c r="N76">
+        <v>1836105000</v>
+      </c>
+      <c r="O76">
+        <v>-19251000</v>
+      </c>
+      <c r="P76">
+        <v>-108238237000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1672923960000</v>
+      </c>
+      <c r="B77">
+        <v>1287600</v>
+      </c>
+      <c r="C77">
+        <v>2994000</v>
+      </c>
+      <c r="D77">
+        <v>23700</v>
+      </c>
+      <c r="E77">
+        <v>18421716000</v>
+      </c>
+      <c r="F77">
+        <v>53193033000</v>
+      </c>
+      <c r="G77">
+        <v>301257000</v>
+      </c>
+      <c r="H77">
+        <v>4305300</v>
+      </c>
+      <c r="I77">
+        <v>71916006000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-05T13:06:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3477824304000</v>
+      </c>
+      <c r="L77">
+        <v>204917300</v>
+      </c>
+      <c r="M77">
+        <v>1706400</v>
+      </c>
+      <c r="N77">
+        <v>34771317000</v>
+      </c>
+      <c r="O77">
+        <v>-17544600</v>
+      </c>
+      <c r="P77">
+        <v>-73466920000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1672924080000</v>
+      </c>
+      <c r="B78">
+        <v>1387200</v>
+      </c>
+      <c r="C78">
+        <v>3087400</v>
+      </c>
+      <c r="D78">
+        <v>39100</v>
+      </c>
+      <c r="E78">
+        <v>22514280000</v>
+      </c>
+      <c r="F78">
+        <v>44772000000</v>
+      </c>
+      <c r="G78">
+        <v>680903000</v>
+      </c>
+      <c r="H78">
+        <v>4513700</v>
+      </c>
+      <c r="I78">
+        <v>67967183000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-05T13:08:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3545791487000</v>
+      </c>
+      <c r="L78">
+        <v>209431000</v>
+      </c>
+      <c r="M78">
+        <v>1700200</v>
+      </c>
+      <c r="N78">
+        <v>22257720000</v>
+      </c>
+      <c r="O78">
+        <v>-15844400</v>
+      </c>
+      <c r="P78">
+        <v>-51209200000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1672924200000</v>
+      </c>
+      <c r="B79">
+        <v>1030100</v>
+      </c>
+      <c r="C79">
+        <v>2517300</v>
+      </c>
+      <c r="D79">
+        <v>18500</v>
+      </c>
+      <c r="E79">
+        <v>18298370000</v>
+      </c>
+      <c r="F79">
+        <v>38663199000</v>
+      </c>
+      <c r="G79">
+        <v>241943000</v>
+      </c>
+      <c r="H79">
+        <v>3565900</v>
+      </c>
+      <c r="I79">
+        <v>57203512000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-05T13:10:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3602994999000</v>
+      </c>
+      <c r="L79">
+        <v>212996900</v>
+      </c>
+      <c r="M79">
+        <v>1487200</v>
+      </c>
+      <c r="N79">
+        <v>20364829000</v>
+      </c>
+      <c r="O79">
+        <v>-14357200</v>
+      </c>
+      <c r="P79">
+        <v>-30844371000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1672924320000</v>
+      </c>
+      <c r="B80">
+        <v>1135800</v>
+      </c>
+      <c r="C80">
+        <v>2554600</v>
+      </c>
+      <c r="D80">
+        <v>10900</v>
+      </c>
+      <c r="E80">
+        <v>20567786000</v>
+      </c>
+      <c r="F80">
+        <v>39702040000</v>
+      </c>
+      <c r="G80">
+        <v>56705000</v>
+      </c>
+      <c r="H80">
+        <v>3701300</v>
+      </c>
+      <c r="I80">
+        <v>60326531000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-05T13:12:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3663321530000</v>
+      </c>
+      <c r="L80">
+        <v>216698200</v>
+      </c>
+      <c r="M80">
+        <v>1418800</v>
+      </c>
+      <c r="N80">
+        <v>19134254000</v>
+      </c>
+      <c r="O80">
+        <v>-12938400</v>
+      </c>
+      <c r="P80">
+        <v>-11710117000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1672924440000</v>
+      </c>
+      <c r="B81">
+        <v>1690200</v>
+      </c>
+      <c r="C81">
+        <v>1747200</v>
+      </c>
+      <c r="D81">
+        <v>5800</v>
+      </c>
+      <c r="E81">
+        <v>26316495000</v>
+      </c>
+      <c r="F81">
+        <v>33276647000</v>
+      </c>
+      <c r="G81">
+        <v>114259000</v>
+      </c>
+      <c r="H81">
+        <v>3443200</v>
+      </c>
+      <c r="I81">
+        <v>59707401000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-05T13:14:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3723028931000</v>
+      </c>
+      <c r="L81">
+        <v>220141400</v>
+      </c>
+      <c r="M81">
+        <v>57000</v>
+      </c>
+      <c r="N81">
+        <v>6960152000</v>
+      </c>
+      <c r="O81">
+        <v>-12881400</v>
+      </c>
+      <c r="P81">
+        <v>-4749965000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1672924560000</v>
+      </c>
+      <c r="B82">
+        <v>2134800</v>
+      </c>
+      <c r="C82">
+        <v>1397100</v>
+      </c>
+      <c r="D82">
+        <v>8600</v>
+      </c>
+      <c r="E82">
+        <v>38671452000</v>
+      </c>
+      <c r="F82">
+        <v>24081220000</v>
+      </c>
+      <c r="G82">
+        <v>113546000</v>
+      </c>
+      <c r="H82">
+        <v>3540500</v>
+      </c>
+      <c r="I82">
+        <v>62866218000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-05T13:16:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>3785895149000</v>
+      </c>
+      <c r="L82">
+        <v>223681900</v>
+      </c>
+      <c r="M82">
+        <v>-737700</v>
+      </c>
+      <c r="N82">
+        <v>-14590232000</v>
+      </c>
+      <c r="O82">
+        <v>-13619100</v>
+      </c>
+      <c r="P82">
+        <v>-19340197000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1672924680000</v>
+      </c>
+      <c r="B83">
+        <v>1809800</v>
+      </c>
+      <c r="C83">
+        <v>1101500</v>
+      </c>
+      <c r="D83">
+        <v>2600</v>
+      </c>
+      <c r="E83">
+        <v>30098216000</v>
+      </c>
+      <c r="F83">
+        <v>19093384000</v>
+      </c>
+      <c r="G83">
+        <v>57882000</v>
+      </c>
+      <c r="H83">
+        <v>2913900</v>
+      </c>
+      <c r="I83">
+        <v>49249482000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-05T13:18:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>3835144631000</v>
+      </c>
+      <c r="L83">
+        <v>226595800</v>
+      </c>
+      <c r="M83">
+        <v>-708300</v>
+      </c>
+      <c r="N83">
+        <v>-11004832000</v>
+      </c>
+      <c r="O83">
+        <v>-14327400</v>
+      </c>
+      <c r="P83">
+        <v>-30345029000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1672924800000</v>
+      </c>
+      <c r="B84">
+        <v>1678300</v>
+      </c>
+      <c r="C84">
+        <v>1302800</v>
+      </c>
+      <c r="D84">
+        <v>16400</v>
+      </c>
+      <c r="E84">
+        <v>26641131000</v>
+      </c>
+      <c r="F84">
+        <v>23690968000</v>
+      </c>
+      <c r="G84">
+        <v>547237000</v>
+      </c>
+      <c r="H84">
+        <v>2997500</v>
+      </c>
+      <c r="I84">
+        <v>50879336000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-05T13:20:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>3886023967000</v>
+      </c>
+      <c r="L84">
+        <v>229593300</v>
+      </c>
+      <c r="M84">
+        <v>-375500</v>
+      </c>
+      <c r="N84">
+        <v>-2950163000</v>
+      </c>
+      <c r="O84">
+        <v>-14702900</v>
+      </c>
+      <c r="P84">
+        <v>-33295192000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1672924920000</v>
+      </c>
+      <c r="B85">
+        <v>1534900</v>
+      </c>
+      <c r="C85">
+        <v>2081600</v>
+      </c>
+      <c r="D85">
+        <v>25500</v>
+      </c>
+      <c r="E85">
+        <v>23611606000</v>
+      </c>
+      <c r="F85">
+        <v>36467245000</v>
+      </c>
+      <c r="G85">
+        <v>460829000</v>
+      </c>
+      <c r="H85">
+        <v>3642000</v>
+      </c>
+      <c r="I85">
+        <v>60539680000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-05T13:22:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>3946563647000</v>
+      </c>
+      <c r="L85">
+        <v>233235300</v>
+      </c>
+      <c r="M85">
+        <v>546700</v>
+      </c>
+      <c r="N85">
+        <v>12855639000</v>
+      </c>
+      <c r="O85">
+        <v>-14156200</v>
+      </c>
+      <c r="P85">
+        <v>-20439553000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1672925040000</v>
+      </c>
+      <c r="B86">
+        <v>1169400</v>
+      </c>
+      <c r="C86">
+        <v>1867000</v>
+      </c>
+      <c r="D86">
+        <v>3800</v>
+      </c>
+      <c r="E86">
+        <v>18498534000</v>
+      </c>
+      <c r="F86">
+        <v>33586584000</v>
+      </c>
+      <c r="G86">
+        <v>85074000</v>
+      </c>
+      <c r="H86">
+        <v>3040200</v>
+      </c>
+      <c r="I86">
+        <v>52170192000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-05T13:24:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>3998733839000</v>
+      </c>
+      <c r="L86">
+        <v>236275500</v>
+      </c>
+      <c r="M86">
+        <v>697600</v>
+      </c>
+      <c r="N86">
+        <v>15088050000</v>
+      </c>
+      <c r="O86">
+        <v>-13458600</v>
+      </c>
+      <c r="P86">
+        <v>-5351503000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1672925160000</v>
+      </c>
+      <c r="B87">
+        <v>1666000</v>
+      </c>
+      <c r="C87">
+        <v>3797800</v>
+      </c>
+      <c r="D87">
+        <v>17800</v>
+      </c>
+      <c r="E87">
+        <v>25634311000</v>
+      </c>
+      <c r="F87">
+        <v>58291271000</v>
+      </c>
+      <c r="G87">
+        <v>250187000</v>
+      </c>
+      <c r="H87">
+        <v>5481600</v>
+      </c>
+      <c r="I87">
+        <v>84175769000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-05T13:26:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4082909608000</v>
+      </c>
+      <c r="L87">
+        <v>241757100</v>
+      </c>
+      <c r="M87">
+        <v>2131800</v>
+      </c>
+      <c r="N87">
+        <v>32656960000</v>
+      </c>
+      <c r="O87">
+        <v>-11326800</v>
+      </c>
+      <c r="P87">
+        <v>27305457000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1672925280000</v>
+      </c>
+      <c r="B88">
+        <v>2180000</v>
+      </c>
+      <c r="C88">
+        <v>7379000</v>
+      </c>
+      <c r="D88">
+        <v>29200</v>
+      </c>
+      <c r="E88">
+        <v>29970184000</v>
+      </c>
+      <c r="F88">
+        <v>123883783000</v>
+      </c>
+      <c r="G88">
+        <v>718847000</v>
+      </c>
+      <c r="H88">
+        <v>9588200</v>
+      </c>
+      <c r="I88">
+        <v>154572814000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-05T13:28:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4237482422000</v>
+      </c>
+      <c r="L88">
+        <v>251345300</v>
+      </c>
+      <c r="M88">
+        <v>5199000</v>
+      </c>
+      <c r="N88">
+        <v>93913599000</v>
+      </c>
+      <c r="O88">
+        <v>-6127800</v>
+      </c>
+      <c r="P88">
+        <v>121219056000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1672925400000</v>
+      </c>
+      <c r="B89">
+        <v>1962800</v>
+      </c>
+      <c r="C89">
+        <v>4899600</v>
+      </c>
+      <c r="D89">
+        <v>26300</v>
+      </c>
+      <c r="E89">
+        <v>29548794000</v>
+      </c>
+      <c r="F89">
+        <v>79944897000</v>
+      </c>
+      <c r="G89">
+        <v>439644000</v>
+      </c>
+      <c r="H89">
+        <v>6888700</v>
+      </c>
+      <c r="I89">
+        <v>109933335000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-05T13:30:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4347415757000</v>
+      </c>
+      <c r="L89">
+        <v>258234000</v>
+      </c>
+      <c r="M89">
+        <v>2936800</v>
+      </c>
+      <c r="N89">
+        <v>50396103000</v>
+      </c>
+      <c r="O89">
+        <v>-3191000</v>
+      </c>
+      <c r="P89">
+        <v>171615159000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1672925520000</v>
+      </c>
+      <c r="B90">
+        <v>2726100</v>
+      </c>
+      <c r="C90">
+        <v>3381700</v>
+      </c>
+      <c r="D90">
+        <v>55600</v>
+      </c>
+      <c r="E90">
+        <v>39315161000</v>
+      </c>
+      <c r="F90">
+        <v>49807376000</v>
+      </c>
+      <c r="G90">
+        <v>713232000</v>
+      </c>
+      <c r="H90">
+        <v>6163400</v>
+      </c>
+      <c r="I90">
+        <v>89835769000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-05T13:32:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4437251526000</v>
+      </c>
+      <c r="L90">
+        <v>264397400</v>
+      </c>
+      <c r="M90">
+        <v>655600</v>
+      </c>
+      <c r="N90">
+        <v>10492215000</v>
+      </c>
+      <c r="O90">
+        <v>-2535400</v>
+      </c>
+      <c r="P90">
+        <v>182107374000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1672925640000</v>
+      </c>
+      <c r="B91">
+        <v>2941200</v>
+      </c>
+      <c r="C91">
+        <v>1104500</v>
+      </c>
+      <c r="D91">
+        <v>10000</v>
+      </c>
+      <c r="E91">
+        <v>46333564000</v>
+      </c>
+      <c r="F91">
+        <v>19883431000</v>
+      </c>
+      <c r="G91">
+        <v>102214000</v>
+      </c>
+      <c r="H91">
+        <v>4055700</v>
+      </c>
+      <c r="I91">
+        <v>66319209000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-05T13:34:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4503570735000</v>
+      </c>
+      <c r="L91">
+        <v>268453100</v>
+      </c>
+      <c r="M91">
+        <v>-1836700</v>
+      </c>
+      <c r="N91">
+        <v>-26450133000</v>
+      </c>
+      <c r="O91">
+        <v>-4372100</v>
+      </c>
+      <c r="P91">
+        <v>155657241000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1672925760000</v>
+      </c>
+      <c r="B92">
+        <v>2037800</v>
+      </c>
+      <c r="C92">
+        <v>1860200</v>
+      </c>
+      <c r="D92">
+        <v>5500</v>
+      </c>
+      <c r="E92">
+        <v>29062032000</v>
+      </c>
+      <c r="F92">
+        <v>29559900000</v>
+      </c>
+      <c r="G92">
+        <v>57762000</v>
+      </c>
+      <c r="H92">
+        <v>3903500</v>
+      </c>
+      <c r="I92">
+        <v>58679694000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-05T13:36:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4562250429000</v>
+      </c>
+      <c r="L92">
+        <v>272356600</v>
+      </c>
+      <c r="M92">
+        <v>-177600</v>
+      </c>
+      <c r="N92">
+        <v>497868000</v>
+      </c>
+      <c r="O92">
+        <v>-4549700</v>
+      </c>
+      <c r="P92">
+        <v>156155109000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1672925880000</v>
+      </c>
+      <c r="B93">
+        <v>1903000</v>
+      </c>
+      <c r="C93">
+        <v>2165400</v>
+      </c>
+      <c r="D93">
+        <v>8300</v>
+      </c>
+      <c r="E93">
+        <v>28336292000</v>
+      </c>
+      <c r="F93">
+        <v>37726264000</v>
+      </c>
+      <c r="G93">
+        <v>174520000</v>
+      </c>
+      <c r="H93">
+        <v>4076700</v>
+      </c>
+      <c r="I93">
+        <v>66237076000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-05T13:38:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4628487505000</v>
+      </c>
+      <c r="L93">
+        <v>276433300</v>
+      </c>
+      <c r="M93">
+        <v>262400</v>
+      </c>
+      <c r="N93">
+        <v>9389972000</v>
+      </c>
+      <c r="O93">
+        <v>-4287300</v>
+      </c>
+      <c r="P93">
+        <v>165545081000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1672926000000</v>
+      </c>
+      <c r="B94">
+        <v>1254400</v>
+      </c>
+      <c r="C94">
+        <v>2298900</v>
+      </c>
+      <c r="D94">
+        <v>12800</v>
+      </c>
+      <c r="E94">
+        <v>19694477000</v>
+      </c>
+      <c r="F94">
+        <v>38329887000</v>
+      </c>
+      <c r="G94">
+        <v>133194000</v>
+      </c>
+      <c r="H94">
+        <v>3566100</v>
+      </c>
+      <c r="I94">
+        <v>58157558000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-05T13:40:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4686645063000</v>
+      </c>
+      <c r="L94">
+        <v>279999400</v>
+      </c>
+      <c r="M94">
+        <v>1044500</v>
+      </c>
+      <c r="N94">
+        <v>18635410000</v>
+      </c>
+      <c r="O94">
+        <v>-3242800</v>
+      </c>
+      <c r="P94">
+        <v>184180491000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1672926120000</v>
+      </c>
+      <c r="B95">
+        <v>1579800</v>
+      </c>
+      <c r="C95">
+        <v>2912800</v>
+      </c>
+      <c r="D95">
+        <v>44500</v>
+      </c>
+      <c r="E95">
+        <v>21935496000</v>
+      </c>
+      <c r="F95">
+        <v>50673619000</v>
+      </c>
+      <c r="G95">
+        <v>1055386000</v>
+      </c>
+      <c r="H95">
+        <v>4537100</v>
+      </c>
+      <c r="I95">
+        <v>73664501000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-05T13:42:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>4760309564000</v>
+      </c>
+      <c r="L95">
+        <v>284536500</v>
+      </c>
+      <c r="M95">
+        <v>1333000</v>
+      </c>
+      <c r="N95">
+        <v>28738123000</v>
+      </c>
+      <c r="O95">
+        <v>-1909800</v>
+      </c>
+      <c r="P95">
+        <v>212918614000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1672926240000</v>
+      </c>
+      <c r="B96">
+        <v>1272200</v>
+      </c>
+      <c r="C96">
+        <v>5102100</v>
+      </c>
+      <c r="D96">
+        <v>15900</v>
+      </c>
+      <c r="E96">
+        <v>21397406000</v>
+      </c>
+      <c r="F96">
+        <v>85802469000</v>
+      </c>
+      <c r="G96">
+        <v>301739000</v>
+      </c>
+      <c r="H96">
+        <v>6390200</v>
+      </c>
+      <c r="I96">
+        <v>107501614000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-05T13:44:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>4867811178000</v>
+      </c>
+      <c r="L96">
+        <v>290926700</v>
+      </c>
+      <c r="M96">
+        <v>3829900</v>
+      </c>
+      <c r="N96">
+        <v>64405063000</v>
+      </c>
+      <c r="O96">
+        <v>1920100</v>
+      </c>
+      <c r="P96">
+        <v>277323677000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1672926360000</v>
+      </c>
+      <c r="B97">
+        <v>2111600</v>
+      </c>
+      <c r="C97">
+        <v>9263600</v>
+      </c>
+      <c r="D97">
+        <v>13600</v>
+      </c>
+      <c r="E97">
+        <v>34656450000</v>
+      </c>
+      <c r="F97">
+        <v>159840204000</v>
+      </c>
+      <c r="G97">
+        <v>217013000</v>
+      </c>
+      <c r="H97">
+        <v>11388800</v>
+      </c>
+      <c r="I97">
+        <v>194713667000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-05T13:46:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5062524845000</v>
+      </c>
+      <c r="L97">
+        <v>302315500</v>
+      </c>
+      <c r="M97">
+        <v>7152000</v>
+      </c>
+      <c r="N97">
+        <v>125183754000</v>
+      </c>
+      <c r="O97">
+        <v>9072100</v>
+      </c>
+      <c r="P97">
+        <v>402507431000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1672926480000</v>
+      </c>
+      <c r="B98">
+        <v>2805900</v>
+      </c>
+      <c r="C98">
+        <v>7273900</v>
+      </c>
+      <c r="D98">
+        <v>33800</v>
+      </c>
+      <c r="E98">
+        <v>40795098000</v>
+      </c>
+      <c r="F98">
+        <v>120743413000</v>
+      </c>
+      <c r="G98">
+        <v>631792000</v>
+      </c>
+      <c r="H98">
+        <v>10113600</v>
+      </c>
+      <c r="I98">
+        <v>162170303000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-05T13:48:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5224695148000</v>
+      </c>
+      <c r="L98">
+        <v>312429100</v>
+      </c>
+      <c r="M98">
+        <v>4468000</v>
+      </c>
+      <c r="N98">
+        <v>79948315000</v>
+      </c>
+      <c r="O98">
+        <v>13540100</v>
+      </c>
+      <c r="P98">
+        <v>482455746000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1672926600000</v>
+      </c>
+      <c r="B99">
+        <v>2586300</v>
+      </c>
+      <c r="C99">
+        <v>5339600</v>
+      </c>
+      <c r="D99">
+        <v>39700</v>
+      </c>
+      <c r="E99">
+        <v>40842003000</v>
+      </c>
+      <c r="F99">
+        <v>87048089000</v>
+      </c>
+      <c r="G99">
+        <v>667911000</v>
+      </c>
+      <c r="H99">
+        <v>7965600</v>
+      </c>
+      <c r="I99">
+        <v>128558003000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-05T13:50:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>5353253151000</v>
+      </c>
+      <c r="L99">
+        <v>320394700</v>
+      </c>
+      <c r="M99">
+        <v>2753300</v>
+      </c>
+      <c r="N99">
+        <v>46206086000</v>
+      </c>
+      <c r="O99">
+        <v>16293400</v>
+      </c>
+      <c r="P99">
+        <v>528661832000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1672926720000</v>
+      </c>
+      <c r="B100">
+        <v>3541900</v>
+      </c>
+      <c r="C100">
+        <v>3758900</v>
+      </c>
+      <c r="D100">
+        <v>38100</v>
+      </c>
+      <c r="E100">
+        <v>54549073000</v>
+      </c>
+      <c r="F100">
+        <v>67514228000</v>
+      </c>
+      <c r="G100">
+        <v>509753000</v>
+      </c>
+      <c r="H100">
+        <v>7338900</v>
+      </c>
+      <c r="I100">
+        <v>122573054000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-05T13:52:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>5475826205000</v>
+      </c>
+      <c r="L100">
+        <v>327733600</v>
+      </c>
+      <c r="M100">
+        <v>217000</v>
+      </c>
+      <c r="N100">
+        <v>12965155000</v>
+      </c>
+      <c r="O100">
+        <v>16510400</v>
+      </c>
+      <c r="P100">
+        <v>541626987000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1672926840000</v>
+      </c>
+      <c r="B101">
+        <v>3088800</v>
+      </c>
+      <c r="C101">
+        <v>3276400</v>
+      </c>
+      <c r="D101">
+        <v>18600</v>
+      </c>
+      <c r="E101">
+        <v>49363633000</v>
+      </c>
+      <c r="F101">
+        <v>61933931000</v>
+      </c>
+      <c r="G101">
+        <v>276338000</v>
+      </c>
+      <c r="H101">
+        <v>6383800</v>
+      </c>
+      <c r="I101">
+        <v>111573902000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-05T13:54:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>5587400107000</v>
+      </c>
+      <c r="L101">
+        <v>334117400</v>
+      </c>
+      <c r="M101">
+        <v>187600</v>
+      </c>
+      <c r="N101">
+        <v>12570298000</v>
+      </c>
+      <c r="O101">
+        <v>16698000</v>
+      </c>
+      <c r="P101">
+        <v>554197285000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1672926960000</v>
+      </c>
+      <c r="B102">
+        <v>2707000</v>
+      </c>
+      <c r="C102">
+        <v>2175700</v>
+      </c>
+      <c r="D102">
+        <v>45400</v>
+      </c>
+      <c r="E102">
+        <v>41560237000</v>
+      </c>
+      <c r="F102">
+        <v>39777858000</v>
+      </c>
+      <c r="G102">
+        <v>627400000</v>
+      </c>
+      <c r="H102">
+        <v>4928100</v>
+      </c>
+      <c r="I102">
+        <v>81965495000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-05T13:56:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5669365602000</v>
+      </c>
+      <c r="L102">
+        <v>339045500</v>
+      </c>
+      <c r="M102">
+        <v>-531300</v>
+      </c>
+      <c r="N102">
+        <v>-1782379000</v>
+      </c>
+      <c r="O102">
+        <v>16166700</v>
+      </c>
+      <c r="P102">
+        <v>552414906000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1672927080000</v>
+      </c>
+      <c r="B103">
+        <v>2737200</v>
+      </c>
+      <c r="C103">
+        <v>1629500</v>
+      </c>
+      <c r="D103">
+        <v>58200</v>
+      </c>
+      <c r="E103">
+        <v>49578434000</v>
+      </c>
+      <c r="F103">
+        <v>37388864000</v>
+      </c>
+      <c r="G103">
+        <v>847744000</v>
+      </c>
+      <c r="H103">
+        <v>4424900</v>
+      </c>
+      <c r="I103">
+        <v>87815042000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-05T13:58:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>5757180644000</v>
+      </c>
+      <c r="L103">
+        <v>343470400</v>
+      </c>
+      <c r="M103">
+        <v>-1107700</v>
+      </c>
+      <c r="N103">
+        <v>-12189570000</v>
+      </c>
+      <c r="O103">
+        <v>15059000</v>
+      </c>
+      <c r="P103">
+        <v>540225336000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1672927200000</v>
+      </c>
+      <c r="B104">
+        <v>2634500</v>
+      </c>
+      <c r="C104">
+        <v>5941600</v>
+      </c>
+      <c r="D104">
+        <v>18500</v>
+      </c>
+      <c r="E104">
+        <v>42365789000</v>
+      </c>
+      <c r="F104">
+        <v>121779998000</v>
+      </c>
+      <c r="G104">
+        <v>683955000</v>
+      </c>
+      <c r="H104">
+        <v>8594600</v>
+      </c>
+      <c r="I104">
+        <v>164829742000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-05T14:00:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5922010386000</v>
+      </c>
+      <c r="L104">
+        <v>352065000</v>
+      </c>
+      <c r="M104">
+        <v>3307100</v>
+      </c>
+      <c r="N104">
+        <v>79414209000</v>
+      </c>
+      <c r="O104">
+        <v>18366100</v>
+      </c>
+      <c r="P104">
+        <v>619639545000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1672927320000</v>
+      </c>
+      <c r="B105">
+        <v>1397400</v>
+      </c>
+      <c r="C105">
+        <v>9815100</v>
+      </c>
+      <c r="D105">
+        <v>159200</v>
+      </c>
+      <c r="E105">
+        <v>26343154000</v>
+      </c>
+      <c r="F105">
+        <v>187980607000</v>
+      </c>
+      <c r="G105">
+        <v>1947372000</v>
+      </c>
+      <c r="H105">
+        <v>11371700</v>
+      </c>
+      <c r="I105">
+        <v>216271133000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-05T14:02:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>6138281519000</v>
+      </c>
+      <c r="L105">
+        <v>363436700</v>
+      </c>
+      <c r="M105">
+        <v>8417700</v>
+      </c>
+      <c r="N105">
+        <v>161637453000</v>
+      </c>
+      <c r="O105">
+        <v>26783800</v>
+      </c>
+      <c r="P105">
+        <v>781276998000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1672927440000</v>
+      </c>
+      <c r="B106">
+        <v>2287200</v>
+      </c>
+      <c r="C106">
+        <v>8023300</v>
+      </c>
+      <c r="D106">
+        <v>116400</v>
+      </c>
+      <c r="E106">
+        <v>42624600000</v>
+      </c>
+      <c r="F106">
+        <v>147983702000</v>
+      </c>
+      <c r="G106">
+        <v>2484156000</v>
+      </c>
+      <c r="H106">
+        <v>10426900</v>
+      </c>
+      <c r="I106">
+        <v>193092458000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-05T14:04:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>6331373977000</v>
+      </c>
+      <c r="L106">
+        <v>373863600</v>
+      </c>
+      <c r="M106">
+        <v>5736100</v>
+      </c>
+      <c r="N106">
+        <v>105359102000</v>
+      </c>
+      <c r="O106">
+        <v>32519900</v>
+      </c>
+      <c r="P106">
+        <v>886636100000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1672927560000</v>
+      </c>
+      <c r="B107">
+        <v>2729700</v>
+      </c>
+      <c r="C107">
+        <v>4391700</v>
+      </c>
+      <c r="D107">
+        <v>67300</v>
+      </c>
+      <c r="E107">
+        <v>56373768000</v>
+      </c>
+      <c r="F107">
+        <v>79439322000</v>
+      </c>
+      <c r="G107">
+        <v>1410752000</v>
+      </c>
+      <c r="H107">
+        <v>7188700</v>
+      </c>
+      <c r="I107">
+        <v>137223842000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-05T14:06:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>6468597819000</v>
+      </c>
+      <c r="L107">
+        <v>381052300</v>
+      </c>
+      <c r="M107">
+        <v>1662000</v>
+      </c>
+      <c r="N107">
+        <v>23065554000</v>
+      </c>
+      <c r="O107">
+        <v>34181900</v>
+      </c>
+      <c r="P107">
+        <v>909701654000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1672927680000</v>
+      </c>
+      <c r="B108">
+        <v>4210500</v>
+      </c>
+      <c r="C108">
+        <v>2991900</v>
+      </c>
+      <c r="D108">
+        <v>16500</v>
+      </c>
+      <c r="E108">
+        <v>70332364000</v>
+      </c>
+      <c r="F108">
+        <v>46775956000</v>
+      </c>
+      <c r="G108">
+        <v>383619000</v>
+      </c>
+      <c r="H108">
+        <v>7218900</v>
+      </c>
+      <c r="I108">
+        <v>117491939000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-05T14:08:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>6586089758000</v>
+      </c>
+      <c r="L108">
+        <v>388271200</v>
+      </c>
+      <c r="M108">
+        <v>-1218600</v>
+      </c>
+      <c r="N108">
+        <v>-23556408000</v>
+      </c>
+      <c r="O108">
+        <v>32963300</v>
+      </c>
+      <c r="P108">
+        <v>886145246000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1672927800000</v>
+      </c>
+      <c r="B109">
+        <v>2939100</v>
+      </c>
+      <c r="C109">
+        <v>2628800</v>
+      </c>
+      <c r="D109">
+        <v>86500</v>
+      </c>
+      <c r="E109">
+        <v>50465357000</v>
+      </c>
+      <c r="F109">
+        <v>47038542000</v>
+      </c>
+      <c r="G109">
+        <v>1197675000</v>
+      </c>
+      <c r="H109">
+        <v>5654400</v>
+      </c>
+      <c r="I109">
+        <v>98701574000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-05T14:10:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>6684791332000</v>
+      </c>
+      <c r="L109">
+        <v>393925600</v>
+      </c>
+      <c r="M109">
+        <v>-310300</v>
+      </c>
+      <c r="N109">
+        <v>-3426815000</v>
+      </c>
+      <c r="O109">
+        <v>32653000</v>
+      </c>
+      <c r="P109">
+        <v>882718431000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1672927920000</v>
+      </c>
+      <c r="B110">
+        <v>2767200</v>
+      </c>
+      <c r="C110">
+        <v>1758700</v>
+      </c>
+      <c r="D110">
+        <v>15100</v>
+      </c>
+      <c r="E110">
+        <v>48323103000</v>
+      </c>
+      <c r="F110">
+        <v>35268109000</v>
+      </c>
+      <c r="G110">
+        <v>243672000</v>
+      </c>
+      <c r="H110">
+        <v>4541000</v>
+      </c>
+      <c r="I110">
+        <v>83834884000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-05T14:12:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>6768626216000</v>
+      </c>
+      <c r="L110">
+        <v>398466600</v>
+      </c>
+      <c r="M110">
+        <v>-1008500</v>
+      </c>
+      <c r="N110">
+        <v>-13054994000</v>
+      </c>
+      <c r="O110">
+        <v>31644500</v>
+      </c>
+      <c r="P110">
+        <v>869663437000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1672928040000</v>
+      </c>
+      <c r="B111">
+        <v>2214100</v>
+      </c>
+      <c r="C111">
+        <v>2969100</v>
+      </c>
+      <c r="D111">
+        <v>14200</v>
+      </c>
+      <c r="E111">
+        <v>40861876000</v>
+      </c>
+      <c r="F111">
+        <v>65209706000</v>
+      </c>
+      <c r="G111">
+        <v>299687000</v>
+      </c>
+      <c r="H111">
+        <v>5197400</v>
+      </c>
+      <c r="I111">
+        <v>106371269000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-05T14:14:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>6874997485000</v>
+      </c>
+      <c r="L111">
+        <v>403664000</v>
+      </c>
+      <c r="M111">
+        <v>755000</v>
+      </c>
+      <c r="N111">
+        <v>24347830000</v>
+      </c>
+      <c r="O111">
+        <v>32399500</v>
+      </c>
+      <c r="P111">
+        <v>894011267000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1672928160000</v>
+      </c>
+      <c r="B112">
+        <v>2188400</v>
+      </c>
+      <c r="C112">
+        <v>3198200</v>
+      </c>
+      <c r="D112">
+        <v>15400</v>
+      </c>
+      <c r="E112">
+        <v>37045285000</v>
+      </c>
+      <c r="F112">
+        <v>53225664000</v>
+      </c>
+      <c r="G112">
+        <v>294110000</v>
+      </c>
+      <c r="H112">
+        <v>5402000</v>
+      </c>
+      <c r="I112">
+        <v>90565059000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-05T14:16:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>6965562544000</v>
+      </c>
+      <c r="L112">
+        <v>409066000</v>
+      </c>
+      <c r="M112">
+        <v>1009800</v>
+      </c>
+      <c r="N112">
+        <v>16180379000</v>
+      </c>
+      <c r="O112">
+        <v>33409300</v>
+      </c>
+      <c r="P112">
+        <v>910191646000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1672928280000</v>
+      </c>
+      <c r="B113">
+        <v>2228100</v>
+      </c>
+      <c r="C113">
+        <v>2244900</v>
+      </c>
+      <c r="D113">
+        <v>23700</v>
+      </c>
+      <c r="E113">
+        <v>38945975000</v>
+      </c>
+      <c r="F113">
+        <v>41519277000</v>
+      </c>
+      <c r="G113">
+        <v>404820000</v>
+      </c>
+      <c r="H113">
+        <v>4496700</v>
+      </c>
+      <c r="I113">
+        <v>80870072000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-05T14:18:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>7046432616000</v>
+      </c>
+      <c r="L113">
+        <v>413562700</v>
+      </c>
+      <c r="M113">
+        <v>16800</v>
+      </c>
+      <c r="N113">
+        <v>2573302000</v>
+      </c>
+      <c r="O113">
+        <v>33426100</v>
+      </c>
+      <c r="P113">
+        <v>912764948000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1672928400000</v>
+      </c>
+      <c r="B114">
+        <v>2298600</v>
+      </c>
+      <c r="C114">
+        <v>2062800</v>
+      </c>
+      <c r="D114">
+        <v>67400</v>
+      </c>
+      <c r="E114">
+        <v>37503124000</v>
+      </c>
+      <c r="F114">
+        <v>41576652000</v>
+      </c>
+      <c r="G114">
+        <v>1331539000</v>
+      </c>
+      <c r="H114">
+        <v>4428800</v>
+      </c>
+      <c r="I114">
+        <v>80411315000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-05T14:20:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>7126843931000</v>
+      </c>
+      <c r="L114">
+        <v>417991500</v>
+      </c>
+      <c r="M114">
+        <v>-235800</v>
+      </c>
+      <c r="N114">
+        <v>4073528000</v>
+      </c>
+      <c r="O114">
+        <v>33190300</v>
+      </c>
+      <c r="P114">
+        <v>916838476000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1672928520000</v>
+      </c>
+      <c r="B115">
+        <v>3034600</v>
+      </c>
+      <c r="C115">
+        <v>1746400</v>
+      </c>
+      <c r="D115">
+        <v>8600</v>
+      </c>
+      <c r="E115">
+        <v>52863843000</v>
+      </c>
+      <c r="F115">
+        <v>30864088000</v>
+      </c>
+      <c r="G115">
+        <v>131240000</v>
+      </c>
+      <c r="H115">
+        <v>4789600</v>
+      </c>
+      <c r="I115">
+        <v>83859171000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-05T14:22:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>7210703102000</v>
+      </c>
+      <c r="L115">
+        <v>422781100</v>
+      </c>
+      <c r="M115">
+        <v>-1288200</v>
+      </c>
+      <c r="N115">
+        <v>-21999755000</v>
+      </c>
+      <c r="O115">
+        <v>31902100</v>
+      </c>
+      <c r="P115">
+        <v>894838721000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1672928640000</v>
+      </c>
+      <c r="B116">
+        <v>3257400</v>
+      </c>
+      <c r="C116">
+        <v>2126700</v>
+      </c>
+      <c r="D116">
+        <v>25200</v>
+      </c>
+      <c r="E116">
+        <v>51063887000</v>
+      </c>
+      <c r="F116">
+        <v>42503645000</v>
+      </c>
+      <c r="G116">
+        <v>274515000</v>
+      </c>
+      <c r="H116">
+        <v>5409300</v>
+      </c>
+      <c r="I116">
+        <v>93842047000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-05T14:24:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>7304545149000</v>
+      </c>
+      <c r="L116">
+        <v>428190400</v>
+      </c>
+      <c r="M116">
+        <v>-1130700</v>
+      </c>
+      <c r="N116">
+        <v>-8560242000</v>
+      </c>
+      <c r="O116">
+        <v>30771400</v>
+      </c>
+      <c r="P116">
+        <v>886278479000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1672928760000</v>
+      </c>
+      <c r="B117">
+        <v>3447700</v>
+      </c>
+      <c r="C117">
+        <v>2045500</v>
+      </c>
+      <c r="D117">
+        <v>15500</v>
+      </c>
+      <c r="E117">
+        <v>62255317000</v>
+      </c>
+      <c r="F117">
+        <v>36970996000</v>
+      </c>
+      <c r="G117">
+        <v>425228000</v>
+      </c>
+      <c r="H117">
+        <v>5508700</v>
+      </c>
+      <c r="I117">
+        <v>99651541000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2023-01-05T14:26:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>7404196690000</v>
+      </c>
+      <c r="L117">
+        <v>433699100</v>
+      </c>
+      <c r="M117">
+        <v>-1402200</v>
+      </c>
+      <c r="N117">
+        <v>-25284321000</v>
+      </c>
+      <c r="O117">
+        <v>29369200</v>
+      </c>
+      <c r="P117">
+        <v>860994158000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1672928880000</v>
+      </c>
+      <c r="B118">
+        <v>5573400</v>
+      </c>
+      <c r="C118">
+        <v>2149900</v>
+      </c>
+      <c r="D118">
+        <v>48400</v>
+      </c>
+      <c r="E118">
+        <v>89527640000</v>
+      </c>
+      <c r="F118">
+        <v>35190942000</v>
+      </c>
+      <c r="G118">
+        <v>376553000</v>
+      </c>
+      <c r="H118">
+        <v>7771700</v>
+      </c>
+      <c r="I118">
+        <v>125095135000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2023-01-05T14:28:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>7529291825000</v>
+      </c>
+      <c r="L118">
+        <v>441470800</v>
+      </c>
+      <c r="M118">
+        <v>-3423500</v>
+      </c>
+      <c r="N118">
+        <v>-54336698000</v>
+      </c>
+      <c r="O118">
+        <v>25945700</v>
+      </c>
+      <c r="P118">
+        <v>806657460000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1672929000000</v>
+      </c>
+      <c r="B119">
+        <v>11800</v>
+      </c>
+      <c r="C119">
+        <v>40600</v>
+      </c>
+      <c r="D119">
+        <v>3000</v>
+      </c>
+      <c r="E119">
+        <v>190349000</v>
+      </c>
+      <c r="F119">
+        <v>545384000</v>
+      </c>
+      <c r="G119">
+        <v>27750000</v>
+      </c>
+      <c r="H119">
+        <v>55400</v>
+      </c>
+      <c r="I119">
+        <v>763483000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2023-01-05T14:30:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>7530055308000</v>
+      </c>
+      <c r="L119">
+        <v>441526200</v>
+      </c>
+      <c r="M119">
+        <v>28800</v>
+      </c>
+      <c r="N119">
+        <v>355035000</v>
+      </c>
+      <c r="O119">
+        <v>25974500</v>
+      </c>
+      <c r="P119">
+        <v>807012495000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1672929120000</v>
+      </c>
+      <c r="B120">
+        <v>300</v>
+      </c>
+      <c r="C120">
+        <v>100</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>3840000</v>
+      </c>
+      <c r="F120">
+        <v>1280000</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>400</v>
+      </c>
+      <c r="I120">
+        <v>5120000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2023-01-05T14:32:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>7530060428000</v>
+      </c>
+      <c r="L120">
+        <v>441526600</v>
+      </c>
+      <c r="M120">
+        <v>-200</v>
+      </c>
+      <c r="N120">
+        <v>-2560000</v>
+      </c>
+      <c r="O120">
+        <v>25974300</v>
+      </c>
+      <c r="P120">
+        <v>807009935000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1672929240000</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>1100</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>14080000</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1100</v>
+      </c>
+      <c r="I121">
+        <v>14080000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2023-01-05T14:34:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>7530074508000</v>
+      </c>
+      <c r="L121">
+        <v>441527700</v>
+      </c>
+      <c r="M121">
+        <v>1100</v>
+      </c>
+      <c r="N121">
+        <v>14080000</v>
+      </c>
+      <c r="O121">
+        <v>25975400</v>
+      </c>
+      <c r="P121">
+        <v>807024015000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1672929360000</v>
+      </c>
+      <c r="B122">
+        <v>2200</v>
+      </c>
+      <c r="C122">
+        <v>2200</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>27940000</v>
+      </c>
+      <c r="F122">
+        <v>28160000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>4400</v>
+      </c>
+      <c r="I122">
+        <v>56100000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2023-01-05T14:36:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>7530130608000</v>
+      </c>
+      <c r="L122">
+        <v>441532100</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>220000</v>
+      </c>
+      <c r="O122">
+        <v>25975400</v>
+      </c>
+      <c r="P122">
+        <v>807024235000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1672929480000</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>2100</v>
+      </c>
+      <c r="D123">
+        <v>700</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>26880000</v>
+      </c>
+      <c r="G123">
+        <v>8960000</v>
+      </c>
+      <c r="H123">
+        <v>2800</v>
+      </c>
+      <c r="I123">
+        <v>35840000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2023-01-05T14:38:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>7530166448000</v>
+      </c>
+      <c r="L123">
+        <v>441534900</v>
+      </c>
+      <c r="M123">
+        <v>2100</v>
+      </c>
+      <c r="N123">
+        <v>26880000</v>
+      </c>
+      <c r="O123">
+        <v>25977500</v>
+      </c>
+      <c r="P123">
+        <v>807051115000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1672929600000</v>
+      </c>
+      <c r="B124">
+        <v>2000</v>
+      </c>
+      <c r="C124">
+        <v>5000</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>25400000</v>
+      </c>
+      <c r="F124">
+        <v>64000000</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>7000</v>
+      </c>
+      <c r="I124">
+        <v>89400000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2023-01-05T14:40:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>7530255848000</v>
+      </c>
+      <c r="L124">
+        <v>441541900</v>
+      </c>
+      <c r="M124">
+        <v>3000</v>
+      </c>
+      <c r="N124">
+        <v>38600000</v>
+      </c>
+      <c r="O124">
+        <v>25980500</v>
+      </c>
+      <c r="P124">
+        <v>807089715000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1672929720000</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>5200</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>66560000</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>5200</v>
+      </c>
+      <c r="I125">
+        <v>66560000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2023-01-05T14:42:00.000Z</v>
+      </c>
+      <c r="K125">
+        <v>7530322408000</v>
+      </c>
+      <c r="L125">
+        <v>441547100</v>
+      </c>
+      <c r="M125">
+        <v>5200</v>
+      </c>
+      <c r="N125">
+        <v>66560000</v>
+      </c>
+      <c r="O125">
+        <v>25985700</v>
+      </c>
+      <c r="P125">
+        <v>807156275000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1672929840000</v>
+      </c>
+      <c r="B126">
+        <v>575200</v>
+      </c>
+      <c r="C126">
+        <v>1245700</v>
+      </c>
+      <c r="D126">
+        <v>26567000</v>
+      </c>
+      <c r="E126">
+        <v>18390862000</v>
+      </c>
+      <c r="F126">
+        <v>31540334000</v>
+      </c>
+      <c r="G126">
+        <v>500328609000</v>
+      </c>
+      <c r="H126">
+        <v>28387900</v>
+      </c>
+      <c r="I126">
+        <v>550259805000</v>
+      </c>
+      <c r="J126" t="str">
+        <v>2023-01-05T14:44:00.000Z</v>
+      </c>
+      <c r="K126">
+        <v>8080582213000</v>
+      </c>
+      <c r="L126">
+        <v>469935000</v>
+      </c>
+      <c r="M126">
+        <v>670500</v>
+      </c>
+      <c r="N126">
+        <v>13149472000</v>
+      </c>
+      <c r="O126">
+        <v>26656200</v>
+      </c>
+      <c r="P126">
+        <v>820305747000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>1672929960000</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>400</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>5120000</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>400</v>
+      </c>
+      <c r="I127">
+        <v>5120000</v>
+      </c>
+      <c r="J127" t="str">
+        <v>2023-01-05T14:46:00.000Z</v>
+      </c>
+      <c r="K127">
+        <v>8080587333000</v>
+      </c>
+      <c r="L127">
+        <v>469935400</v>
+      </c>
+      <c r="M127">
+        <v>400</v>
+      </c>
+      <c r="N127">
+        <v>5120000</v>
+      </c>
+      <c r="O127">
+        <v>26656600</v>
+      </c>
+      <c r="P127">
+        <v>820310867000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>1672930200000</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>3200</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>40980000</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>3200</v>
+      </c>
+      <c r="I128">
+        <v>40980000</v>
+      </c>
+      <c r="J128" t="str">
+        <v>2023-01-05T14:50:00.000Z</v>
+      </c>
+      <c r="K128">
+        <v>8080628313000</v>
+      </c>
+      <c r="L128">
+        <v>469938600</v>
+      </c>
+      <c r="M128">
+        <v>3200</v>
+      </c>
+      <c r="N128">
+        <v>40980000</v>
+      </c>
+      <c r="O128">
+        <v>26659800</v>
+      </c>
+      <c r="P128">
+        <v>820351847000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1672930320000</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>7200</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>92880000</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>7200</v>
+      </c>
+      <c r="I129">
+        <v>92880000</v>
+      </c>
+      <c r="J129" t="str">
+        <v>2023-01-05T14:52:00.000Z</v>
+      </c>
+      <c r="K129">
+        <v>8080721193000</v>
+      </c>
+      <c r="L129">
+        <v>469945800</v>
+      </c>
+      <c r="M129">
+        <v>7200</v>
+      </c>
+      <c r="N129">
+        <v>92880000</v>
+      </c>
+      <c r="O129">
+        <v>26667000</v>
+      </c>
+      <c r="P129">
+        <v>820444727000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>1672930560000</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>1000</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>12900000</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>1000</v>
+      </c>
+      <c r="I130">
+        <v>12900000</v>
+      </c>
+      <c r="J130" t="str">
+        <v>2023-01-05T14:56:00.000Z</v>
+      </c>
+      <c r="K130">
+        <v>8080734093000</v>
+      </c>
+      <c r="L130">
+        <v>469946800</v>
+      </c>
+      <c r="M130">
+        <v>1000</v>
+      </c>
+      <c r="N130">
+        <v>12900000</v>
+      </c>
+      <c r="O130">
+        <v>26668000</v>
+      </c>
+      <c r="P130">
+        <v>820457627000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>1672930680000</v>
+      </c>
+      <c r="B131">
         <v>8500</v>
       </c>
-      <c r="C56">
-        <v>1300</v>
-      </c>
-      <c r="D56">
+      <c r="C131">
+        <v>300</v>
+      </c>
+      <c r="D131">
         <v>0</v>
       </c>
-      <c r="E56">
+      <c r="E131">
         <v>108800000</v>
       </c>
-      <c r="F56">
-        <v>16740000</v>
-      </c>
-      <c r="G56">
+      <c r="F131">
+        <v>3840000</v>
+      </c>
+      <c r="G131">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>9800</v>
-      </c>
-      <c r="I56">
-        <v>125540000</v>
-      </c>
-      <c r="J56" t="str">
-        <v>2023-01-05T14:55:00.000Z</v>
-      </c>
-      <c r="K56">
+      <c r="H131">
+        <v>8800</v>
+      </c>
+      <c r="I131">
+        <v>112640000</v>
+      </c>
+      <c r="J131" t="str">
+        <v>2023-01-05T14:58:00.000Z</v>
+      </c>
+      <c r="K131">
         <v>8080846733000</v>
       </c>
-      <c r="L56">
+      <c r="L131">
         <v>469955600</v>
       </c>
-      <c r="M56">
-        <v>-7200</v>
-      </c>
-      <c r="N56">
-        <v>-92060000</v>
-      </c>
-      <c r="O56">
+      <c r="M131">
+        <v>-8200</v>
+      </c>
+      <c r="N131">
+        <v>-104960000</v>
+      </c>
+      <c r="O131">
         <v>26659800</v>
       </c>
-      <c r="P56">
+      <c r="P131">
         <v>820352667000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P131"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230105/VNINDEX_HOSE_5p_20230105.xlsx
+++ b/name/vnindex/20230105/VNINDEX_HOSE_5p_20230105.xlsx
@@ -616,25 +616,25 @@
         <v>1315300</v>
       </c>
       <c r="E5">
-        <v>14520886000</v>
+        <v>11995014400</v>
       </c>
       <c r="F5">
-        <v>29459580000</v>
+        <v>25088055900</v>
       </c>
       <c r="G5">
-        <v>19545647000</v>
+        <v>17639155400</v>
       </c>
       <c r="H5">
         <v>6098500</v>
       </c>
       <c r="I5">
-        <v>63526113000</v>
+        <v>54722225700</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-05T09:14:00.000Z</v>
       </c>
       <c r="K5">
-        <v>63634353000</v>
+        <v>54830465700</v>
       </c>
       <c r="L5">
         <v>6106700</v>
@@ -643,13 +643,13 @@
         <v>2826600</v>
       </c>
       <c r="N5">
-        <v>14938694000</v>
+        <v>13093041500</v>
       </c>
       <c r="O5">
         <v>2834600</v>
       </c>
       <c r="P5">
-        <v>15044294000</v>
+        <v>13198641500</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>15700</v>
       </c>
       <c r="E6">
-        <v>12461063000</v>
+        <v>10635890000</v>
       </c>
       <c r="F6">
-        <v>21568582000</v>
+        <v>19592859700</v>
       </c>
       <c r="G6">
         <v>228307000</v>
@@ -678,13 +678,13 @@
         <v>2785500</v>
       </c>
       <c r="I6">
-        <v>34257952000</v>
+        <v>30457056700</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-05T09:16:00.000Z</v>
       </c>
       <c r="K6">
-        <v>97892305000</v>
+        <v>85287522400</v>
       </c>
       <c r="L6">
         <v>8892200</v>
@@ -693,13 +693,13 @@
         <v>994400</v>
       </c>
       <c r="N6">
-        <v>9107519000</v>
+        <v>8956969700</v>
       </c>
       <c r="O6">
         <v>3829000</v>
       </c>
       <c r="P6">
-        <v>24151813000</v>
+        <v>22155611200</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>33300</v>
       </c>
       <c r="E7">
-        <v>13531308000</v>
+        <v>12993446400</v>
       </c>
       <c r="F7">
-        <v>35061057000</v>
+        <v>30783139200</v>
       </c>
       <c r="G7">
         <v>472189000</v>
@@ -728,13 +728,13 @@
         <v>3195600</v>
       </c>
       <c r="I7">
-        <v>49064554000</v>
+        <v>44248774600</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-05T09:18:00.000Z</v>
       </c>
       <c r="K7">
-        <v>146956859000</v>
+        <v>129536297000</v>
       </c>
       <c r="L7">
         <v>12087800</v>
@@ -743,13 +743,13 @@
         <v>1313100</v>
       </c>
       <c r="N7">
-        <v>21529749000</v>
+        <v>17789692800</v>
       </c>
       <c r="O7">
         <v>5142100</v>
       </c>
       <c r="P7">
-        <v>45681562000</v>
+        <v>39945304000</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>11000</v>
       </c>
       <c r="E8">
-        <v>10720027000</v>
+        <v>10485461800</v>
       </c>
       <c r="F8">
-        <v>24969261000</v>
+        <v>23058873300</v>
       </c>
       <c r="G8">
-        <v>149450000</v>
+        <v>120479000</v>
       </c>
       <c r="H8">
         <v>2121000</v>
       </c>
       <c r="I8">
-        <v>35838738000</v>
+        <v>33664814100</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-05T09:20:00.000Z</v>
       </c>
       <c r="K8">
-        <v>182795597000</v>
+        <v>163201111100</v>
       </c>
       <c r="L8">
         <v>14208800</v>
@@ -793,13 +793,13 @@
         <v>423200</v>
       </c>
       <c r="N8">
-        <v>14249234000</v>
+        <v>12573411500</v>
       </c>
       <c r="O8">
         <v>5565300</v>
       </c>
       <c r="P8">
-        <v>59930796000</v>
+        <v>52518715500</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>4000</v>
       </c>
       <c r="E9">
-        <v>14248986000</v>
+        <v>13240395600</v>
       </c>
       <c r="F9">
-        <v>25613880000</v>
+        <v>22670026800</v>
       </c>
       <c r="G9">
-        <v>114719000</v>
+        <v>94439300</v>
       </c>
       <c r="H9">
         <v>2382300</v>
       </c>
       <c r="I9">
-        <v>39977585000</v>
+        <v>36004861700</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-05T09:22:00.000Z</v>
       </c>
       <c r="K9">
-        <v>222773182000</v>
+        <v>199205972800</v>
       </c>
       <c r="L9">
         <v>16591100</v>
@@ -843,13 +843,13 @@
         <v>455500</v>
       </c>
       <c r="N9">
-        <v>11364894000</v>
+        <v>9429631200</v>
       </c>
       <c r="O9">
         <v>6020800</v>
       </c>
       <c r="P9">
-        <v>71295690000</v>
+        <v>61948346700</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>5800</v>
       </c>
       <c r="E10">
-        <v>22468739000</v>
+        <v>21130478600</v>
       </c>
       <c r="F10">
-        <v>18267655000</v>
+        <v>16987336600</v>
       </c>
       <c r="G10">
         <v>104303000</v>
@@ -878,13 +878,13 @@
         <v>2480000</v>
       </c>
       <c r="I10">
-        <v>40840697000</v>
+        <v>38222118200</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-05T09:24:00.000Z</v>
       </c>
       <c r="K10">
-        <v>263613879000</v>
+        <v>237428091000</v>
       </c>
       <c r="L10">
         <v>19071100</v>
@@ -893,13 +893,13 @@
         <v>-554000</v>
       </c>
       <c r="N10">
-        <v>-4201084000</v>
+        <v>-4143142000</v>
       </c>
       <c r="O10">
         <v>5466800</v>
       </c>
       <c r="P10">
-        <v>67094606000</v>
+        <v>57805204700</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>17300</v>
       </c>
       <c r="E11">
-        <v>18710449000</v>
+        <v>18056104000</v>
       </c>
       <c r="F11">
-        <v>20172115000</v>
+        <v>18840048400</v>
       </c>
       <c r="G11">
         <v>61780000</v>
@@ -928,13 +928,13 @@
         <v>2351900</v>
       </c>
       <c r="I11">
-        <v>38944344000</v>
+        <v>36957932400</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-05T09:26:00.000Z</v>
       </c>
       <c r="K11">
-        <v>302558223000</v>
+        <v>274386023400</v>
       </c>
       <c r="L11">
         <v>21423000</v>
@@ -943,13 +943,13 @@
         <v>-195000</v>
       </c>
       <c r="N11">
-        <v>1461666000</v>
+        <v>783944400</v>
       </c>
       <c r="O11">
         <v>5271800</v>
       </c>
       <c r="P11">
-        <v>68556272000</v>
+        <v>58589149100</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>6500</v>
       </c>
       <c r="E12">
-        <v>28493423000</v>
+        <v>23696624600</v>
       </c>
       <c r="F12">
-        <v>13082035000</v>
+        <v>11367950800</v>
       </c>
       <c r="G12">
         <v>69163000</v>
@@ -978,13 +978,13 @@
         <v>2770300</v>
       </c>
       <c r="I12">
-        <v>41644621000</v>
+        <v>35133738400</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-05T09:28:00.000Z</v>
       </c>
       <c r="K12">
-        <v>344202844000</v>
+        <v>309519761800</v>
       </c>
       <c r="L12">
         <v>24193300</v>
@@ -993,13 +993,13 @@
         <v>-1251400</v>
       </c>
       <c r="N12">
-        <v>-15411388000</v>
+        <v>-12328673800</v>
       </c>
       <c r="O12">
         <v>4020400</v>
       </c>
       <c r="P12">
-        <v>53144884000</v>
+        <v>46260475300</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>14900</v>
       </c>
       <c r="E13">
-        <v>31613047000</v>
+        <v>29020342300</v>
       </c>
       <c r="F13">
-        <v>17613888000</v>
+        <v>15400803300</v>
       </c>
       <c r="G13">
-        <v>248456000</v>
+        <v>210494000</v>
       </c>
       <c r="H13">
         <v>3008600</v>
       </c>
       <c r="I13">
-        <v>49475391000</v>
+        <v>44631639600</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-05T09:30:00.000Z</v>
       </c>
       <c r="K13">
-        <v>393678235000</v>
+        <v>354151401400</v>
       </c>
       <c r="L13">
         <v>27201900</v>
@@ -1043,13 +1043,13 @@
         <v>-1149900</v>
       </c>
       <c r="N13">
-        <v>-13999159000</v>
+        <v>-13619539000</v>
       </c>
       <c r="O13">
         <v>2870500</v>
       </c>
       <c r="P13">
-        <v>39145725000</v>
+        <v>32640936300</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>15000</v>
       </c>
       <c r="E14">
-        <v>20243480000</v>
+        <v>18304221200</v>
       </c>
       <c r="F14">
-        <v>25790005000</v>
+        <v>19772228800</v>
       </c>
       <c r="G14">
-        <v>477155000</v>
+        <v>417215000</v>
       </c>
       <c r="H14">
         <v>2514500</v>
       </c>
       <c r="I14">
-        <v>46510640000</v>
+        <v>38493665000</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-05T09:32:00.000Z</v>
       </c>
       <c r="K14">
-        <v>440188875000</v>
+        <v>392645066400</v>
       </c>
       <c r="L14">
         <v>29716400</v>
@@ -1093,13 +1093,13 @@
         <v>-27300</v>
       </c>
       <c r="N14">
-        <v>5546525000</v>
+        <v>1468007600</v>
       </c>
       <c r="O14">
         <v>2843200</v>
       </c>
       <c r="P14">
-        <v>44692250000</v>
+        <v>34108943900</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>5000</v>
       </c>
       <c r="E15">
-        <v>18404133000</v>
+        <v>17273065200</v>
       </c>
       <c r="F15">
-        <v>33004145000</v>
+        <v>28313140700</v>
       </c>
       <c r="G15">
         <v>128197000</v>
@@ -1128,13 +1128,13 @@
         <v>3300400</v>
       </c>
       <c r="I15">
-        <v>51536475000</v>
+        <v>45714402900</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-05T09:34:00.000Z</v>
       </c>
       <c r="K15">
-        <v>491725350000</v>
+        <v>438359469300</v>
       </c>
       <c r="L15">
         <v>33016800</v>
@@ -1143,13 +1143,13 @@
         <v>684000</v>
       </c>
       <c r="N15">
-        <v>14600012000</v>
+        <v>11040075500</v>
       </c>
       <c r="O15">
         <v>3527200</v>
       </c>
       <c r="P15">
-        <v>59292262000</v>
+        <v>45149019400</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>16800</v>
       </c>
       <c r="E16">
-        <v>25633346000</v>
+        <v>22791191000</v>
       </c>
       <c r="F16">
-        <v>37932551000</v>
+        <v>30881309300</v>
       </c>
       <c r="G16">
         <v>421753000</v>
@@ -1178,13 +1178,13 @@
         <v>3764600</v>
       </c>
       <c r="I16">
-        <v>63987650000</v>
+        <v>54094253300</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-05T09:36:00.000Z</v>
       </c>
       <c r="K16">
-        <v>555713000000</v>
+        <v>492453722600</v>
       </c>
       <c r="L16">
         <v>36781400</v>
@@ -1193,13 +1193,13 @@
         <v>533400</v>
       </c>
       <c r="N16">
-        <v>12299205000</v>
+        <v>8090118300</v>
       </c>
       <c r="O16">
         <v>4060600</v>
       </c>
       <c r="P16">
-        <v>71591467000</v>
+        <v>53239137700</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>8600</v>
       </c>
       <c r="E17">
-        <v>21193403000</v>
+        <v>19594004000</v>
       </c>
       <c r="F17">
-        <v>55984542000</v>
+        <v>49873359300</v>
       </c>
       <c r="G17">
-        <v>331615000</v>
+        <v>329617000</v>
       </c>
       <c r="H17">
         <v>4257800</v>
       </c>
       <c r="I17">
-        <v>77509560000</v>
+        <v>69796980300</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-05T09:38:00.000Z</v>
       </c>
       <c r="K17">
-        <v>633222560000</v>
+        <v>562250702900</v>
       </c>
       <c r="L17">
         <v>41039200</v>
@@ -1243,13 +1243,13 @@
         <v>1772400</v>
       </c>
       <c r="N17">
-        <v>34791139000</v>
+        <v>30279355300</v>
       </c>
       <c r="O17">
         <v>5833000</v>
       </c>
       <c r="P17">
-        <v>106382606000</v>
+        <v>83518493000</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>41500</v>
       </c>
       <c r="E18">
-        <v>19480427000</v>
+        <v>16572437900</v>
       </c>
       <c r="F18">
-        <v>38677462000</v>
+        <v>34548195400</v>
       </c>
       <c r="G18">
         <v>1069050000</v>
@@ -1278,13 +1278,13 @@
         <v>3630000</v>
       </c>
       <c r="I18">
-        <v>59226939000</v>
+        <v>52189683300</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-05T09:40:00.000Z</v>
       </c>
       <c r="K18">
-        <v>692449499000</v>
+        <v>614440386200</v>
       </c>
       <c r="L18">
         <v>44669200</v>
@@ -1293,13 +1293,13 @@
         <v>1141700</v>
       </c>
       <c r="N18">
-        <v>19197035000</v>
+        <v>17975757500</v>
       </c>
       <c r="O18">
         <v>6974700</v>
       </c>
       <c r="P18">
-        <v>125579641000</v>
+        <v>101494250500</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>4700</v>
       </c>
       <c r="E19">
-        <v>15384430000</v>
+        <v>13656459700</v>
       </c>
       <c r="F19">
-        <v>39922434000</v>
+        <v>32206257900</v>
       </c>
       <c r="G19">
         <v>93230000</v>
@@ -1328,13 +1328,13 @@
         <v>3459700</v>
       </c>
       <c r="I19">
-        <v>55400094000</v>
+        <v>45955947600</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-05T09:42:00.000Z</v>
       </c>
       <c r="K19">
-        <v>747849593000</v>
+        <v>660396333800</v>
       </c>
       <c r="L19">
         <v>48128900</v>
@@ -1343,13 +1343,13 @@
         <v>1569800</v>
       </c>
       <c r="N19">
-        <v>24538004000</v>
+        <v>18549798200</v>
       </c>
       <c r="O19">
         <v>8544500</v>
       </c>
       <c r="P19">
-        <v>150117645000</v>
+        <v>120044048700</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>34200</v>
       </c>
       <c r="E20">
-        <v>19910408000</v>
+        <v>17275046000</v>
       </c>
       <c r="F20">
-        <v>29635485000</v>
+        <v>27565756800</v>
       </c>
       <c r="G20">
         <v>612272000</v>
@@ -1378,13 +1378,13 @@
         <v>3279300</v>
       </c>
       <c r="I20">
-        <v>50158165000</v>
+        <v>45453074800</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-05T09:44:00.000Z</v>
       </c>
       <c r="K20">
-        <v>798007758000</v>
+        <v>705849408600</v>
       </c>
       <c r="L20">
         <v>51408200</v>
@@ -1393,13 +1393,13 @@
         <v>513900</v>
       </c>
       <c r="N20">
-        <v>9725077000</v>
+        <v>10290710800</v>
       </c>
       <c r="O20">
         <v>9058400</v>
       </c>
       <c r="P20">
-        <v>159842722000</v>
+        <v>130334759500</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>13100</v>
       </c>
       <c r="E21">
-        <v>28441180000</v>
+        <v>25730093800</v>
       </c>
       <c r="F21">
-        <v>26862529000</v>
+        <v>22638956800</v>
       </c>
       <c r="G21">
-        <v>191657000</v>
+        <v>187661000</v>
       </c>
       <c r="H21">
         <v>3601600</v>
       </c>
       <c r="I21">
-        <v>55495366000</v>
+        <v>48556711600</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-05T09:46:00.000Z</v>
       </c>
       <c r="K21">
-        <v>853503124000</v>
+        <v>754406120200</v>
       </c>
       <c r="L21">
         <v>55009800</v>
@@ -1443,13 +1443,13 @@
         <v>-640500</v>
       </c>
       <c r="N21">
-        <v>-1578651000</v>
+        <v>-3091137000</v>
       </c>
       <c r="O21">
         <v>8417900</v>
       </c>
       <c r="P21">
-        <v>158264071000</v>
+        <v>127243622500</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>19900</v>
       </c>
       <c r="E22">
-        <v>19307474000</v>
+        <v>17154429200</v>
       </c>
       <c r="F22">
-        <v>14667945000</v>
+        <v>12810504300</v>
       </c>
       <c r="G22">
-        <v>277812000</v>
+        <v>275714100</v>
       </c>
       <c r="H22">
         <v>2128000</v>
       </c>
       <c r="I22">
-        <v>34253231000</v>
+        <v>30240647600</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-05T09:48:00.000Z</v>
       </c>
       <c r="K22">
-        <v>887756355000</v>
+        <v>784646767800</v>
       </c>
       <c r="L22">
         <v>57137800</v>
@@ -1493,13 +1493,13 @@
         <v>-325700</v>
       </c>
       <c r="N22">
-        <v>-4639529000</v>
+        <v>-4343924900</v>
       </c>
       <c r="O22">
         <v>8092200</v>
       </c>
       <c r="P22">
-        <v>153624542000</v>
+        <v>122899697600</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>5300</v>
       </c>
       <c r="E23">
-        <v>23116948000</v>
+        <v>21243123700</v>
       </c>
       <c r="F23">
-        <v>13566779000</v>
+        <v>12481165700</v>
       </c>
       <c r="G23">
         <v>107100000</v>
@@ -1528,13 +1528,13 @@
         <v>2042800</v>
       </c>
       <c r="I23">
-        <v>36790827000</v>
+        <v>33831389400</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-05T09:50:00.000Z</v>
       </c>
       <c r="K23">
-        <v>924547182000</v>
+        <v>818478157200</v>
       </c>
       <c r="L23">
         <v>59180600</v>
@@ -1543,13 +1543,13 @@
         <v>-623300</v>
       </c>
       <c r="N23">
-        <v>-9550169000</v>
+        <v>-8761958000</v>
       </c>
       <c r="O23">
         <v>7468900</v>
       </c>
       <c r="P23">
-        <v>144074373000</v>
+        <v>114137739600</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>11200</v>
       </c>
       <c r="E24">
-        <v>20525731000</v>
+        <v>16076484700</v>
       </c>
       <c r="F24">
-        <v>15933824000</v>
+        <v>14912646200</v>
       </c>
       <c r="G24">
         <v>166808000</v>
@@ -1578,13 +1578,13 @@
         <v>2074800</v>
       </c>
       <c r="I24">
-        <v>36626363000</v>
+        <v>31155938900</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-05T09:52:00.000Z</v>
       </c>
       <c r="K24">
-        <v>961173545000</v>
+        <v>849634096100</v>
       </c>
       <c r="L24">
         <v>61255400</v>
@@ -1593,13 +1593,13 @@
         <v>-365000</v>
       </c>
       <c r="N24">
-        <v>-4591907000</v>
+        <v>-1163838500</v>
       </c>
       <c r="O24">
         <v>7103900</v>
       </c>
       <c r="P24">
-        <v>139482466000</v>
+        <v>112973901100</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>20000</v>
       </c>
       <c r="E25">
-        <v>21956148000</v>
+        <v>14198713200</v>
       </c>
       <c r="F25">
-        <v>15228425000</v>
+        <v>12110146400</v>
       </c>
       <c r="G25">
-        <v>401046000</v>
+        <v>64782600</v>
       </c>
       <c r="H25">
         <v>2042400</v>
       </c>
       <c r="I25">
-        <v>37585619000</v>
+        <v>26373642200</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-05T09:54:00.000Z</v>
       </c>
       <c r="K25">
-        <v>998759164000</v>
+        <v>876007738300</v>
       </c>
       <c r="L25">
         <v>63297800</v>
@@ -1643,13 +1643,13 @@
         <v>-538200</v>
       </c>
       <c r="N25">
-        <v>-6727723000</v>
+        <v>-2088566800</v>
       </c>
       <c r="O25">
         <v>6565700</v>
       </c>
       <c r="P25">
-        <v>132754743000</v>
+        <v>110885334300</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>3000</v>
       </c>
       <c r="E26">
-        <v>10623580000</v>
+        <v>9040864300</v>
       </c>
       <c r="F26">
-        <v>33449145000</v>
+        <v>30406690500</v>
       </c>
       <c r="G26">
-        <v>79264000</v>
+        <v>71871400</v>
       </c>
       <c r="H26">
         <v>2433000</v>
       </c>
       <c r="I26">
-        <v>44151989000</v>
+        <v>39519426200</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-05T09:56:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1042911153000</v>
+        <v>915527164500</v>
       </c>
       <c r="L26">
         <v>65730800</v>
@@ -1693,13 +1693,13 @@
         <v>1007600</v>
       </c>
       <c r="N26">
-        <v>22825565000</v>
+        <v>21365826200</v>
       </c>
       <c r="O26">
         <v>7573300</v>
       </c>
       <c r="P26">
-        <v>155580308000</v>
+        <v>132251160500</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>16000</v>
       </c>
       <c r="E27">
-        <v>12775450000</v>
+        <v>11395930900</v>
       </c>
       <c r="F27">
-        <v>23916742000</v>
+        <v>23072187400</v>
       </c>
       <c r="G27">
         <v>190512000</v>
@@ -1728,13 +1728,13 @@
         <v>2208100</v>
       </c>
       <c r="I27">
-        <v>36882704000</v>
+        <v>34658630300</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-05T09:58:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1079793857000</v>
+        <v>950185794800</v>
       </c>
       <c r="L27">
         <v>67938900</v>
@@ -1743,13 +1743,13 @@
         <v>554900</v>
       </c>
       <c r="N27">
-        <v>11141292000</v>
+        <v>11676256500</v>
       </c>
       <c r="O27">
         <v>8128200</v>
       </c>
       <c r="P27">
-        <v>166721600000</v>
+        <v>143927417000</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>800</v>
       </c>
       <c r="E28">
-        <v>11632594000</v>
+        <v>10529498200</v>
       </c>
       <c r="F28">
-        <v>40378256000</v>
+        <v>36541996100</v>
       </c>
       <c r="G28">
         <v>3311999.9999999995</v>
@@ -1778,13 +1778,13 @@
         <v>2835700</v>
       </c>
       <c r="I28">
-        <v>52014162000</v>
+        <v>47074806300</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-05T10:00:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1131808019000</v>
+        <v>997260601100</v>
       </c>
       <c r="L28">
         <v>70774600</v>
@@ -1793,13 +1793,13 @@
         <v>1104700</v>
       </c>
       <c r="N28">
-        <v>28745662000</v>
+        <v>26012497900</v>
       </c>
       <c r="O28">
         <v>9232900</v>
       </c>
       <c r="P28">
-        <v>195467262000</v>
+        <v>169939914900</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>7900</v>
       </c>
       <c r="E29">
-        <v>18015112000</v>
+        <v>15877851400</v>
       </c>
       <c r="F29">
-        <v>53242260000</v>
+        <v>46692716100</v>
       </c>
       <c r="G29">
         <v>196175000</v>
@@ -1828,13 +1828,13 @@
         <v>3649800</v>
       </c>
       <c r="I29">
-        <v>71453547000</v>
+        <v>62766742500</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-05T10:02:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1203261566000</v>
+        <v>1060027343600</v>
       </c>
       <c r="L29">
         <v>74424400</v>
@@ -1843,13 +1843,13 @@
         <v>1329900</v>
       </c>
       <c r="N29">
-        <v>35227148000</v>
+        <v>30814864700</v>
       </c>
       <c r="O29">
         <v>10562800</v>
       </c>
       <c r="P29">
-        <v>230694410000</v>
+        <v>200754779600</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>30700</v>
       </c>
       <c r="E30">
-        <v>17965519000</v>
+        <v>16435550500</v>
       </c>
       <c r="F30">
-        <v>34090001000</v>
+        <v>33005986100</v>
       </c>
       <c r="G30">
-        <v>508520000</v>
+        <v>447381200</v>
       </c>
       <c r="H30">
         <v>2875900</v>
       </c>
       <c r="I30">
-        <v>52564040000</v>
+        <v>49888917800</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-05T10:04:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1255825606000</v>
+        <v>1109916261400</v>
       </c>
       <c r="L30">
         <v>77300300</v>
@@ -1893,13 +1893,13 @@
         <v>685000</v>
       </c>
       <c r="N30">
-        <v>16124482000</v>
+        <v>16570435600</v>
       </c>
       <c r="O30">
         <v>11247800</v>
       </c>
       <c r="P30">
-        <v>246818892000</v>
+        <v>217325215200</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>3000</v>
       </c>
       <c r="E31">
-        <v>17895248000</v>
+        <v>16741003400</v>
       </c>
       <c r="F31">
-        <v>24581525000</v>
+        <v>24000406700</v>
       </c>
       <c r="G31">
-        <v>45000000</v>
+        <v>45000</v>
       </c>
       <c r="H31">
         <v>2690000</v>
       </c>
       <c r="I31">
-        <v>42521773000</v>
+        <v>40741455100</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-05T10:06:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1298347379000</v>
+        <v>1150657716500</v>
       </c>
       <c r="L31">
         <v>79990300</v>
@@ -1943,13 +1943,13 @@
         <v>438800</v>
       </c>
       <c r="N31">
-        <v>6686277000</v>
+        <v>7259403300</v>
       </c>
       <c r="O31">
         <v>11686600</v>
       </c>
       <c r="P31">
-        <v>253505169000</v>
+        <v>224584618500</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>6000</v>
       </c>
       <c r="E32">
-        <v>23735962000</v>
+        <v>22895403400</v>
       </c>
       <c r="F32">
-        <v>26180708000</v>
+        <v>25123066700</v>
       </c>
       <c r="G32">
-        <v>79250000</v>
+        <v>69260000</v>
       </c>
       <c r="H32">
         <v>2588100</v>
       </c>
       <c r="I32">
-        <v>49995920000</v>
+        <v>48087730100</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-05T10:08:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1348343299000</v>
+        <v>1198745446600</v>
       </c>
       <c r="L32">
         <v>82578400</v>
@@ -1993,13 +1993,13 @@
         <v>17700</v>
       </c>
       <c r="N32">
-        <v>2444746000</v>
+        <v>2227663300</v>
       </c>
       <c r="O32">
         <v>11704300</v>
       </c>
       <c r="P32">
-        <v>255949915000</v>
+        <v>226812281800</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>23465741000</v>
+        <v>19380330500</v>
       </c>
       <c r="F33">
-        <v>20442668000</v>
+        <v>19822289000</v>
       </c>
       <c r="G33">
         <v>79530000</v>
@@ -2028,13 +2028,13 @@
         <v>2407000</v>
       </c>
       <c r="I33">
-        <v>43987939000</v>
+        <v>39282149500</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-05T10:10:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1392331238000</v>
+        <v>1238027596100</v>
       </c>
       <c r="L33">
         <v>84985400</v>
@@ -2043,13 +2043,13 @@
         <v>-310600</v>
       </c>
       <c r="N33">
-        <v>-3023073000</v>
+        <v>441958500</v>
       </c>
       <c r="O33">
         <v>11393700</v>
       </c>
       <c r="P33">
-        <v>252926842000</v>
+        <v>227254240300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>32700</v>
       </c>
       <c r="E34">
-        <v>20547516000</v>
+        <v>18579286200</v>
       </c>
       <c r="F34">
-        <v>18661305000</v>
+        <v>18436729800</v>
       </c>
       <c r="G34">
         <v>378151000</v>
@@ -2078,13 +2078,13 @@
         <v>2166000</v>
       </c>
       <c r="I34">
-        <v>39586972000</v>
+        <v>37394167000</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-05T10:12:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1431918210000</v>
+        <v>1275421763100</v>
       </c>
       <c r="L34">
         <v>87151400</v>
@@ -2093,13 +2093,13 @@
         <v>-206700</v>
       </c>
       <c r="N34">
-        <v>-1886211000</v>
+        <v>-142556400</v>
       </c>
       <c r="O34">
         <v>11187000</v>
       </c>
       <c r="P34">
-        <v>251040631000</v>
+        <v>227111683900</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>9700</v>
       </c>
       <c r="E35">
-        <v>25017912000</v>
+        <v>23619611700</v>
       </c>
       <c r="F35">
-        <v>31383556000</v>
+        <v>30780859300</v>
       </c>
       <c r="G35">
         <v>134810000</v>
@@ -2128,13 +2128,13 @@
         <v>2865200</v>
       </c>
       <c r="I35">
-        <v>56536278000</v>
+        <v>54535281000</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-05T10:14:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1488454488000</v>
+        <v>1329957044100</v>
       </c>
       <c r="L35">
         <v>90016600</v>
@@ -2143,13 +2143,13 @@
         <v>-58700</v>
       </c>
       <c r="N35">
-        <v>6365644000</v>
+        <v>7161247600</v>
       </c>
       <c r="O35">
         <v>11128300</v>
       </c>
       <c r="P35">
-        <v>257406275000</v>
+        <v>234272931500</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>2600</v>
       </c>
       <c r="E36">
-        <v>14579800000</v>
+        <v>13681998700</v>
       </c>
       <c r="F36">
-        <v>20256497000</v>
+        <v>19578275900</v>
       </c>
       <c r="G36">
         <v>68482000</v>
@@ -2178,13 +2178,13 @@
         <v>1789600</v>
       </c>
       <c r="I36">
-        <v>34904779000</v>
+        <v>33328756600</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-05T10:16:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1523359267000</v>
+        <v>1363285800700</v>
       </c>
       <c r="L36">
         <v>91806200</v>
@@ -2193,13 +2193,13 @@
         <v>-55800</v>
       </c>
       <c r="N36">
-        <v>5676697000</v>
+        <v>5896277200</v>
       </c>
       <c r="O36">
         <v>11072500</v>
       </c>
       <c r="P36">
-        <v>263082972000</v>
+        <v>240169208700</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>600</v>
       </c>
       <c r="E37">
-        <v>18436906000</v>
+        <v>17874668800</v>
       </c>
       <c r="F37">
-        <v>21191996000</v>
+        <v>19317772100</v>
       </c>
       <c r="G37">
         <v>36480000</v>
@@ -2228,13 +2228,13 @@
         <v>2196000</v>
       </c>
       <c r="I37">
-        <v>39665382000</v>
+        <v>37228920900</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-05T10:18:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1563024649000</v>
+        <v>1400514721600</v>
       </c>
       <c r="L37">
         <v>94002200</v>
@@ -2243,13 +2243,13 @@
         <v>-284800</v>
       </c>
       <c r="N37">
-        <v>2755090000</v>
+        <v>1443103300</v>
       </c>
       <c r="O37">
         <v>10787700</v>
       </c>
       <c r="P37">
-        <v>265838062000</v>
+        <v>241612312000</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>20700</v>
       </c>
       <c r="E38">
-        <v>23479758000</v>
+        <v>19796644800</v>
       </c>
       <c r="F38">
-        <v>19615261000</v>
+        <v>15530449900</v>
       </c>
       <c r="G38">
-        <v>852863000</v>
+        <v>835880000</v>
       </c>
       <c r="H38">
         <v>2347500</v>
       </c>
       <c r="I38">
-        <v>43947882000</v>
+        <v>36162974700</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-05T10:20:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1606972531000</v>
+        <v>1436677696300</v>
       </c>
       <c r="L38">
         <v>96349700</v>
@@ -2293,13 +2293,13 @@
         <v>-630000</v>
       </c>
       <c r="N38">
-        <v>-3864497000</v>
+        <v>-4266194900</v>
       </c>
       <c r="O38">
         <v>10157700</v>
       </c>
       <c r="P38">
-        <v>261973565000</v>
+        <v>237346117100</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>1900</v>
       </c>
       <c r="E39">
-        <v>40755157000</v>
+        <v>28402921600</v>
       </c>
       <c r="F39">
-        <v>33201163000</v>
+        <v>20370806200</v>
       </c>
       <c r="G39">
-        <v>21200000</v>
+        <v>19002200</v>
       </c>
       <c r="H39">
         <v>3725300</v>
       </c>
       <c r="I39">
-        <v>73977520000</v>
+        <v>48792730000</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-05T10:22:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1680950051000</v>
+        <v>1485470426300</v>
       </c>
       <c r="L39">
         <v>100075000</v>
@@ -2343,13 +2343,13 @@
         <v>-1689200</v>
       </c>
       <c r="N39">
-        <v>-7553994000</v>
+        <v>-8032115400</v>
       </c>
       <c r="O39">
         <v>8468500</v>
       </c>
       <c r="P39">
-        <v>254419571000</v>
+        <v>229314001700</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>2500</v>
       </c>
       <c r="E40">
-        <v>29611935000</v>
+        <v>28893454200</v>
       </c>
       <c r="F40">
-        <v>19513706000</v>
+        <v>17220401600</v>
       </c>
       <c r="G40">
         <v>57672000</v>
@@ -2378,13 +2378,13 @@
         <v>3139600</v>
       </c>
       <c r="I40">
-        <v>49183313000</v>
+        <v>46171527800</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-05T10:24:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1730133364000</v>
+        <v>1531641954100</v>
       </c>
       <c r="L40">
         <v>103214600</v>
@@ -2393,13 +2393,13 @@
         <v>-1628900</v>
       </c>
       <c r="N40">
-        <v>-10098229000</v>
+        <v>-11673052600</v>
       </c>
       <c r="O40">
         <v>6839600</v>
       </c>
       <c r="P40">
-        <v>244321342000</v>
+        <v>217640949100</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>9100</v>
       </c>
       <c r="E41">
-        <v>29866466000</v>
+        <v>28959074300</v>
       </c>
       <c r="F41">
-        <v>19202018000</v>
+        <v>18706314200</v>
       </c>
       <c r="G41">
         <v>44407000</v>
@@ -2428,13 +2428,13 @@
         <v>3082000</v>
       </c>
       <c r="I41">
-        <v>49112891000</v>
+        <v>47709795500</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-05T10:26:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1779246255000</v>
+        <v>1579351749600</v>
       </c>
       <c r="L41">
         <v>106296600</v>
@@ -2443,13 +2443,13 @@
         <v>-917900</v>
       </c>
       <c r="N41">
-        <v>-10664448000</v>
+        <v>-10252760100</v>
       </c>
       <c r="O41">
         <v>5921700</v>
       </c>
       <c r="P41">
-        <v>233656894000</v>
+        <v>207388189000</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>5500</v>
       </c>
       <c r="E42">
-        <v>33279885000</v>
+        <v>28237832100</v>
       </c>
       <c r="F42">
-        <v>15926986000</v>
+        <v>14762751400</v>
       </c>
       <c r="G42">
         <v>138985000</v>
@@ -2478,13 +2478,13 @@
         <v>2881300</v>
       </c>
       <c r="I42">
-        <v>49345856000</v>
+        <v>43139568500</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-05T10:28:00.000Z</v>
       </c>
       <c r="K42">
-        <v>1828592111000</v>
+        <v>1622491318100</v>
       </c>
       <c r="L42">
         <v>109177900</v>
@@ -2493,13 +2493,13 @@
         <v>-1312600</v>
       </c>
       <c r="N42">
-        <v>-17352899000</v>
+        <v>-13475080700</v>
       </c>
       <c r="O42">
         <v>4609100</v>
       </c>
       <c r="P42">
-        <v>216303995000</v>
+        <v>193913108300</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>14900</v>
       </c>
       <c r="E43">
-        <v>38417406000</v>
+        <v>33553674600</v>
       </c>
       <c r="F43">
-        <v>13098286000</v>
+        <v>11449636300</v>
       </c>
       <c r="G43">
         <v>279732000</v>
@@ -2528,13 +2528,13 @@
         <v>3290100</v>
       </c>
       <c r="I43">
-        <v>51795424000</v>
+        <v>45283042900</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-05T10:30:00.000Z</v>
       </c>
       <c r="K43">
-        <v>1880387535000</v>
+        <v>1667774361000</v>
       </c>
       <c r="L43">
         <v>112468000</v>
@@ -2543,13 +2543,13 @@
         <v>-1853600</v>
       </c>
       <c r="N43">
-        <v>-25319120000</v>
+        <v>-22104038300</v>
       </c>
       <c r="O43">
         <v>2755500</v>
       </c>
       <c r="P43">
-        <v>190984875000</v>
+        <v>171809070000</v>
       </c>
     </row>
     <row r="44">
@@ -2566,25 +2566,25 @@
         <v>287700</v>
       </c>
       <c r="E44">
-        <v>32409285000</v>
+        <v>28287810600</v>
       </c>
       <c r="F44">
-        <v>16964924000</v>
+        <v>15579111200</v>
       </c>
       <c r="G44">
-        <v>1100750000</v>
+        <v>1098252500</v>
       </c>
       <c r="H44">
         <v>3202400</v>
       </c>
       <c r="I44">
-        <v>50474959000</v>
+        <v>44965174300</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-05T10:32:00.000Z</v>
       </c>
       <c r="K44">
-        <v>1930862494000</v>
+        <v>1712739535300</v>
       </c>
       <c r="L44">
         <v>115670400</v>
@@ -2593,13 +2593,13 @@
         <v>-1230300</v>
       </c>
       <c r="N44">
-        <v>-15444361000</v>
+        <v>-12708699400</v>
       </c>
       <c r="O44">
         <v>1525200</v>
       </c>
       <c r="P44">
-        <v>175540514000</v>
+        <v>159100370600</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>3100</v>
       </c>
       <c r="E45">
-        <v>30326222000</v>
+        <v>26953598000</v>
       </c>
       <c r="F45">
-        <v>19535894000</v>
+        <v>17441490500</v>
       </c>
       <c r="G45">
         <v>60752000</v>
@@ -2628,13 +2628,13 @@
         <v>3041300</v>
       </c>
       <c r="I45">
-        <v>49922868000</v>
+        <v>44455840500</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-05T10:34:00.000Z</v>
       </c>
       <c r="K45">
-        <v>1980785362000</v>
+        <v>1757195375800</v>
       </c>
       <c r="L45">
         <v>118711700</v>
@@ -2643,13 +2643,13 @@
         <v>-856200</v>
       </c>
       <c r="N45">
-        <v>-10790328000</v>
+        <v>-9512107500</v>
       </c>
       <c r="O45">
         <v>669000</v>
       </c>
       <c r="P45">
-        <v>164750186000</v>
+        <v>149588263100</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>11900</v>
       </c>
       <c r="E46">
-        <v>23420329000</v>
+        <v>21149801800</v>
       </c>
       <c r="F46">
-        <v>12410701000</v>
+        <v>10002811300</v>
       </c>
       <c r="G46">
         <v>57150000</v>
@@ -2678,13 +2678,13 @@
         <v>2114400</v>
       </c>
       <c r="I46">
-        <v>35888180000</v>
+        <v>31209763100</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-05T10:36:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2016673542000</v>
+        <v>1788405138900</v>
       </c>
       <c r="L46">
         <v>120826100</v>
@@ -2693,13 +2693,13 @@
         <v>-888900</v>
       </c>
       <c r="N46">
-        <v>-11009628000</v>
+        <v>-11146990500</v>
       </c>
       <c r="O46">
         <v>-219900</v>
       </c>
       <c r="P46">
-        <v>153740558000</v>
+        <v>138441272600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>7600</v>
       </c>
       <c r="E47">
-        <v>29957756000</v>
+        <v>28334680700</v>
       </c>
       <c r="F47">
-        <v>15486950000</v>
+        <v>12736902800</v>
       </c>
       <c r="G47">
         <v>134362000</v>
@@ -2728,13 +2728,13 @@
         <v>2712500</v>
       </c>
       <c r="I47">
-        <v>45579068000</v>
+        <v>41205945500</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-05T10:38:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2062252610000</v>
+        <v>1829611084400</v>
       </c>
       <c r="L47">
         <v>123538600</v>
@@ -2743,13 +2743,13 @@
         <v>-1215700</v>
       </c>
       <c r="N47">
-        <v>-14470806000</v>
+        <v>-15597777900</v>
       </c>
       <c r="O47">
         <v>-1435600</v>
       </c>
       <c r="P47">
-        <v>139269752000</v>
+        <v>122843494700</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>12900</v>
       </c>
       <c r="E48">
-        <v>35308826000</v>
+        <v>31325912900</v>
       </c>
       <c r="F48">
-        <v>12738921000</v>
+        <v>11173987500</v>
       </c>
       <c r="G48">
         <v>203535000</v>
@@ -2778,13 +2778,13 @@
         <v>2882200</v>
       </c>
       <c r="I48">
-        <v>48251282000</v>
+        <v>42703435400</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-05T10:40:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2110503892000</v>
+        <v>1872314519800</v>
       </c>
       <c r="L48">
         <v>126420800</v>
@@ -2793,13 +2793,13 @@
         <v>-1539300</v>
       </c>
       <c r="N48">
-        <v>-22569905000</v>
+        <v>-20151925400</v>
       </c>
       <c r="O48">
         <v>-2974900</v>
       </c>
       <c r="P48">
-        <v>116699847000</v>
+        <v>102691569300</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>28600</v>
       </c>
       <c r="E49">
-        <v>43579211000</v>
+        <v>41886605300</v>
       </c>
       <c r="F49">
-        <v>14839424000</v>
+        <v>12817048400</v>
       </c>
       <c r="G49">
         <v>432007000</v>
@@ -2828,13 +2828,13 @@
         <v>3343300</v>
       </c>
       <c r="I49">
-        <v>58850642000</v>
+        <v>55135660700</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-05T10:42:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2169354534000</v>
+        <v>1927450180500</v>
       </c>
       <c r="L49">
         <v>129764100</v>
@@ -2843,13 +2843,13 @@
         <v>-1750100</v>
       </c>
       <c r="N49">
-        <v>-28739787000</v>
+        <v>-29069556900</v>
       </c>
       <c r="O49">
         <v>-4725000</v>
       </c>
       <c r="P49">
-        <v>87960060000</v>
+        <v>73622012400</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>169100</v>
       </c>
       <c r="E50">
-        <v>54641135000</v>
+        <v>49083098600</v>
       </c>
       <c r="F50">
-        <v>18265134000</v>
+        <v>16655545200</v>
       </c>
       <c r="G50">
         <v>2360536000</v>
@@ -2878,13 +2878,13 @@
         <v>4447500</v>
       </c>
       <c r="I50">
-        <v>75266805000</v>
+        <v>68099179800</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-05T10:44:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2244621339000</v>
+        <v>1995549360300</v>
       </c>
       <c r="L50">
         <v>134211600</v>
@@ -2893,13 +2893,13 @@
         <v>-2366000</v>
       </c>
       <c r="N50">
-        <v>-36376001000</v>
+        <v>-32427553400</v>
       </c>
       <c r="O50">
         <v>-7091000</v>
       </c>
       <c r="P50">
-        <v>51584059000</v>
+        <v>41194459000</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>20300</v>
       </c>
       <c r="E51">
-        <v>38367366000</v>
+        <v>37097037600</v>
       </c>
       <c r="F51">
-        <v>17247609000</v>
+        <v>13498761600</v>
       </c>
       <c r="G51">
         <v>244510000</v>
@@ -2928,13 +2928,13 @@
         <v>3217100</v>
       </c>
       <c r="I51">
-        <v>55859485000</v>
+        <v>50840309200</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-05T10:46:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2300480824000</v>
+        <v>2046389669500</v>
       </c>
       <c r="L51">
         <v>137428700</v>
@@ -2943,13 +2943,13 @@
         <v>-1222200</v>
       </c>
       <c r="N51">
-        <v>-21119757000</v>
+        <v>-23598276000</v>
       </c>
       <c r="O51">
         <v>-8313200</v>
       </c>
       <c r="P51">
-        <v>30464302000</v>
+        <v>17596183000</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>5200</v>
       </c>
       <c r="E52">
-        <v>41139160000</v>
+        <v>40320279700</v>
       </c>
       <c r="F52">
-        <v>20429202000</v>
+        <v>19063569000</v>
       </c>
       <c r="G52">
         <v>23902000</v>
@@ -2978,13 +2978,13 @@
         <v>3180300</v>
       </c>
       <c r="I52">
-        <v>61592264000</v>
+        <v>59407750700</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-05T10:48:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2362073088000</v>
+        <v>2105797420200</v>
       </c>
       <c r="L52">
         <v>140609000</v>
@@ -2993,13 +2993,13 @@
         <v>-1162300</v>
       </c>
       <c r="N52">
-        <v>-20709958000</v>
+        <v>-21256710700</v>
       </c>
       <c r="O52">
         <v>-9475500</v>
       </c>
       <c r="P52">
-        <v>9754344000</v>
+        <v>-3660527700</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>22500</v>
       </c>
       <c r="E53">
-        <v>32727551000</v>
+        <v>31897182200</v>
       </c>
       <c r="F53">
-        <v>17901118000</v>
+        <v>16302618100</v>
       </c>
       <c r="G53">
         <v>126020000</v>
@@ -3028,13 +3028,13 @@
         <v>2846400</v>
       </c>
       <c r="I53">
-        <v>50754689000</v>
+        <v>48325820300</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-05T10:50:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2412827777000</v>
+        <v>2154123240500</v>
       </c>
       <c r="L53">
         <v>143455400</v>
@@ -3043,13 +3043,13 @@
         <v>-699300</v>
       </c>
       <c r="N53">
-        <v>-14826433000</v>
+        <v>-15594564100</v>
       </c>
       <c r="O53">
         <v>-10174800</v>
       </c>
       <c r="P53">
-        <v>-5072089000</v>
+        <v>-19255091800</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>7300</v>
       </c>
       <c r="E54">
-        <v>25196619000</v>
+        <v>24700615500</v>
       </c>
       <c r="F54">
-        <v>15960115000</v>
+        <v>15298377400</v>
       </c>
       <c r="G54">
-        <v>117856000</v>
+        <v>90283600</v>
       </c>
       <c r="H54">
         <v>2553400</v>
       </c>
       <c r="I54">
-        <v>41274590000</v>
+        <v>40089276500</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-05T10:52:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2454102367000</v>
+        <v>2194212517000</v>
       </c>
       <c r="L54">
         <v>146008800</v>
@@ -3093,13 +3093,13 @@
         <v>-561700</v>
       </c>
       <c r="N54">
-        <v>-9236504000</v>
+        <v>-9402238100</v>
       </c>
       <c r="O54">
         <v>-10736500</v>
       </c>
       <c r="P54">
-        <v>-14308593000</v>
+        <v>-28657329900</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>14500</v>
       </c>
       <c r="E55">
-        <v>29673934000</v>
+        <v>29144364100</v>
       </c>
       <c r="F55">
-        <v>22582798000</v>
+        <v>20899483000</v>
       </c>
       <c r="G55">
         <v>408411000</v>
@@ -3128,13 +3128,13 @@
         <v>3188800</v>
       </c>
       <c r="I55">
-        <v>52665143000</v>
+        <v>50452258100</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-05T10:54:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2506767510000</v>
+        <v>2244664775100</v>
       </c>
       <c r="L55">
         <v>149197600</v>
@@ -3143,13 +3143,13 @@
         <v>-488900</v>
       </c>
       <c r="N55">
-        <v>-7091136000</v>
+        <v>-8244881100</v>
       </c>
       <c r="O55">
         <v>-11225400</v>
       </c>
       <c r="P55">
-        <v>-21399729000</v>
+        <v>-36902211000</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>27900</v>
       </c>
       <c r="E56">
-        <v>14283152000</v>
+        <v>13183452800</v>
       </c>
       <c r="F56">
-        <v>35853369000</v>
+        <v>33427297500</v>
       </c>
       <c r="G56">
         <v>566180000</v>
@@ -3178,13 +3178,13 @@
         <v>2601600</v>
       </c>
       <c r="I56">
-        <v>50702701000</v>
+        <v>47176930300</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-05T10:56:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2557470211000</v>
+        <v>2291841705400</v>
       </c>
       <c r="L56">
         <v>151799200</v>
@@ -3193,13 +3193,13 @@
         <v>1016300</v>
       </c>
       <c r="N56">
-        <v>21570217000</v>
+        <v>20243844700</v>
       </c>
       <c r="O56">
         <v>-10209100</v>
       </c>
       <c r="P56">
-        <v>170488000</v>
+        <v>-16658366300</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>2400</v>
       </c>
       <c r="E57">
-        <v>14349226000</v>
+        <v>14007967600</v>
       </c>
       <c r="F57">
-        <v>32086175000</v>
+        <v>30659203400</v>
       </c>
       <c r="G57">
         <v>61140000</v>
@@ -3228,13 +3228,13 @@
         <v>2718000</v>
       </c>
       <c r="I57">
-        <v>46496541000</v>
+        <v>44728311000</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-05T10:58:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2603966752000</v>
+        <v>2336570016400</v>
       </c>
       <c r="L57">
         <v>154517200</v>
@@ -3243,13 +3243,13 @@
         <v>1017600</v>
       </c>
       <c r="N57">
-        <v>17736949000</v>
+        <v>16651235800</v>
       </c>
       <c r="O57">
         <v>-9191500</v>
       </c>
       <c r="P57">
-        <v>17907437000</v>
+        <v>-7130500</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>15000</v>
       </c>
       <c r="E58">
-        <v>8604283000</v>
+        <v>8344343200</v>
       </c>
       <c r="F58">
-        <v>26790889000</v>
+        <v>25663317700</v>
       </c>
       <c r="G58">
         <v>373945000</v>
@@ -3278,13 +3278,13 @@
         <v>1722600</v>
       </c>
       <c r="I58">
-        <v>35769117000</v>
+        <v>34381605900</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-05T11:00:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2639735869000</v>
+        <v>2370951622300</v>
       </c>
       <c r="L58">
         <v>156239800</v>
@@ -3293,13 +3293,13 @@
         <v>788200</v>
       </c>
       <c r="N58">
-        <v>18186606000</v>
+        <v>17318974500</v>
       </c>
       <c r="O58">
         <v>-8403300</v>
       </c>
       <c r="P58">
-        <v>36094043000</v>
+        <v>17311844000</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>43000</v>
       </c>
       <c r="E59">
-        <v>11141663000</v>
+        <v>10832372600</v>
       </c>
       <c r="F59">
-        <v>19890982000</v>
+        <v>17404471000</v>
       </c>
       <c r="G59">
         <v>475992000</v>
@@ -3328,13 +3328,13 @@
         <v>1568000</v>
       </c>
       <c r="I59">
-        <v>31508637000</v>
+        <v>28712835600</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-05T11:02:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2671244506000</v>
+        <v>2399664457900</v>
       </c>
       <c r="L59">
         <v>157807800</v>
@@ -3343,13 +3343,13 @@
         <v>355000</v>
       </c>
       <c r="N59">
-        <v>8749319000</v>
+        <v>6572098400</v>
       </c>
       <c r="O59">
         <v>-8048300</v>
       </c>
       <c r="P59">
-        <v>44843362000</v>
+        <v>23883942400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>47200</v>
       </c>
       <c r="E60">
-        <v>15645959000</v>
+        <v>15068037500</v>
       </c>
       <c r="F60">
-        <v>19765920000</v>
+        <v>17823264600</v>
       </c>
       <c r="G60">
         <v>434491000</v>
@@ -3378,13 +3378,13 @@
         <v>2055400</v>
       </c>
       <c r="I60">
-        <v>35846370000</v>
+        <v>33325793100</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-05T11:04:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2707090876000</v>
+        <v>2432990251000</v>
       </c>
       <c r="L60">
         <v>159863200</v>
@@ -3393,13 +3393,13 @@
         <v>269800</v>
       </c>
       <c r="N60">
-        <v>4119961000</v>
+        <v>2755227100</v>
       </c>
       <c r="O60">
         <v>-7778500</v>
       </c>
       <c r="P60">
-        <v>48963323000</v>
+        <v>26639169500</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>12600</v>
       </c>
       <c r="E61">
-        <v>20287404000</v>
+        <v>18846246600</v>
       </c>
       <c r="F61">
-        <v>16150523000</v>
+        <v>14068806800</v>
       </c>
       <c r="G61">
         <v>302613000</v>
@@ -3428,13 +3428,13 @@
         <v>1877600</v>
       </c>
       <c r="I61">
-        <v>36740540000</v>
+        <v>33217666400</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-05T11:06:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2743831416000</v>
+        <v>2466207917400</v>
       </c>
       <c r="L61">
         <v>161740800</v>
@@ -3443,13 +3443,13 @@
         <v>-252800</v>
       </c>
       <c r="N61">
-        <v>-4136881000</v>
+        <v>-4777439800</v>
       </c>
       <c r="O61">
         <v>-8031300</v>
       </c>
       <c r="P61">
-        <v>44826442000</v>
+        <v>21861729700</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>5300</v>
       </c>
       <c r="E62">
-        <v>26290636000</v>
+        <v>25605621700</v>
       </c>
       <c r="F62">
-        <v>12969528000</v>
+        <v>11645952900</v>
       </c>
       <c r="G62">
         <v>44804000</v>
@@ -3478,13 +3478,13 @@
         <v>2531900</v>
       </c>
       <c r="I62">
-        <v>39304968000</v>
+        <v>37296378600</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-05T11:08:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2783136384000</v>
+        <v>2503504296000</v>
       </c>
       <c r="L62">
         <v>164272700</v>
@@ -3493,13 +3493,13 @@
         <v>-812000</v>
       </c>
       <c r="N62">
-        <v>-13321108000</v>
+        <v>-13959668800</v>
       </c>
       <c r="O62">
         <v>-8843300</v>
       </c>
       <c r="P62">
-        <v>31505334000</v>
+        <v>7902060900</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>700</v>
       </c>
       <c r="E63">
-        <v>19650023000</v>
+        <v>18653620400</v>
       </c>
       <c r="F63">
-        <v>12372287000</v>
+        <v>11899760000</v>
       </c>
       <c r="G63">
         <v>46046000</v>
@@ -3528,13 +3528,13 @@
         <v>1980200</v>
       </c>
       <c r="I63">
-        <v>32068356000</v>
+        <v>30599426400</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-05T11:10:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2815204740000</v>
+        <v>2534103722400</v>
       </c>
       <c r="L63">
         <v>166252900</v>
@@ -3543,13 +3543,13 @@
         <v>-478500</v>
       </c>
       <c r="N63">
-        <v>-7277736000</v>
+        <v>-6753860400</v>
       </c>
       <c r="O63">
         <v>-9321800</v>
       </c>
       <c r="P63">
-        <v>24227598000</v>
+        <v>1148200500</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>4100</v>
       </c>
       <c r="E64">
-        <v>18648352000</v>
+        <v>17912488600</v>
       </c>
       <c r="F64">
-        <v>14457784000</v>
+        <v>12973669600</v>
       </c>
       <c r="G64">
         <v>18851000</v>
@@ -3578,13 +3578,13 @@
         <v>1838400</v>
       </c>
       <c r="I64">
-        <v>33124987000</v>
+        <v>30905009200</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-05T11:12:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2848329727000</v>
+        <v>2565008731600</v>
       </c>
       <c r="L64">
         <v>168091300</v>
@@ -3593,13 +3593,13 @@
         <v>-365500</v>
       </c>
       <c r="N64">
-        <v>-4190568000</v>
+        <v>-4938819000</v>
       </c>
       <c r="O64">
         <v>-9687300</v>
       </c>
       <c r="P64">
-        <v>20037030000</v>
+        <v>-3790618500</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>3500</v>
       </c>
       <c r="E65">
-        <v>17261573000</v>
+        <v>16986248600</v>
       </c>
       <c r="F65">
-        <v>10860096000</v>
+        <v>9330926700</v>
       </c>
       <c r="G65">
         <v>79103000</v>
@@ -3628,13 +3628,13 @@
         <v>1575400</v>
       </c>
       <c r="I65">
-        <v>28200772000</v>
+        <v>26396278300</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-05T11:14:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2876530499000</v>
+        <v>2591405009900</v>
       </c>
       <c r="L65">
         <v>169666700</v>
@@ -3643,13 +3643,13 @@
         <v>-612900</v>
       </c>
       <c r="N65">
-        <v>-6401477000</v>
+        <v>-7655321900</v>
       </c>
       <c r="O65">
         <v>-10300200</v>
       </c>
       <c r="P65">
-        <v>13635553000</v>
+        <v>-11445940400</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>5800</v>
       </c>
       <c r="E66">
-        <v>21251387000</v>
+        <v>17592050000</v>
       </c>
       <c r="F66">
-        <v>13480745000</v>
+        <v>12366260600</v>
       </c>
       <c r="G66">
         <v>70588000</v>
@@ -3678,13 +3678,13 @@
         <v>1948900</v>
       </c>
       <c r="I66">
-        <v>34802720000</v>
+        <v>30028898600</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-05T11:16:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2911333219000</v>
+        <v>2621433908500</v>
       </c>
       <c r="L66">
         <v>171615600</v>
@@ -3693,13 +3693,13 @@
         <v>-801500</v>
       </c>
       <c r="N66">
-        <v>-7770642000</v>
+        <v>-5225789400</v>
       </c>
       <c r="O66">
         <v>-11101700</v>
       </c>
       <c r="P66">
-        <v>5864911000</v>
+        <v>-16671729800</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>1500</v>
       </c>
       <c r="E67">
-        <v>25176354000</v>
+        <v>22805826900</v>
       </c>
       <c r="F67">
-        <v>8795519000</v>
+        <v>7806808700</v>
       </c>
       <c r="G67">
         <v>18305000</v>
@@ -3728,13 +3728,13 @@
         <v>2015800</v>
       </c>
       <c r="I67">
-        <v>33990178000</v>
+        <v>30630940600</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-05T11:18:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2945323397000</v>
+        <v>2652064849100</v>
       </c>
       <c r="L67">
         <v>173631400</v>
@@ -3743,13 +3743,13 @@
         <v>-1022900</v>
       </c>
       <c r="N67">
-        <v>-16380835000</v>
+        <v>-14999018200</v>
       </c>
       <c r="O67">
         <v>-12124600</v>
       </c>
       <c r="P67">
-        <v>-10515924000</v>
+        <v>-31670748000</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>11500</v>
       </c>
       <c r="E68">
-        <v>29932503000</v>
+        <v>26766072600</v>
       </c>
       <c r="F68">
-        <v>10156034000</v>
+        <v>9076914200</v>
       </c>
       <c r="G68">
         <v>102078000</v>
@@ -3778,13 +3778,13 @@
         <v>2427600</v>
       </c>
       <c r="I68">
-        <v>40190615000</v>
+        <v>35945064800</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-05T11:20:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2985514012000</v>
+        <v>2688009913900</v>
       </c>
       <c r="L68">
         <v>176059000</v>
@@ -3793,13 +3793,13 @@
         <v>-1471700</v>
       </c>
       <c r="N68">
-        <v>-19776469000</v>
+        <v>-17689158400</v>
       </c>
       <c r="O68">
         <v>-13596300</v>
       </c>
       <c r="P68">
-        <v>-30292393000</v>
+        <v>-49359906400</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>2600</v>
       </c>
       <c r="E69">
-        <v>22455414000</v>
+        <v>21560310000</v>
       </c>
       <c r="F69">
-        <v>11850263000</v>
+        <v>11509404200</v>
       </c>
       <c r="G69">
         <v>112298000</v>
@@ -3828,13 +3828,13 @@
         <v>1997600</v>
       </c>
       <c r="I69">
-        <v>34417975000</v>
+        <v>33182012200</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-05T11:22:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3019931987000</v>
+        <v>2721191926100</v>
       </c>
       <c r="L69">
         <v>178056600</v>
@@ -3843,13 +3843,13 @@
         <v>-772800</v>
       </c>
       <c r="N69">
-        <v>-10605151000</v>
+        <v>-10050905800</v>
       </c>
       <c r="O69">
         <v>-14369100</v>
       </c>
       <c r="P69">
-        <v>-40897544000</v>
+        <v>-59410812200</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>2500</v>
       </c>
       <c r="E70">
-        <v>16377665000</v>
+        <v>16286056700</v>
       </c>
       <c r="F70">
-        <v>13244181000</v>
+        <v>12476849100</v>
       </c>
       <c r="G70">
-        <v>89782000</v>
+        <v>77794000</v>
       </c>
       <c r="H70">
         <v>1602700</v>
       </c>
       <c r="I70">
-        <v>29711628000</v>
+        <v>28840699800</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-05T11:24:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3049643615000</v>
+        <v>2750032625900</v>
       </c>
       <c r="L70">
         <v>179659300</v>
@@ -3893,13 +3893,13 @@
         <v>-346000</v>
       </c>
       <c r="N70">
-        <v>-3133484000</v>
+        <v>-3809207600</v>
       </c>
       <c r="O70">
         <v>-14715100</v>
       </c>
       <c r="P70">
-        <v>-44031028000</v>
+        <v>-63220019800</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>5100</v>
       </c>
       <c r="E71">
-        <v>24088511000</v>
+        <v>23132468000</v>
       </c>
       <c r="F71">
-        <v>14753037000</v>
+        <v>14349141300</v>
       </c>
       <c r="G71">
         <v>34891000</v>
@@ -3928,13 +3928,13 @@
         <v>2175500</v>
       </c>
       <c r="I71">
-        <v>38876439000</v>
+        <v>37516500300</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-05T11:26:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3088520054000</v>
+        <v>2787549126200</v>
       </c>
       <c r="L71">
         <v>181834800</v>
@@ -3943,13 +3943,13 @@
         <v>-702400</v>
       </c>
       <c r="N71">
-        <v>-9335474000</v>
+        <v>-8783326700</v>
       </c>
       <c r="O71">
         <v>-15417500</v>
       </c>
       <c r="P71">
-        <v>-53366502000</v>
+        <v>-72003346500</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>6600</v>
       </c>
       <c r="E72">
-        <v>26781134000</v>
+        <v>25589027300</v>
       </c>
       <c r="F72">
-        <v>10525637000</v>
+        <v>10197565400</v>
       </c>
       <c r="G72">
-        <v>203800000</v>
+        <v>47556400</v>
       </c>
       <c r="H72">
         <v>2133500</v>
       </c>
       <c r="I72">
-        <v>37510571000</v>
+        <v>35834149100</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-05T11:28:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3126030625000</v>
+        <v>2823383275300</v>
       </c>
       <c r="L72">
         <v>183968300</v>
@@ -3993,13 +3993,13 @@
         <v>-877300</v>
       </c>
       <c r="N72">
-        <v>-16255497000</v>
+        <v>-15391461900</v>
       </c>
       <c r="O72">
         <v>-16294800</v>
       </c>
       <c r="P72">
-        <v>-69621999000</v>
+        <v>-87394808400</v>
       </c>
     </row>
     <row r="73">
@@ -4034,7 +4034,7 @@
         <v>2023-01-05T11:30:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3126408385000</v>
+        <v>2823761035300</v>
       </c>
       <c r="L73">
         <v>184002200</v>
@@ -4049,7 +4049,7 @@
         <v>-16326500</v>
       </c>
       <c r="P73">
-        <v>-69939025000</v>
+        <v>-87711834400</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>307200</v>
       </c>
       <c r="E74">
-        <v>92589752000</v>
+        <v>88679765900</v>
       </c>
       <c r="F74">
-        <v>41588421000</v>
+        <v>39251260500</v>
       </c>
       <c r="G74">
-        <v>4113204000</v>
+        <v>4077240000</v>
       </c>
       <c r="H74">
         <v>8622800</v>
       </c>
       <c r="I74">
-        <v>138291377000</v>
+        <v>132008266400</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-05T13:00:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3264699762000</v>
+        <v>2955769301700</v>
       </c>
       <c r="L74">
         <v>192625000</v>
@@ -4093,13 +4093,13 @@
         <v>-3486200</v>
       </c>
       <c r="N74">
-        <v>-51001331000</v>
+        <v>-49428505400</v>
       </c>
       <c r="O74">
         <v>-19812700</v>
       </c>
       <c r="P74">
-        <v>-120940356000</v>
+        <v>-137140339800</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>4100</v>
       </c>
       <c r="E75">
-        <v>30560647000</v>
+        <v>29632875700</v>
       </c>
       <c r="F75">
-        <v>41426661000</v>
+        <v>39034655400</v>
       </c>
       <c r="G75">
         <v>83700000</v>
@@ -4128,13 +4128,13 @@
         <v>4273500</v>
       </c>
       <c r="I75">
-        <v>72071008000</v>
+        <v>68751231100</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-05T13:02:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3336770770000</v>
+        <v>3024520532800</v>
       </c>
       <c r="L75">
         <v>196898500</v>
@@ -4143,13 +4143,13 @@
         <v>752800</v>
       </c>
       <c r="N75">
-        <v>10866014000</v>
+        <v>9401779700</v>
       </c>
       <c r="O75">
         <v>-19059900</v>
       </c>
       <c r="P75">
-        <v>-110074342000</v>
+        <v>-127738560100</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>19800</v>
       </c>
       <c r="E76">
-        <v>33371268000</v>
+        <v>31130111400</v>
       </c>
       <c r="F76">
-        <v>35207373000</v>
+        <v>33387095100</v>
       </c>
       <c r="G76">
         <v>558887000</v>
@@ -4178,13 +4178,13 @@
         <v>3713500</v>
       </c>
       <c r="I76">
-        <v>69137528000</v>
+        <v>65076093500</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-05T13:04:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3405908298000</v>
+        <v>3089596626300</v>
       </c>
       <c r="L76">
         <v>200612000</v>
@@ -4193,13 +4193,13 @@
         <v>-191100</v>
       </c>
       <c r="N76">
-        <v>1836105000</v>
+        <v>2256983700</v>
       </c>
       <c r="O76">
         <v>-19251000</v>
       </c>
       <c r="P76">
-        <v>-108238237000</v>
+        <v>-125481576400</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>23700</v>
       </c>
       <c r="E77">
-        <v>18421716000</v>
+        <v>17513425200</v>
       </c>
       <c r="F77">
-        <v>53193033000</v>
+        <v>51146481600</v>
       </c>
       <c r="G77">
-        <v>301257000</v>
+        <v>260797500</v>
       </c>
       <c r="H77">
         <v>4305300</v>
       </c>
       <c r="I77">
-        <v>71916006000</v>
+        <v>68920704300</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-05T13:06:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3477824304000</v>
+        <v>3158517330600</v>
       </c>
       <c r="L77">
         <v>204917300</v>
@@ -4243,13 +4243,13 @@
         <v>1706400</v>
       </c>
       <c r="N77">
-        <v>34771317000</v>
+        <v>33633056400</v>
       </c>
       <c r="O77">
         <v>-17544600</v>
       </c>
       <c r="P77">
-        <v>-73466920000</v>
+        <v>-91848520000</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>39100</v>
       </c>
       <c r="E78">
-        <v>22514280000</v>
+        <v>22262332200</v>
       </c>
       <c r="F78">
-        <v>44772000000</v>
+        <v>42517356900</v>
       </c>
       <c r="G78">
         <v>680903000</v>
@@ -4278,13 +4278,13 @@
         <v>4513700</v>
       </c>
       <c r="I78">
-        <v>67967183000</v>
+        <v>65460592100</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-05T13:08:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3545791487000</v>
+        <v>3223977922700</v>
       </c>
       <c r="L78">
         <v>209431000</v>
@@ -4293,13 +4293,13 @@
         <v>1700200</v>
       </c>
       <c r="N78">
-        <v>22257720000</v>
+        <v>20255024700</v>
       </c>
       <c r="O78">
         <v>-15844400</v>
       </c>
       <c r="P78">
-        <v>-51209200000</v>
+        <v>-71593495300</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>18500</v>
       </c>
       <c r="E79">
-        <v>18298370000</v>
+        <v>17745623300</v>
       </c>
       <c r="F79">
-        <v>38663199000</v>
+        <v>37512151200</v>
       </c>
       <c r="G79">
         <v>241943000</v>
@@ -4328,13 +4328,13 @@
         <v>3565900</v>
       </c>
       <c r="I79">
-        <v>57203512000</v>
+        <v>55499717500</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-05T13:10:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3602994999000</v>
+        <v>3279477640200</v>
       </c>
       <c r="L79">
         <v>212996900</v>
@@ -4343,13 +4343,13 @@
         <v>1487200</v>
       </c>
       <c r="N79">
-        <v>20364829000</v>
+        <v>19766527900</v>
       </c>
       <c r="O79">
         <v>-14357200</v>
       </c>
       <c r="P79">
-        <v>-30844371000</v>
+        <v>-51826967400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>10900</v>
       </c>
       <c r="E80">
-        <v>20567786000</v>
+        <v>19136119100</v>
       </c>
       <c r="F80">
-        <v>39702040000</v>
+        <v>36568676500</v>
       </c>
       <c r="G80">
         <v>56705000</v>
@@ -4378,13 +4378,13 @@
         <v>3701300</v>
       </c>
       <c r="I80">
-        <v>60326531000</v>
+        <v>55761500600</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-05T13:12:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3663321530000</v>
+        <v>3335239140800</v>
       </c>
       <c r="L80">
         <v>216698200</v>
@@ -4393,13 +4393,13 @@
         <v>1418800</v>
       </c>
       <c r="N80">
-        <v>19134254000</v>
+        <v>17432557400</v>
       </c>
       <c r="O80">
         <v>-12938400</v>
       </c>
       <c r="P80">
-        <v>-11710117000</v>
+        <v>-34394410000</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>5800</v>
       </c>
       <c r="E81">
-        <v>26316495000</v>
+        <v>25538773500</v>
       </c>
       <c r="F81">
-        <v>33276647000</v>
+        <v>29574952400</v>
       </c>
       <c r="G81">
         <v>114259000</v>
@@ -4428,13 +4428,13 @@
         <v>3443200</v>
       </c>
       <c r="I81">
-        <v>59707401000</v>
+        <v>55227984900</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-05T13:14:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3723028931000</v>
+        <v>3390467125700</v>
       </c>
       <c r="L81">
         <v>220141400</v>
@@ -4443,13 +4443,13 @@
         <v>57000</v>
       </c>
       <c r="N81">
-        <v>6960152000</v>
+        <v>4036178900</v>
       </c>
       <c r="O81">
         <v>-12881400</v>
       </c>
       <c r="P81">
-        <v>-4749965000</v>
+        <v>-30358231100</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>8600</v>
       </c>
       <c r="E82">
-        <v>38671452000</v>
+        <v>37673351100</v>
       </c>
       <c r="F82">
-        <v>24081220000</v>
+        <v>20537667100</v>
       </c>
       <c r="G82">
-        <v>113546000</v>
+        <v>89570000</v>
       </c>
       <c r="H82">
         <v>3540500</v>
       </c>
       <c r="I82">
-        <v>62866218000</v>
+        <v>58300588200</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-05T13:16:00.000Z</v>
       </c>
       <c r="K82">
-        <v>3785895149000</v>
+        <v>3448767713900</v>
       </c>
       <c r="L82">
         <v>223681900</v>
@@ -4493,13 +4493,13 @@
         <v>-737700</v>
       </c>
       <c r="N82">
-        <v>-14590232000</v>
+        <v>-17135684000</v>
       </c>
       <c r="O82">
         <v>-13619100</v>
       </c>
       <c r="P82">
-        <v>-19340197000</v>
+        <v>-47493915100</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>2600</v>
       </c>
       <c r="E83">
-        <v>30098216000</v>
+        <v>27358358600</v>
       </c>
       <c r="F83">
-        <v>19093384000</v>
+        <v>18701476300</v>
       </c>
       <c r="G83">
         <v>57882000</v>
@@ -4528,13 +4528,13 @@
         <v>2913900</v>
       </c>
       <c r="I83">
-        <v>49249482000</v>
+        <v>46117716900</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-05T13:18:00.000Z</v>
       </c>
       <c r="K83">
-        <v>3835144631000</v>
+        <v>3494885430800</v>
       </c>
       <c r="L83">
         <v>226595800</v>
@@ -4543,13 +4543,13 @@
         <v>-708300</v>
       </c>
       <c r="N83">
-        <v>-11004832000</v>
+        <v>-8656882300</v>
       </c>
       <c r="O83">
         <v>-14327400</v>
       </c>
       <c r="P83">
-        <v>-30345029000</v>
+        <v>-56150797400</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>16400</v>
       </c>
       <c r="E84">
-        <v>26641131000</v>
+        <v>24935838000</v>
       </c>
       <c r="F84">
-        <v>23690968000</v>
+        <v>23200359100</v>
       </c>
       <c r="G84">
         <v>547237000</v>
@@ -4578,13 +4578,13 @@
         <v>2997500</v>
       </c>
       <c r="I84">
-        <v>50879336000</v>
+        <v>48683434100</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-05T13:20:00.000Z</v>
       </c>
       <c r="K84">
-        <v>3886023967000</v>
+        <v>3543568864900</v>
       </c>
       <c r="L84">
         <v>229593300</v>
@@ -4593,13 +4593,13 @@
         <v>-375500</v>
       </c>
       <c r="N84">
-        <v>-2950163000</v>
+        <v>-1735478900</v>
       </c>
       <c r="O84">
         <v>-14702900</v>
       </c>
       <c r="P84">
-        <v>-33295192000</v>
+        <v>-57886276300</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>25500</v>
       </c>
       <c r="E85">
-        <v>23611606000</v>
+        <v>21889429900</v>
       </c>
       <c r="F85">
-        <v>36467245000</v>
+        <v>36186126400</v>
       </c>
       <c r="G85">
-        <v>460829000</v>
+        <v>459030800</v>
       </c>
       <c r="H85">
         <v>3642000</v>
       </c>
       <c r="I85">
-        <v>60539680000</v>
+        <v>58534587100</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-05T13:22:00.000Z</v>
       </c>
       <c r="K85">
-        <v>3946563647000</v>
+        <v>3602103452000</v>
       </c>
       <c r="L85">
         <v>233235300</v>
@@ -4643,13 +4643,13 @@
         <v>546700</v>
       </c>
       <c r="N85">
-        <v>12855639000</v>
+        <v>14296696500</v>
       </c>
       <c r="O85">
         <v>-14156200</v>
       </c>
       <c r="P85">
-        <v>-20439553000</v>
+        <v>-43589579800</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>3800</v>
       </c>
       <c r="E86">
-        <v>18498534000</v>
+        <v>17738694600</v>
       </c>
       <c r="F86">
-        <v>33586584000</v>
+        <v>33238132800</v>
       </c>
       <c r="G86">
         <v>85074000</v>
@@ -4678,13 +4678,13 @@
         <v>3040200</v>
       </c>
       <c r="I86">
-        <v>52170192000</v>
+        <v>51061901400</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-05T13:24:00.000Z</v>
       </c>
       <c r="K86">
-        <v>3998733839000</v>
+        <v>3653165353400</v>
       </c>
       <c r="L86">
         <v>236275500</v>
@@ -4693,13 +4693,13 @@
         <v>697600</v>
       </c>
       <c r="N86">
-        <v>15088050000</v>
+        <v>15499438200</v>
       </c>
       <c r="O86">
         <v>-13458600</v>
       </c>
       <c r="P86">
-        <v>-5351503000</v>
+        <v>-28090141600</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>17800</v>
       </c>
       <c r="E87">
-        <v>25634311000</v>
+        <v>24884561500</v>
       </c>
       <c r="F87">
-        <v>58291271000</v>
+        <v>55537028000</v>
       </c>
       <c r="G87">
         <v>250187000</v>
@@ -4728,13 +4728,13 @@
         <v>5481600</v>
       </c>
       <c r="I87">
-        <v>84175769000</v>
+        <v>80671776500</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-05T13:26:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4082909608000</v>
+        <v>3733837129900</v>
       </c>
       <c r="L87">
         <v>241757100</v>
@@ -4743,13 +4743,13 @@
         <v>2131800</v>
       </c>
       <c r="N87">
-        <v>32656960000</v>
+        <v>30652466500</v>
       </c>
       <c r="O87">
         <v>-11326800</v>
       </c>
       <c r="P87">
-        <v>27305457000</v>
+        <v>2562324900</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>29200</v>
       </c>
       <c r="E88">
-        <v>29970184000</v>
+        <v>27083173900</v>
       </c>
       <c r="F88">
-        <v>123883783000</v>
+        <v>108231550900</v>
       </c>
       <c r="G88">
         <v>718847000</v>
@@ -4778,13 +4778,13 @@
         <v>9588200</v>
       </c>
       <c r="I88">
-        <v>154572814000</v>
+        <v>136033571800</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-05T13:28:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4237482422000</v>
+        <v>3869870701700</v>
       </c>
       <c r="L88">
         <v>251345300</v>
@@ -4793,13 +4793,13 @@
         <v>5199000</v>
       </c>
       <c r="N88">
-        <v>93913599000</v>
+        <v>81148377000</v>
       </c>
       <c r="O88">
         <v>-6127800</v>
       </c>
       <c r="P88">
-        <v>121219056000</v>
+        <v>83710701900</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>26300</v>
       </c>
       <c r="E89">
-        <v>29548794000</v>
+        <v>26438207700</v>
       </c>
       <c r="F89">
-        <v>79944897000</v>
+        <v>67388066400</v>
       </c>
       <c r="G89">
         <v>439644000</v>
@@ -4828,13 +4828,13 @@
         <v>6888700</v>
       </c>
       <c r="I89">
-        <v>109933335000</v>
+        <v>94265918100</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-05T13:30:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4347415757000</v>
+        <v>3964136619800</v>
       </c>
       <c r="L89">
         <v>258234000</v>
@@ -4843,13 +4843,13 @@
         <v>2936800</v>
       </c>
       <c r="N89">
-        <v>50396103000</v>
+        <v>40949858700</v>
       </c>
       <c r="O89">
         <v>-3191000</v>
       </c>
       <c r="P89">
-        <v>171615159000</v>
+        <v>124660560600</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>55600</v>
       </c>
       <c r="E90">
-        <v>39315161000</v>
+        <v>37621756100</v>
       </c>
       <c r="F90">
-        <v>49807376000</v>
+        <v>46719467000</v>
       </c>
       <c r="G90">
         <v>713232000</v>
@@ -4878,13 +4878,13 @@
         <v>6163400</v>
       </c>
       <c r="I90">
-        <v>89835769000</v>
+        <v>85054455100</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-05T13:32:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4437251526000</v>
+        <v>4049191074900</v>
       </c>
       <c r="L90">
         <v>264397400</v>
@@ -4893,13 +4893,13 @@
         <v>655600</v>
       </c>
       <c r="N90">
-        <v>10492215000</v>
+        <v>9097710900</v>
       </c>
       <c r="O90">
         <v>-2535400</v>
       </c>
       <c r="P90">
-        <v>182107374000</v>
+        <v>133758271500</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>10000</v>
       </c>
       <c r="E91">
-        <v>46333564000</v>
+        <v>44343855700</v>
       </c>
       <c r="F91">
-        <v>19883431000</v>
+        <v>18198317800</v>
       </c>
       <c r="G91">
         <v>102214000</v>
@@ -4928,13 +4928,13 @@
         <v>4055700</v>
       </c>
       <c r="I91">
-        <v>66319209000</v>
+        <v>62644387500</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-05T13:34:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4503570735000</v>
+        <v>4111835462400</v>
       </c>
       <c r="L91">
         <v>268453100</v>
@@ -4943,13 +4943,13 @@
         <v>-1836700</v>
       </c>
       <c r="N91">
-        <v>-26450133000</v>
+        <v>-26145537900</v>
       </c>
       <c r="O91">
         <v>-4372100</v>
       </c>
       <c r="P91">
-        <v>155657241000</v>
+        <v>107612733600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>5500</v>
       </c>
       <c r="E92">
-        <v>29062032000</v>
+        <v>25786710600</v>
       </c>
       <c r="F92">
-        <v>29559900000</v>
+        <v>28967792700</v>
       </c>
       <c r="G92">
         <v>57762000</v>
@@ -4978,13 +4978,13 @@
         <v>3903500</v>
       </c>
       <c r="I92">
-        <v>58679694000</v>
+        <v>54812265300</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-05T13:36:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4562250429000</v>
+        <v>4166647727700</v>
       </c>
       <c r="L92">
         <v>272356600</v>
@@ -4993,13 +4993,13 @@
         <v>-177600</v>
       </c>
       <c r="N92">
-        <v>497868000</v>
+        <v>3181082100</v>
       </c>
       <c r="O92">
         <v>-4549700</v>
       </c>
       <c r="P92">
-        <v>156155109000</v>
+        <v>110793815700</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>8300</v>
       </c>
       <c r="E93">
-        <v>28336292000</v>
+        <v>26727302600</v>
       </c>
       <c r="F93">
-        <v>37726264000</v>
+        <v>35530761700</v>
       </c>
       <c r="G93">
         <v>174520000</v>
@@ -5028,13 +5028,13 @@
         <v>4076700</v>
       </c>
       <c r="I93">
-        <v>66237076000</v>
+        <v>62432584300</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-05T13:38:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4628487505000</v>
+        <v>4229080312000</v>
       </c>
       <c r="L93">
         <v>276433300</v>
@@ -5043,13 +5043,13 @@
         <v>262400</v>
       </c>
       <c r="N93">
-        <v>9389972000</v>
+        <v>8803459100</v>
       </c>
       <c r="O93">
         <v>-4287300</v>
       </c>
       <c r="P93">
-        <v>165545081000</v>
+        <v>119597274800</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>12800</v>
       </c>
       <c r="E94">
-        <v>19694477000</v>
+        <v>19489282400</v>
       </c>
       <c r="F94">
-        <v>38329887000</v>
+        <v>36610008600</v>
       </c>
       <c r="G94">
         <v>133194000</v>
@@ -5078,13 +5078,13 @@
         <v>3566100</v>
       </c>
       <c r="I94">
-        <v>58157558000</v>
+        <v>56232485000</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-05T13:40:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4686645063000</v>
+        <v>4285312797000</v>
       </c>
       <c r="L94">
         <v>279999400</v>
@@ -5093,13 +5093,13 @@
         <v>1044500</v>
       </c>
       <c r="N94">
-        <v>18635410000</v>
+        <v>17120726200</v>
       </c>
       <c r="O94">
         <v>-3242800</v>
       </c>
       <c r="P94">
-        <v>184180491000</v>
+        <v>136718001000</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>44500</v>
       </c>
       <c r="E95">
-        <v>21935496000</v>
+        <v>19431902100</v>
       </c>
       <c r="F95">
-        <v>50673619000</v>
+        <v>48416678200</v>
       </c>
       <c r="G95">
         <v>1055386000</v>
@@ -5128,13 +5128,13 @@
         <v>4537100</v>
       </c>
       <c r="I95">
-        <v>73664501000</v>
+        <v>68903966300</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-05T13:42:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4760309564000</v>
+        <v>4354216763300</v>
       </c>
       <c r="L95">
         <v>284536500</v>
@@ -5143,13 +5143,13 @@
         <v>1333000</v>
       </c>
       <c r="N95">
-        <v>28738123000</v>
+        <v>28984776100</v>
       </c>
       <c r="O95">
         <v>-1909800</v>
       </c>
       <c r="P95">
-        <v>212918614000</v>
+        <v>165702777100</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>15900</v>
       </c>
       <c r="E96">
-        <v>21397406000</v>
+        <v>20174030600</v>
       </c>
       <c r="F96">
-        <v>85802469000</v>
+        <v>80306070900</v>
       </c>
       <c r="G96">
-        <v>301739000</v>
+        <v>51789200</v>
       </c>
       <c r="H96">
         <v>6390200</v>
       </c>
       <c r="I96">
-        <v>107501614000</v>
+        <v>100531890700</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-05T13:44:00.000Z</v>
       </c>
       <c r="K96">
-        <v>4867811178000</v>
+        <v>4454748654000</v>
       </c>
       <c r="L96">
         <v>290926700</v>
@@ -5193,13 +5193,13 @@
         <v>3829900</v>
       </c>
       <c r="N96">
-        <v>64405063000</v>
+        <v>60132040300</v>
       </c>
       <c r="O96">
         <v>1920100</v>
       </c>
       <c r="P96">
-        <v>277323677000</v>
+        <v>225834817400</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>13600</v>
       </c>
       <c r="E97">
-        <v>34656450000</v>
+        <v>23625791700</v>
       </c>
       <c r="F97">
-        <v>159840204000</v>
+        <v>114010179900</v>
       </c>
       <c r="G97">
         <v>217013000</v>
@@ -5228,13 +5228,13 @@
         <v>11388800</v>
       </c>
       <c r="I97">
-        <v>194713667000</v>
+        <v>137852984600</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-05T13:46:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5062524845000</v>
+        <v>4592601638600</v>
       </c>
       <c r="L97">
         <v>302315500</v>
@@ -5243,13 +5243,13 @@
         <v>7152000</v>
       </c>
       <c r="N97">
-        <v>125183754000</v>
+        <v>90384388200</v>
       </c>
       <c r="O97">
         <v>9072100</v>
       </c>
       <c r="P97">
-        <v>402507431000</v>
+        <v>316219205600</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>33800</v>
       </c>
       <c r="E98">
-        <v>40795098000</v>
+        <v>38366429100</v>
       </c>
       <c r="F98">
-        <v>120743413000</v>
+        <v>114415347400</v>
       </c>
       <c r="G98">
         <v>631792000</v>
@@ -5278,13 +5278,13 @@
         <v>10113600</v>
       </c>
       <c r="I98">
-        <v>162170303000</v>
+        <v>153413568500</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-05T13:48:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5224695148000</v>
+        <v>4746015207100</v>
       </c>
       <c r="L98">
         <v>312429100</v>
@@ -5293,13 +5293,13 @@
         <v>4468000</v>
       </c>
       <c r="N98">
-        <v>79948315000</v>
+        <v>76048918300</v>
       </c>
       <c r="O98">
         <v>13540100</v>
       </c>
       <c r="P98">
-        <v>482455746000</v>
+        <v>392268123900</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>39700</v>
       </c>
       <c r="E99">
-        <v>40842003000</v>
+        <v>39055291500</v>
       </c>
       <c r="F99">
-        <v>87048089000</v>
+        <v>83710629800</v>
       </c>
       <c r="G99">
         <v>667911000</v>
@@ -5328,13 +5328,13 @@
         <v>7965600</v>
       </c>
       <c r="I99">
-        <v>128558003000</v>
+        <v>123433832300</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-05T13:50:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5353253151000</v>
+        <v>4869449039400</v>
       </c>
       <c r="L99">
         <v>320394700</v>
@@ -5343,13 +5343,13 @@
         <v>2753300</v>
       </c>
       <c r="N99">
-        <v>46206086000</v>
+        <v>44655338300</v>
       </c>
       <c r="O99">
         <v>16293400</v>
       </c>
       <c r="P99">
-        <v>528661832000</v>
+        <v>436923462200</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>38100</v>
       </c>
       <c r="E100">
-        <v>54549073000</v>
+        <v>48247880500</v>
       </c>
       <c r="F100">
-        <v>67514228000</v>
+        <v>60226423100</v>
       </c>
       <c r="G100">
-        <v>509753000</v>
+        <v>500162600</v>
       </c>
       <c r="H100">
         <v>7338900</v>
       </c>
       <c r="I100">
-        <v>122573054000</v>
+        <v>108974466200</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-05T13:52:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5475826205000</v>
+        <v>4978423505600</v>
       </c>
       <c r="L100">
         <v>327733600</v>
@@ -5393,13 +5393,13 @@
         <v>217000</v>
       </c>
       <c r="N100">
-        <v>12965155000</v>
+        <v>11978542600</v>
       </c>
       <c r="O100">
         <v>16510400</v>
       </c>
       <c r="P100">
-        <v>541626987000</v>
+        <v>448902004800</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>18600</v>
       </c>
       <c r="E101">
-        <v>49363633000</v>
+        <v>47200798000</v>
       </c>
       <c r="F101">
-        <v>61933931000</v>
+        <v>55890680300</v>
       </c>
       <c r="G101">
-        <v>276338000</v>
+        <v>268046300</v>
       </c>
       <c r="H101">
         <v>6383800</v>
       </c>
       <c r="I101">
-        <v>111573902000</v>
+        <v>103359524600</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-05T13:54:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5587400107000</v>
+        <v>5081783030200</v>
       </c>
       <c r="L101">
         <v>334117400</v>
@@ -5443,13 +5443,13 @@
         <v>187600</v>
       </c>
       <c r="N101">
-        <v>12570298000</v>
+        <v>8689882300</v>
       </c>
       <c r="O101">
         <v>16698000</v>
       </c>
       <c r="P101">
-        <v>554197285000</v>
+        <v>457591887100</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>45400</v>
       </c>
       <c r="E102">
-        <v>41560237000</v>
+        <v>37593707500</v>
       </c>
       <c r="F102">
-        <v>39777858000</v>
+        <v>36082557000</v>
       </c>
       <c r="G102">
         <v>627400000</v>
@@ -5478,13 +5478,13 @@
         <v>4928100</v>
       </c>
       <c r="I102">
-        <v>81965495000</v>
+        <v>74303664500</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-05T13:56:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5669365602000</v>
+        <v>5156086694700</v>
       </c>
       <c r="L102">
         <v>339045500</v>
@@ -5493,13 +5493,13 @@
         <v>-531300</v>
       </c>
       <c r="N102">
-        <v>-1782379000</v>
+        <v>-1511150500</v>
       </c>
       <c r="O102">
         <v>16166700</v>
       </c>
       <c r="P102">
-        <v>552414906000</v>
+        <v>456080736600</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>58200</v>
       </c>
       <c r="E103">
-        <v>49578434000</v>
+        <v>38698325000</v>
       </c>
       <c r="F103">
-        <v>37388864000</v>
+        <v>27665497100</v>
       </c>
       <c r="G103">
         <v>847744000</v>
@@ -5528,13 +5528,13 @@
         <v>4424900</v>
       </c>
       <c r="I103">
-        <v>87815042000</v>
+        <v>67211566100</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-05T13:58:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5757180644000</v>
+        <v>5223298260800</v>
       </c>
       <c r="L103">
         <v>343470400</v>
@@ -5543,13 +5543,13 @@
         <v>-1107700</v>
       </c>
       <c r="N103">
-        <v>-12189570000</v>
+        <v>-11032827900</v>
       </c>
       <c r="O103">
         <v>15059000</v>
       </c>
       <c r="P103">
-        <v>540225336000</v>
+        <v>445047908700</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>18500</v>
       </c>
       <c r="E104">
-        <v>42365789000</v>
+        <v>39941016200</v>
       </c>
       <c r="F104">
-        <v>121779998000</v>
+        <v>115625658500</v>
       </c>
       <c r="G104">
         <v>683955000</v>
@@ -5578,13 +5578,13 @@
         <v>8594600</v>
       </c>
       <c r="I104">
-        <v>164829742000</v>
+        <v>156250629700</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-05T14:00:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5922010386000</v>
+        <v>5379548890500</v>
       </c>
       <c r="L104">
         <v>352065000</v>
@@ -5593,13 +5593,13 @@
         <v>3307100</v>
       </c>
       <c r="N104">
-        <v>79414209000</v>
+        <v>75684642300</v>
       </c>
       <c r="O104">
         <v>18366100</v>
       </c>
       <c r="P104">
-        <v>619639545000</v>
+        <v>520732551000</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>159200</v>
       </c>
       <c r="E105">
-        <v>26343154000</v>
+        <v>22199202100</v>
       </c>
       <c r="F105">
-        <v>187980607000</v>
+        <v>167529278800</v>
       </c>
       <c r="G105">
-        <v>1947372000</v>
+        <v>1936383000</v>
       </c>
       <c r="H105">
         <v>11371700</v>
       </c>
       <c r="I105">
-        <v>216271133000</v>
+        <v>191664863900</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-05T14:02:00.000Z</v>
       </c>
       <c r="K105">
-        <v>6138281519000</v>
+        <v>5571213754400</v>
       </c>
       <c r="L105">
         <v>363436700</v>
@@ -5643,13 +5643,13 @@
         <v>8417700</v>
       </c>
       <c r="N105">
-        <v>161637453000</v>
+        <v>145330076700</v>
       </c>
       <c r="O105">
         <v>26783800</v>
       </c>
       <c r="P105">
-        <v>781276998000</v>
+        <v>666062627700</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>116400</v>
       </c>
       <c r="E106">
-        <v>42624600000</v>
+        <v>37339090800</v>
       </c>
       <c r="F106">
-        <v>147983702000</v>
+        <v>109643480600</v>
       </c>
       <c r="G106">
         <v>2484156000</v>
@@ -5678,13 +5678,13 @@
         <v>10426900</v>
       </c>
       <c r="I106">
-        <v>193092458000</v>
+        <v>149466727400</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-05T14:04:00.000Z</v>
       </c>
       <c r="K106">
-        <v>6331373977000</v>
+        <v>5720680481800</v>
       </c>
       <c r="L106">
         <v>373863600</v>
@@ -5693,13 +5693,13 @@
         <v>5736100</v>
       </c>
       <c r="N106">
-        <v>105359102000</v>
+        <v>72304389800</v>
       </c>
       <c r="O106">
         <v>32519900</v>
       </c>
       <c r="P106">
-        <v>886636100000</v>
+        <v>738367017500</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>67300</v>
       </c>
       <c r="E107">
-        <v>56373768000</v>
+        <v>47997153000</v>
       </c>
       <c r="F107">
-        <v>79439322000</v>
+        <v>70767003000</v>
       </c>
       <c r="G107">
-        <v>1410752000</v>
+        <v>896267000</v>
       </c>
       <c r="H107">
         <v>7188700</v>
       </c>
       <c r="I107">
-        <v>137223842000</v>
+        <v>119660423000</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-05T14:06:00.000Z</v>
       </c>
       <c r="K107">
-        <v>6468597819000</v>
+        <v>5840340904800</v>
       </c>
       <c r="L107">
         <v>381052300</v>
@@ -5743,13 +5743,13 @@
         <v>1662000</v>
       </c>
       <c r="N107">
-        <v>23065554000</v>
+        <v>22769850000</v>
       </c>
       <c r="O107">
         <v>34181900</v>
       </c>
       <c r="P107">
-        <v>909701654000</v>
+        <v>761136867500</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>16500</v>
       </c>
       <c r="E108">
-        <v>70332364000</v>
+        <v>61728176800</v>
       </c>
       <c r="F108">
-        <v>46775956000</v>
+        <v>39820318600</v>
       </c>
       <c r="G108">
-        <v>383619000</v>
+        <v>220782000</v>
       </c>
       <c r="H108">
         <v>7218900</v>
       </c>
       <c r="I108">
-        <v>117491939000</v>
+        <v>101769277400</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-05T14:08:00.000Z</v>
       </c>
       <c r="K108">
-        <v>6586089758000</v>
+        <v>5942110182200</v>
       </c>
       <c r="L108">
         <v>388271200</v>
@@ -5793,13 +5793,13 @@
         <v>-1218600</v>
       </c>
       <c r="N108">
-        <v>-23556408000</v>
+        <v>-21907858200</v>
       </c>
       <c r="O108">
         <v>32963300</v>
       </c>
       <c r="P108">
-        <v>886145246000</v>
+        <v>739229009300</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>86500</v>
       </c>
       <c r="E109">
-        <v>50465357000</v>
+        <v>44907320600</v>
       </c>
       <c r="F109">
-        <v>47038542000</v>
+        <v>42301284000</v>
       </c>
       <c r="G109">
-        <v>1197675000</v>
+        <v>1131341400</v>
       </c>
       <c r="H109">
         <v>5654400</v>
       </c>
       <c r="I109">
-        <v>98701574000</v>
+        <v>88339946000</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-05T14:10:00.000Z</v>
       </c>
       <c r="K109">
-        <v>6684791332000</v>
+        <v>6030450128200</v>
       </c>
       <c r="L109">
         <v>393925600</v>
@@ -5843,13 +5843,13 @@
         <v>-310300</v>
       </c>
       <c r="N109">
-        <v>-3426815000</v>
+        <v>-2606036600</v>
       </c>
       <c r="O109">
         <v>32653000</v>
       </c>
       <c r="P109">
-        <v>882718431000</v>
+        <v>736622972700</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>15100</v>
       </c>
       <c r="E110">
-        <v>48323103000</v>
+        <v>43010820600</v>
       </c>
       <c r="F110">
-        <v>35268109000</v>
+        <v>31179202000</v>
       </c>
       <c r="G110">
-        <v>243672000</v>
+        <v>203811900</v>
       </c>
       <c r="H110">
         <v>4541000</v>
       </c>
       <c r="I110">
-        <v>83834884000</v>
+        <v>74393834500</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-05T14:12:00.000Z</v>
       </c>
       <c r="K110">
-        <v>6768626216000</v>
+        <v>6104843962700</v>
       </c>
       <c r="L110">
         <v>398466600</v>
@@ -5893,13 +5893,13 @@
         <v>-1008500</v>
       </c>
       <c r="N110">
-        <v>-13054994000</v>
+        <v>-11831618600</v>
       </c>
       <c r="O110">
         <v>31644500</v>
       </c>
       <c r="P110">
-        <v>869663437000</v>
+        <v>724791354100</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>14200</v>
       </c>
       <c r="E111">
-        <v>40861876000</v>
+        <v>37363677700</v>
       </c>
       <c r="F111">
-        <v>65209706000</v>
+        <v>58558663700</v>
       </c>
       <c r="G111">
         <v>299687000</v>
@@ -5928,13 +5928,13 @@
         <v>5197400</v>
       </c>
       <c r="I111">
-        <v>106371269000</v>
+        <v>96222028400</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-05T14:14:00.000Z</v>
       </c>
       <c r="K111">
-        <v>6874997485000</v>
+        <v>6201065991100</v>
       </c>
       <c r="L111">
         <v>403664000</v>
@@ -5943,13 +5943,13 @@
         <v>755000</v>
       </c>
       <c r="N111">
-        <v>24347830000</v>
+        <v>21194986000</v>
       </c>
       <c r="O111">
         <v>32399500</v>
       </c>
       <c r="P111">
-        <v>894011267000</v>
+        <v>745986340100</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>15400</v>
       </c>
       <c r="E112">
-        <v>37045285000</v>
+        <v>35082749500</v>
       </c>
       <c r="F112">
-        <v>53225664000</v>
+        <v>47757038100</v>
       </c>
       <c r="G112">
         <v>294110000</v>
@@ -5978,13 +5978,13 @@
         <v>5402000</v>
       </c>
       <c r="I112">
-        <v>90565059000</v>
+        <v>83133897600</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-05T14:16:00.000Z</v>
       </c>
       <c r="K112">
-        <v>6965562544000</v>
+        <v>6284199888700</v>
       </c>
       <c r="L112">
         <v>409066000</v>
@@ -5993,13 +5993,13 @@
         <v>1009800</v>
       </c>
       <c r="N112">
-        <v>16180379000</v>
+        <v>12674288600</v>
       </c>
       <c r="O112">
         <v>33409300</v>
       </c>
       <c r="P112">
-        <v>910191646000</v>
+        <v>758660628700</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>23700</v>
       </c>
       <c r="E113">
-        <v>38945975000</v>
+        <v>37731690500</v>
       </c>
       <c r="F113">
-        <v>41519277000</v>
+        <v>38832966000</v>
       </c>
       <c r="G113">
-        <v>404820000</v>
+        <v>193331700</v>
       </c>
       <c r="H113">
         <v>4496700</v>
       </c>
       <c r="I113">
-        <v>80870072000</v>
+        <v>76757988200</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-05T14:18:00.000Z</v>
       </c>
       <c r="K113">
-        <v>7046432616000</v>
+        <v>6360957876900</v>
       </c>
       <c r="L113">
         <v>413562700</v>
@@ -6043,13 +6043,13 @@
         <v>16800</v>
       </c>
       <c r="N113">
-        <v>2573302000</v>
+        <v>1101275500</v>
       </c>
       <c r="O113">
         <v>33426100</v>
       </c>
       <c r="P113">
-        <v>912764948000</v>
+        <v>759761904200</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>67400</v>
       </c>
       <c r="E114">
-        <v>37503124000</v>
+        <v>32225606800</v>
       </c>
       <c r="F114">
-        <v>41576652000</v>
+        <v>37111221900</v>
       </c>
       <c r="G114">
         <v>1331539000</v>
@@ -6078,13 +6078,13 @@
         <v>4428800</v>
       </c>
       <c r="I114">
-        <v>80411315000</v>
+        <v>70668367700</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-05T14:20:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7126843931000</v>
+        <v>6431626244600</v>
       </c>
       <c r="L114">
         <v>417991500</v>
@@ -6093,13 +6093,13 @@
         <v>-235800</v>
       </c>
       <c r="N114">
-        <v>4073528000</v>
+        <v>4885615100</v>
       </c>
       <c r="O114">
         <v>33190300</v>
       </c>
       <c r="P114">
-        <v>916838476000</v>
+        <v>764647519300</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>8600</v>
       </c>
       <c r="E115">
-        <v>52863843000</v>
+        <v>46769443500</v>
       </c>
       <c r="F115">
-        <v>30864088000</v>
+        <v>28881572500</v>
       </c>
       <c r="G115">
-        <v>131240000</v>
+        <v>97973300</v>
       </c>
       <c r="H115">
         <v>4789600</v>
       </c>
       <c r="I115">
-        <v>83859171000</v>
+        <v>75748989300</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-05T14:22:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7210703102000</v>
+        <v>6507375233900</v>
       </c>
       <c r="L115">
         <v>422781100</v>
@@ -6143,13 +6143,13 @@
         <v>-1288200</v>
       </c>
       <c r="N115">
-        <v>-21999755000</v>
+        <v>-17887871000</v>
       </c>
       <c r="O115">
         <v>31902100</v>
       </c>
       <c r="P115">
-        <v>894838721000</v>
+        <v>746759648300</v>
       </c>
     </row>
     <row r="116">
@@ -6166,10 +6166,10 @@
         <v>25200</v>
       </c>
       <c r="E116">
-        <v>51063887000</v>
+        <v>49397754800</v>
       </c>
       <c r="F116">
-        <v>42503645000</v>
+        <v>39222929000</v>
       </c>
       <c r="G116">
         <v>274515000</v>
@@ -6178,13 +6178,13 @@
         <v>5409300</v>
       </c>
       <c r="I116">
-        <v>93842047000</v>
+        <v>88895198800</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-05T14:24:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7304545149000</v>
+        <v>6596270432700</v>
       </c>
       <c r="L116">
         <v>428190400</v>
@@ -6193,13 +6193,13 @@
         <v>-1130700</v>
       </c>
       <c r="N116">
-        <v>-8560242000</v>
+        <v>-10174825800</v>
       </c>
       <c r="O116">
         <v>30771400</v>
       </c>
       <c r="P116">
-        <v>886278479000</v>
+        <v>736584822500</v>
       </c>
     </row>
     <row r="117">
@@ -6216,10 +6216,10 @@
         <v>15500</v>
       </c>
       <c r="E117">
-        <v>62255317000</v>
+        <v>55351128100</v>
       </c>
       <c r="F117">
-        <v>36970996000</v>
+        <v>33137433400</v>
       </c>
       <c r="G117">
         <v>425228000</v>
@@ -6228,13 +6228,13 @@
         <v>5508700</v>
       </c>
       <c r="I117">
-        <v>99651541000</v>
+        <v>88913789500</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-05T14:26:00.000Z</v>
       </c>
       <c r="K117">
-        <v>7404196690000</v>
+        <v>6685184222200</v>
       </c>
       <c r="L117">
         <v>433699100</v>
@@ -6243,13 +6243,13 @@
         <v>-1402200</v>
       </c>
       <c r="N117">
-        <v>-25284321000</v>
+        <v>-22213694700</v>
       </c>
       <c r="O117">
         <v>29369200</v>
       </c>
       <c r="P117">
-        <v>860994158000</v>
+        <v>714371127800</v>
       </c>
     </row>
     <row r="118">
@@ -6266,25 +6266,25 @@
         <v>48400</v>
       </c>
       <c r="E118">
-        <v>89527640000</v>
+        <v>72277307600</v>
       </c>
       <c r="F118">
-        <v>35190942000</v>
+        <v>34400633100</v>
       </c>
       <c r="G118">
-        <v>376553000</v>
+        <v>348581000</v>
       </c>
       <c r="H118">
         <v>7771700</v>
       </c>
       <c r="I118">
-        <v>125095135000</v>
+        <v>107026521700</v>
       </c>
       <c r="J118" t="str">
         <v>2023-01-05T14:28:00.000Z</v>
       </c>
       <c r="K118">
-        <v>7529291825000</v>
+        <v>6792210743900</v>
       </c>
       <c r="L118">
         <v>441470800</v>
@@ -6293,13 +6293,13 @@
         <v>-3423500</v>
       </c>
       <c r="N118">
-        <v>-54336698000</v>
+        <v>-37876674500</v>
       </c>
       <c r="O118">
         <v>25945700</v>
       </c>
       <c r="P118">
-        <v>806657460000</v>
+        <v>676494453300</v>
       </c>
     </row>
     <row r="119">
@@ -6316,10 +6316,10 @@
         <v>3000</v>
       </c>
       <c r="E119">
-        <v>190349000</v>
+        <v>177362000</v>
       </c>
       <c r="F119">
-        <v>545384000</v>
+        <v>537991400</v>
       </c>
       <c r="G119">
         <v>27750000</v>
@@ -6328,13 +6328,13 @@
         <v>55400</v>
       </c>
       <c r="I119">
-        <v>763483000</v>
+        <v>743103400</v>
       </c>
       <c r="J119" t="str">
         <v>2023-01-05T14:30:00.000Z</v>
       </c>
       <c r="K119">
-        <v>7530055308000</v>
+        <v>6792953847300</v>
       </c>
       <c r="L119">
         <v>441526200</v>
@@ -6343,13 +6343,13 @@
         <v>28800</v>
       </c>
       <c r="N119">
-        <v>355035000</v>
+        <v>360629400</v>
       </c>
       <c r="O119">
         <v>25974500</v>
       </c>
       <c r="P119">
-        <v>807012495000</v>
+        <v>676855082700</v>
       </c>
     </row>
     <row r="120">
@@ -6384,7 +6384,7 @@
         <v>2023-01-05T14:32:00.000Z</v>
       </c>
       <c r="K120">
-        <v>7530060428000</v>
+        <v>6792958967300</v>
       </c>
       <c r="L120">
         <v>441526600</v>
@@ -6399,7 +6399,7 @@
         <v>25974300</v>
       </c>
       <c r="P120">
-        <v>807009935000</v>
+        <v>676852522700</v>
       </c>
     </row>
     <row r="121">
@@ -6434,7 +6434,7 @@
         <v>2023-01-05T14:34:00.000Z</v>
       </c>
       <c r="K121">
-        <v>7530074508000</v>
+        <v>6792973047300</v>
       </c>
       <c r="L121">
         <v>441527700</v>
@@ -6449,7 +6449,7 @@
         <v>25975400</v>
       </c>
       <c r="P121">
-        <v>807024015000</v>
+        <v>676866602700</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2023-01-05T14:36:00.000Z</v>
       </c>
       <c r="K122">
-        <v>7530130608000</v>
+        <v>6793029147300</v>
       </c>
       <c r="L122">
         <v>441532100</v>
@@ -6499,7 +6499,7 @@
         <v>25975400</v>
       </c>
       <c r="P122">
-        <v>807024235000</v>
+        <v>676866822700</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2023-01-05T14:38:00.000Z</v>
       </c>
       <c r="K123">
-        <v>7530166448000</v>
+        <v>6793064987300</v>
       </c>
       <c r="L123">
         <v>441534900</v>
@@ -6549,7 +6549,7 @@
         <v>25977500</v>
       </c>
       <c r="P123">
-        <v>807051115000</v>
+        <v>676893702700</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2023-01-05T14:40:00.000Z</v>
       </c>
       <c r="K124">
-        <v>7530255848000</v>
+        <v>6793154387300</v>
       </c>
       <c r="L124">
         <v>441541900</v>
@@ -6599,7 +6599,7 @@
         <v>25980500</v>
       </c>
       <c r="P124">
-        <v>807089715000</v>
+        <v>676932302700</v>
       </c>
     </row>
     <row r="125">
@@ -6634,7 +6634,7 @@
         <v>2023-01-05T14:42:00.000Z</v>
       </c>
       <c r="K125">
-        <v>7530322408000</v>
+        <v>6793220947300</v>
       </c>
       <c r="L125">
         <v>441547100</v>
@@ -6649,7 +6649,7 @@
         <v>25985700</v>
       </c>
       <c r="P125">
-        <v>807156275000</v>
+        <v>676998862700</v>
       </c>
     </row>
     <row r="126">
@@ -6666,25 +6666,25 @@
         <v>26567000</v>
       </c>
       <c r="E126">
-        <v>18390862000</v>
+        <v>17715937600</v>
       </c>
       <c r="F126">
-        <v>31540334000</v>
+        <v>28846930100</v>
       </c>
       <c r="G126">
-        <v>500328609000</v>
+        <v>468132237600</v>
       </c>
       <c r="H126">
         <v>28387900</v>
       </c>
       <c r="I126">
-        <v>550259805000</v>
+        <v>514695105300</v>
       </c>
       <c r="J126" t="str">
         <v>2023-01-05T14:44:00.000Z</v>
       </c>
       <c r="K126">
-        <v>8080582213000</v>
+        <v>7307916052600</v>
       </c>
       <c r="L126">
         <v>469935000</v>
@@ -6693,13 +6693,13 @@
         <v>670500</v>
       </c>
       <c r="N126">
-        <v>13149472000</v>
+        <v>11130992500</v>
       </c>
       <c r="O126">
         <v>26656200</v>
       </c>
       <c r="P126">
-        <v>820305747000</v>
+        <v>688129855200</v>
       </c>
     </row>
     <row r="127">
@@ -6734,7 +6734,7 @@
         <v>2023-01-05T14:46:00.000Z</v>
       </c>
       <c r="K127">
-        <v>8080587333000</v>
+        <v>7307921172600</v>
       </c>
       <c r="L127">
         <v>469935400</v>
@@ -6749,7 +6749,7 @@
         <v>26656600</v>
       </c>
       <c r="P127">
-        <v>820310867000</v>
+        <v>688134975200</v>
       </c>
     </row>
     <row r="128">
@@ -6784,7 +6784,7 @@
         <v>2023-01-05T14:50:00.000Z</v>
       </c>
       <c r="K128">
-        <v>8080628313000</v>
+        <v>7307962152600</v>
       </c>
       <c r="L128">
         <v>469938600</v>
@@ -6799,7 +6799,7 @@
         <v>26659800</v>
       </c>
       <c r="P128">
-        <v>820351847000</v>
+        <v>688175955200</v>
       </c>
     </row>
     <row r="129">
@@ -6834,7 +6834,7 @@
         <v>2023-01-05T14:52:00.000Z</v>
       </c>
       <c r="K129">
-        <v>8080721193000</v>
+        <v>7308055032600</v>
       </c>
       <c r="L129">
         <v>469945800</v>
@@ -6849,7 +6849,7 @@
         <v>26667000</v>
       </c>
       <c r="P129">
-        <v>820444727000</v>
+        <v>688268835200</v>
       </c>
     </row>
     <row r="130">
@@ -6884,7 +6884,7 @@
         <v>2023-01-05T14:56:00.000Z</v>
       </c>
       <c r="K130">
-        <v>8080734093000</v>
+        <v>7308067932600</v>
       </c>
       <c r="L130">
         <v>469946800</v>
@@ -6899,7 +6899,7 @@
         <v>26668000</v>
       </c>
       <c r="P130">
-        <v>820457627000</v>
+        <v>688281735200</v>
       </c>
     </row>
     <row r="131">
@@ -6934,7 +6934,7 @@
         <v>2023-01-05T14:58:00.000Z</v>
       </c>
       <c r="K131">
-        <v>8080846733000</v>
+        <v>7308180572600</v>
       </c>
       <c r="L131">
         <v>469955600</v>
@@ -6949,7 +6949,7 @@
         <v>26659800</v>
       </c>
       <c r="P131">
-        <v>820352667000</v>
+        <v>688176775200</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230105/VNINDEX_HOSE_5p_20230105.xlsx
+++ b/name/vnindex/20230105/VNINDEX_HOSE_5p_20230105.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>1320000</v>
       </c>
+      <c r="Q2">
+        <v>1320000</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V2">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W2">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X2">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y2">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z2">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA2">
+        <v>205075.4</v>
+      </c>
+      <c r="AB2">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>67320000</v>
       </c>
+      <c r="Q3">
+        <v>67320000</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>5100</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V3">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W3">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X3">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y3">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z3">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA3">
+        <v>205075.4</v>
+      </c>
+      <c r="AB3">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>105600000</v>
       </c>
+      <c r="Q4">
+        <v>106920000</v>
+      </c>
+      <c r="R4">
+        <v>1320000</v>
+      </c>
+      <c r="S4">
+        <v>8100</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V4">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W4">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X4">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y4">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z4">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA4">
+        <v>205075.4</v>
+      </c>
+      <c r="AB4">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>13198641500</v>
       </c>
+      <c r="Q5">
+        <v>25194975900</v>
+      </c>
+      <c r="R5">
+        <v>11996334400</v>
+      </c>
+      <c r="S5">
+        <v>3813000</v>
+      </c>
+      <c r="T5">
+        <v>978400</v>
+      </c>
+      <c r="U5">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V5">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W5">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X5">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y5">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z5">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA5">
+        <v>205075.4</v>
+      </c>
+      <c r="AB5">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC5">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>22155611200</v>
       </c>
+      <c r="Q6">
+        <v>44787835600</v>
+      </c>
+      <c r="R6">
+        <v>22632224400</v>
+      </c>
+      <c r="S6">
+        <v>5695100</v>
+      </c>
+      <c r="T6">
+        <v>1866100</v>
+      </c>
+      <c r="U6">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V6">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W6">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X6">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y6">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z6">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA6">
+        <v>205075.4</v>
+      </c>
+      <c r="AB6">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC6">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>39945304000</v>
       </c>
+      <c r="Q7">
+        <v>75570974800</v>
+      </c>
+      <c r="R7">
+        <v>35625670800</v>
+      </c>
+      <c r="S7">
+        <v>7932800</v>
+      </c>
+      <c r="T7">
+        <v>2790700</v>
+      </c>
+      <c r="U7">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V7">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W7">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X7">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y7">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z7">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA7">
+        <v>205075.4</v>
+      </c>
+      <c r="AB7">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC7">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>52518715500</v>
       </c>
+      <c r="Q8">
+        <v>98629848100</v>
+      </c>
+      <c r="R8">
+        <v>46111132600</v>
+      </c>
+      <c r="S8">
+        <v>9199400</v>
+      </c>
+      <c r="T8">
+        <v>3634100</v>
+      </c>
+      <c r="U8">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V8">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W8">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X8">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y8">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z8">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA8">
+        <v>205075.4</v>
+      </c>
+      <c r="AB8">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC8">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>61948346700</v>
       </c>
+      <c r="Q9">
+        <v>121299874900</v>
+      </c>
+      <c r="R9">
+        <v>59351528200</v>
+      </c>
+      <c r="S9">
+        <v>10616300</v>
+      </c>
+      <c r="T9">
+        <v>4595500</v>
+      </c>
+      <c r="U9">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V9">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W9">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X9">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y9">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z9">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA9">
+        <v>205075.4</v>
+      </c>
+      <c r="AB9">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC9">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>57805204700</v>
       </c>
+      <c r="Q10">
+        <v>138287211500</v>
+      </c>
+      <c r="R10">
+        <v>80482006800</v>
+      </c>
+      <c r="S10">
+        <v>11576400</v>
+      </c>
+      <c r="T10">
+        <v>6109600</v>
+      </c>
+      <c r="U10">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V10">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W10">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X10">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y10">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z10">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA10">
+        <v>205075.4</v>
+      </c>
+      <c r="AB10">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC10">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>58589149100</v>
       </c>
+      <c r="Q11">
+        <v>157127259900</v>
+      </c>
+      <c r="R11">
+        <v>98538110800</v>
+      </c>
+      <c r="S11">
+        <v>12646200</v>
+      </c>
+      <c r="T11">
+        <v>7374400</v>
+      </c>
+      <c r="U11">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V11">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W11">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X11">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y11">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z11">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA11">
+        <v>205075.4</v>
+      </c>
+      <c r="AB11">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC11">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>46260475300</v>
       </c>
+      <c r="Q12">
+        <v>168495210700</v>
+      </c>
+      <c r="R12">
+        <v>122234735400</v>
+      </c>
+      <c r="S12">
+        <v>13402400</v>
+      </c>
+      <c r="T12">
+        <v>9382000</v>
+      </c>
+      <c r="U12">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V12">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W12">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X12">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y12">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z12">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA12">
+        <v>205075.4</v>
+      </c>
+      <c r="AB12">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC12">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>32640936300</v>
       </c>
+      <c r="Q13">
+        <v>183896014000</v>
+      </c>
+      <c r="R13">
+        <v>151255077700</v>
+      </c>
+      <c r="S13">
+        <v>14324300</v>
+      </c>
+      <c r="T13">
+        <v>11453800</v>
+      </c>
+      <c r="U13">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V13">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W13">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X13">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y13">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z13">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA13">
+        <v>205075.4</v>
+      </c>
+      <c r="AB13">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC13">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>34108943900</v>
       </c>
+      <c r="Q14">
+        <v>203668242800</v>
+      </c>
+      <c r="R14">
+        <v>169559298900</v>
+      </c>
+      <c r="S14">
+        <v>15560400</v>
+      </c>
+      <c r="T14">
+        <v>12717200</v>
+      </c>
+      <c r="U14">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V14">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W14">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X14">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y14">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z14">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA14">
+        <v>205075.4</v>
+      </c>
+      <c r="AB14">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>45149019400</v>
       </c>
+      <c r="Q15">
+        <v>231981383500</v>
+      </c>
+      <c r="R15">
+        <v>186832364100</v>
+      </c>
+      <c r="S15">
+        <v>17550100</v>
+      </c>
+      <c r="T15">
+        <v>14022900</v>
+      </c>
+      <c r="U15">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V15">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W15">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X15">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y15">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z15">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA15">
+        <v>205075.4</v>
+      </c>
+      <c r="AB15">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC15">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>53239137700</v>
       </c>
+      <c r="Q16">
+        <v>262862692800</v>
+      </c>
+      <c r="R16">
+        <v>209623555100</v>
+      </c>
+      <c r="S16">
+        <v>19690700</v>
+      </c>
+      <c r="T16">
+        <v>15630100</v>
+      </c>
+      <c r="U16">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V16">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W16">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X16">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y16">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z16">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA16">
+        <v>205075.4</v>
+      </c>
+      <c r="AB16">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>83518493000</v>
       </c>
+      <c r="Q17">
+        <v>312736052100</v>
+      </c>
+      <c r="R17">
+        <v>229217559100</v>
+      </c>
+      <c r="S17">
+        <v>22701500</v>
+      </c>
+      <c r="T17">
+        <v>16868500</v>
+      </c>
+      <c r="U17">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V17">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W17">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X17">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y17">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z17">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA17">
+        <v>205075.4</v>
+      </c>
+      <c r="AB17">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC17">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>101494250500</v>
       </c>
+      <c r="Q18">
+        <v>347284247500</v>
+      </c>
+      <c r="R18">
+        <v>245789997000</v>
+      </c>
+      <c r="S18">
+        <v>25066600</v>
+      </c>
+      <c r="T18">
+        <v>18091900</v>
+      </c>
+      <c r="U18">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V18">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W18">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X18">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y18">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z18">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA18">
+        <v>205075.4</v>
+      </c>
+      <c r="AB18">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC18">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>120044048700</v>
       </c>
+      <c r="Q19">
+        <v>379490505400</v>
+      </c>
+      <c r="R19">
+        <v>259446456700</v>
+      </c>
+      <c r="S19">
+        <v>27579000</v>
+      </c>
+      <c r="T19">
+        <v>19034500</v>
+      </c>
+      <c r="U19">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V19">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W19">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X19">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y19">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z19">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA19">
+        <v>205075.4</v>
+      </c>
+      <c r="AB19">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC19">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>130334759500</v>
       </c>
+      <c r="Q20">
+        <v>407056262200</v>
+      </c>
+      <c r="R20">
+        <v>276721502700</v>
+      </c>
+      <c r="S20">
+        <v>29458500</v>
+      </c>
+      <c r="T20">
+        <v>20400100</v>
+      </c>
+      <c r="U20">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V20">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W20">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X20">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y20">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z20">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA20">
+        <v>205075.4</v>
+      </c>
+      <c r="AB20">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC20">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>127243622500</v>
       </c>
+      <c r="Q21">
+        <v>429695219000</v>
+      </c>
+      <c r="R21">
+        <v>302451596500</v>
+      </c>
+      <c r="S21">
+        <v>30932500</v>
+      </c>
+      <c r="T21">
+        <v>22514600</v>
+      </c>
+      <c r="U21">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V21">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W21">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X21">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y21">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z21">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA21">
+        <v>205075.4</v>
+      </c>
+      <c r="AB21">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC21">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>122899697600</v>
       </c>
+      <c r="Q22">
+        <v>442505723300</v>
+      </c>
+      <c r="R22">
+        <v>319606025700</v>
+      </c>
+      <c r="S22">
+        <v>31823700</v>
+      </c>
+      <c r="T22">
+        <v>23731500</v>
+      </c>
+      <c r="U22">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V22">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W22">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X22">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y22">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z22">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA22">
+        <v>205075.4</v>
+      </c>
+      <c r="AB22">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC22">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>114137739600</v>
       </c>
+      <c r="Q23">
+        <v>454986889000</v>
+      </c>
+      <c r="R23">
+        <v>340849149400</v>
+      </c>
+      <c r="S23">
+        <v>32530800</v>
+      </c>
+      <c r="T23">
+        <v>25061900</v>
+      </c>
+      <c r="U23">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V23">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W23">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X23">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y23">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z23">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA23">
+        <v>205075.4</v>
+      </c>
+      <c r="AB23">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>112973901100</v>
       </c>
+      <c r="Q24">
+        <v>469899535200</v>
+      </c>
+      <c r="R24">
+        <v>356925634100</v>
+      </c>
+      <c r="S24">
+        <v>33380100</v>
+      </c>
+      <c r="T24">
+        <v>26276200</v>
+      </c>
+      <c r="U24">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V24">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W24">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X24">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y24">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z24">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA24">
+        <v>205075.4</v>
+      </c>
+      <c r="AB24">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC24">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>110885334300</v>
       </c>
+      <c r="Q25">
+        <v>482009681600</v>
+      </c>
+      <c r="R25">
+        <v>371124347300</v>
+      </c>
+      <c r="S25">
+        <v>34122200</v>
+      </c>
+      <c r="T25">
+        <v>27556500</v>
+      </c>
+      <c r="U25">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V25">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W25">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X25">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y25">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z25">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA25">
+        <v>205075.4</v>
+      </c>
+      <c r="AB25">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC25">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>132251160500</v>
       </c>
+      <c r="Q26">
+        <v>512416372100</v>
+      </c>
+      <c r="R26">
+        <v>380165211600</v>
+      </c>
+      <c r="S26">
+        <v>35841000</v>
+      </c>
+      <c r="T26">
+        <v>28267700</v>
+      </c>
+      <c r="U26">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V26">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W26">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X26">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y26">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z26">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA26">
+        <v>205075.4</v>
+      </c>
+      <c r="AB26">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC26">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>143927417000</v>
       </c>
+      <c r="Q27">
+        <v>535488559500</v>
+      </c>
+      <c r="R27">
+        <v>391561142500</v>
+      </c>
+      <c r="S27">
+        <v>37214500</v>
+      </c>
+      <c r="T27">
+        <v>29086300</v>
+      </c>
+      <c r="U27">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V27">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W27">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X27">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y27">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z27">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA27">
+        <v>205075.4</v>
+      </c>
+      <c r="AB27">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC27">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>169939914900</v>
       </c>
+      <c r="Q28">
+        <v>572030555600</v>
+      </c>
+      <c r="R28">
+        <v>402090640700</v>
+      </c>
+      <c r="S28">
+        <v>39184300</v>
+      </c>
+      <c r="T28">
+        <v>29951400</v>
+      </c>
+      <c r="U28">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V28">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W28">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X28">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y28">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z28">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA28">
+        <v>205075.4</v>
+      </c>
+      <c r="AB28">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC28">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>200754779600</v>
       </c>
+      <c r="Q29">
+        <v>618723271700</v>
+      </c>
+      <c r="R29">
+        <v>417968492100</v>
+      </c>
+      <c r="S29">
+        <v>41670200</v>
+      </c>
+      <c r="T29">
+        <v>31107400</v>
+      </c>
+      <c r="U29">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V29">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W29">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X29">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y29">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z29">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA29">
+        <v>205075.4</v>
+      </c>
+      <c r="AB29">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC29">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>217325215200</v>
       </c>
+      <c r="Q30">
+        <v>651729257800</v>
+      </c>
+      <c r="R30">
+        <v>434404042600</v>
+      </c>
+      <c r="S30">
+        <v>43435300</v>
+      </c>
+      <c r="T30">
+        <v>32187500</v>
+      </c>
+      <c r="U30">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V30">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W30">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X30">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y30">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z30">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA30">
+        <v>205075.4</v>
+      </c>
+      <c r="AB30">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC30">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>224584618500</v>
       </c>
+      <c r="Q31">
+        <v>675729664500</v>
+      </c>
+      <c r="R31">
+        <v>451145046000</v>
+      </c>
+      <c r="S31">
+        <v>44998200</v>
+      </c>
+      <c r="T31">
+        <v>33311600</v>
+      </c>
+      <c r="U31">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V31">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W31">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X31">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y31">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z31">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA31">
+        <v>205075.4</v>
+      </c>
+      <c r="AB31">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC31">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>226812281800</v>
       </c>
+      <c r="Q32">
+        <v>700852731200</v>
+      </c>
+      <c r="R32">
+        <v>474040449400</v>
+      </c>
+      <c r="S32">
+        <v>46298100</v>
+      </c>
+      <c r="T32">
+        <v>34593800</v>
+      </c>
+      <c r="U32">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V32">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W32">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X32">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y32">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z32">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA32">
+        <v>205075.4</v>
+      </c>
+      <c r="AB32">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC32">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>227254240300</v>
       </c>
+      <c r="Q33">
+        <v>720675020200</v>
+      </c>
+      <c r="R33">
+        <v>493420779900</v>
+      </c>
+      <c r="S33">
+        <v>47345700</v>
+      </c>
+      <c r="T33">
+        <v>35952000</v>
+      </c>
+      <c r="U33">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V33">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W33">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X33">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y33">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z33">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA33">
+        <v>205075.4</v>
+      </c>
+      <c r="AB33">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC33">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>227111683900</v>
       </c>
+      <c r="Q34">
+        <v>739111750000</v>
+      </c>
+      <c r="R34">
+        <v>512000066100</v>
+      </c>
+      <c r="S34">
+        <v>48309000</v>
+      </c>
+      <c r="T34">
+        <v>37122000</v>
+      </c>
+      <c r="U34">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V34">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W34">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X34">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y34">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z34">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA34">
+        <v>205075.4</v>
+      </c>
+      <c r="AB34">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>234272931500</v>
       </c>
+      <c r="Q35">
+        <v>769892609300</v>
+      </c>
+      <c r="R35">
+        <v>535619677800</v>
+      </c>
+      <c r="S35">
+        <v>49707400</v>
+      </c>
+      <c r="T35">
+        <v>38579100</v>
+      </c>
+      <c r="U35">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V35">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W35">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X35">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y35">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z35">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA35">
+        <v>205075.4</v>
+      </c>
+      <c r="AB35">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC35">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>240169208700</v>
       </c>
+      <c r="Q36">
+        <v>789470885200</v>
+      </c>
+      <c r="R36">
+        <v>549301676500</v>
+      </c>
+      <c r="S36">
+        <v>50573000</v>
+      </c>
+      <c r="T36">
+        <v>39500500</v>
+      </c>
+      <c r="U36">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V36">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W36">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X36">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y36">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z36">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA36">
+        <v>205075.4</v>
+      </c>
+      <c r="AB36">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>241612312000</v>
       </c>
+      <c r="Q37">
+        <v>808788657300</v>
+      </c>
+      <c r="R37">
+        <v>567176345300</v>
+      </c>
+      <c r="S37">
+        <v>51528300</v>
+      </c>
+      <c r="T37">
+        <v>40740600</v>
+      </c>
+      <c r="U37">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V37">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W37">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X37">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y37">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z37">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA37">
+        <v>205075.4</v>
+      </c>
+      <c r="AB37">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC37">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>237346117100</v>
       </c>
+      <c r="Q38">
+        <v>824319107200</v>
+      </c>
+      <c r="R38">
+        <v>586972990100</v>
+      </c>
+      <c r="S38">
+        <v>52376700</v>
+      </c>
+      <c r="T38">
+        <v>42219000</v>
+      </c>
+      <c r="U38">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V38">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W38">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X38">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y38">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z38">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA38">
+        <v>205075.4</v>
+      </c>
+      <c r="AB38">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC38">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>229314001700</v>
       </c>
+      <c r="Q39">
+        <v>844689913400</v>
+      </c>
+      <c r="R39">
+        <v>615375911700</v>
+      </c>
+      <c r="S39">
+        <v>53393800</v>
+      </c>
+      <c r="T39">
+        <v>44925300</v>
+      </c>
+      <c r="U39">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V39">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W39">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X39">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y39">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z39">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA39">
+        <v>205075.4</v>
+      </c>
+      <c r="AB39">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC39">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>217640949100</v>
       </c>
+      <c r="Q40">
+        <v>861910315000</v>
+      </c>
+      <c r="R40">
+        <v>644269365900</v>
+      </c>
+      <c r="S40">
+        <v>54147900</v>
+      </c>
+      <c r="T40">
+        <v>47308300</v>
+      </c>
+      <c r="U40">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V40">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W40">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X40">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y40">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z40">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA40">
+        <v>205075.4</v>
+      </c>
+      <c r="AB40">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC40">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>207388189000</v>
       </c>
+      <c r="Q41">
+        <v>880616629200</v>
+      </c>
+      <c r="R41">
+        <v>673228440200</v>
+      </c>
+      <c r="S41">
+        <v>55225400</v>
+      </c>
+      <c r="T41">
+        <v>49303700</v>
+      </c>
+      <c r="U41">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V41">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W41">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X41">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y41">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z41">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA41">
+        <v>205075.4</v>
+      </c>
+      <c r="AB41">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC41">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>193913108300</v>
       </c>
+      <c r="Q42">
+        <v>895379380600</v>
+      </c>
+      <c r="R42">
+        <v>701466272300</v>
+      </c>
+      <c r="S42">
+        <v>56007000</v>
+      </c>
+      <c r="T42">
+        <v>51397900</v>
+      </c>
+      <c r="U42">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V42">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W42">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X42">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y42">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z42">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA42">
+        <v>205075.4</v>
+      </c>
+      <c r="AB42">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC42">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>171809070000</v>
       </c>
+      <c r="Q43">
+        <v>906829016900</v>
+      </c>
+      <c r="R43">
+        <v>735019946900</v>
+      </c>
+      <c r="S43">
+        <v>56717800</v>
+      </c>
+      <c r="T43">
+        <v>53962300</v>
+      </c>
+      <c r="U43">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V43">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W43">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X43">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y43">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z43">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA43">
+        <v>205075.4</v>
+      </c>
+      <c r="AB43">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC43">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>159100370600</v>
       </c>
+      <c r="Q44">
+        <v>922408128100</v>
+      </c>
+      <c r="R44">
+        <v>763307757500</v>
+      </c>
+      <c r="S44">
+        <v>57560000</v>
+      </c>
+      <c r="T44">
+        <v>56034800</v>
+      </c>
+      <c r="U44">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V44">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W44">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X44">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y44">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z44">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA44">
+        <v>205075.4</v>
+      </c>
+      <c r="AB44">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC44">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>149588263100</v>
       </c>
+      <c r="Q45">
+        <v>939849618600</v>
+      </c>
+      <c r="R45">
+        <v>790261355500</v>
+      </c>
+      <c r="S45">
+        <v>58651000</v>
+      </c>
+      <c r="T45">
+        <v>57982000</v>
+      </c>
+      <c r="U45">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V45">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W45">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X45">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y45">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z45">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA45">
+        <v>205075.4</v>
+      </c>
+      <c r="AB45">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC45">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>138441272600</v>
       </c>
+      <c r="Q46">
+        <v>949852429900</v>
+      </c>
+      <c r="R46">
+        <v>811411157300</v>
+      </c>
+      <c r="S46">
+        <v>59257800</v>
+      </c>
+      <c r="T46">
+        <v>59477700</v>
+      </c>
+      <c r="U46">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V46">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W46">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X46">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y46">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z46">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA46">
+        <v>205075.4</v>
+      </c>
+      <c r="AB46">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC46">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>122843494700</v>
       </c>
+      <c r="Q47">
+        <v>962589332700</v>
+      </c>
+      <c r="R47">
+        <v>839745838000</v>
+      </c>
+      <c r="S47">
+        <v>60002400</v>
+      </c>
+      <c r="T47">
+        <v>61438000</v>
+      </c>
+      <c r="U47">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V47">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W47">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X47">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y47">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z47">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA47">
+        <v>205075.4</v>
+      </c>
+      <c r="AB47">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC47">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>102691569300</v>
       </c>
+      <c r="Q48">
+        <v>973763320200</v>
+      </c>
+      <c r="R48">
+        <v>871071750900</v>
+      </c>
+      <c r="S48">
+        <v>60667400</v>
+      </c>
+      <c r="T48">
+        <v>63642300</v>
+      </c>
+      <c r="U48">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V48">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W48">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X48">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y48">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z48">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA48">
+        <v>205075.4</v>
+      </c>
+      <c r="AB48">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC48">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>73622012400</v>
       </c>
+      <c r="Q49">
+        <v>986580368600</v>
+      </c>
+      <c r="R49">
+        <v>912958356200</v>
+      </c>
+      <c r="S49">
+        <v>61449700</v>
+      </c>
+      <c r="T49">
+        <v>66174700</v>
+      </c>
+      <c r="U49">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V49">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W49">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X49">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y49">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z49">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA49">
+        <v>205075.4</v>
+      </c>
+      <c r="AB49">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC49">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>41194459000</v>
       </c>
+      <c r="Q50">
+        <v>1003235913800</v>
+      </c>
+      <c r="R50">
+        <v>962041454800</v>
+      </c>
+      <c r="S50">
+        <v>62405900</v>
+      </c>
+      <c r="T50">
+        <v>69496900</v>
+      </c>
+      <c r="U50">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V50">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W50">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X50">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y50">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z50">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA50">
+        <v>205075.4</v>
+      </c>
+      <c r="AB50">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC50">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>17596183000</v>
       </c>
+      <c r="Q51">
+        <v>1016734675400</v>
+      </c>
+      <c r="R51">
+        <v>999138492400</v>
+      </c>
+      <c r="S51">
+        <v>63393200</v>
+      </c>
+      <c r="T51">
+        <v>71706400</v>
+      </c>
+      <c r="U51">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V51">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W51">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X51">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y51">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z51">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA51">
+        <v>205075.4</v>
+      </c>
+      <c r="AB51">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC51">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-3660527700</v>
       </c>
+      <c r="Q52">
+        <v>1035798244400</v>
+      </c>
+      <c r="R52">
+        <v>1039458772100</v>
+      </c>
+      <c r="S52">
+        <v>64399600</v>
+      </c>
+      <c r="T52">
+        <v>73875100</v>
+      </c>
+      <c r="U52">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V52">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W52">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X52">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y52">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z52">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA52">
+        <v>205075.4</v>
+      </c>
+      <c r="AB52">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC52">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-19255091800</v>
       </c>
+      <c r="Q53">
+        <v>1052100862500</v>
+      </c>
+      <c r="R53">
+        <v>1071355954300</v>
+      </c>
+      <c r="S53">
+        <v>65461900</v>
+      </c>
+      <c r="T53">
+        <v>75636700</v>
+      </c>
+      <c r="U53">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V53">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W53">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X53">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y53">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z53">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA53">
+        <v>205075.4</v>
+      </c>
+      <c r="AB53">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC53">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-28657329900</v>
       </c>
+      <c r="Q54">
+        <v>1067399239900</v>
+      </c>
+      <c r="R54">
+        <v>1096056569800</v>
+      </c>
+      <c r="S54">
+        <v>66454100</v>
+      </c>
+      <c r="T54">
+        <v>77190600</v>
+      </c>
+      <c r="U54">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V54">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W54">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X54">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y54">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z54">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA54">
+        <v>205075.4</v>
+      </c>
+      <c r="AB54">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC54">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-36902211000</v>
       </c>
+      <c r="Q55">
+        <v>1088298722900</v>
+      </c>
+      <c r="R55">
+        <v>1125200933900</v>
+      </c>
+      <c r="S55">
+        <v>67796800</v>
+      </c>
+      <c r="T55">
+        <v>79022200</v>
+      </c>
+      <c r="U55">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V55">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W55">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X55">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y55">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z55">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA55">
+        <v>205075.4</v>
+      </c>
+      <c r="AB55">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC55">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-16658366300</v>
       </c>
+      <c r="Q56">
+        <v>1121726020400</v>
+      </c>
+      <c r="R56">
+        <v>1138384386700</v>
+      </c>
+      <c r="S56">
+        <v>69591800</v>
+      </c>
+      <c r="T56">
+        <v>79800900</v>
+      </c>
+      <c r="U56">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V56">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W56">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X56">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y56">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z56">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA56">
+        <v>205075.4</v>
+      </c>
+      <c r="AB56">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC56">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-7130500</v>
       </c>
+      <c r="Q57">
+        <v>1152385223800</v>
+      </c>
+      <c r="R57">
+        <v>1152392354300</v>
+      </c>
+      <c r="S57">
+        <v>71458400</v>
+      </c>
+      <c r="T57">
+        <v>80649900</v>
+      </c>
+      <c r="U57">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V57">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W57">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X57">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y57">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z57">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA57">
+        <v>205075.4</v>
+      </c>
+      <c r="AB57">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC57">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>17311844000</v>
       </c>
+      <c r="Q58">
+        <v>1178048541500</v>
+      </c>
+      <c r="R58">
+        <v>1160736697500</v>
+      </c>
+      <c r="S58">
+        <v>72706300</v>
+      </c>
+      <c r="T58">
+        <v>81109600</v>
+      </c>
+      <c r="U58">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V58">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W58">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X58">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y58">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z58">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA58">
+        <v>205075.4</v>
+      </c>
+      <c r="AB58">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC58">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>23883942400</v>
       </c>
+      <c r="Q59">
+        <v>1195453012500</v>
+      </c>
+      <c r="R59">
+        <v>1171569070100</v>
+      </c>
+      <c r="S59">
+        <v>73646300</v>
+      </c>
+      <c r="T59">
+        <v>81694600</v>
+      </c>
+      <c r="U59">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V59">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W59">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X59">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y59">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z59">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA59">
+        <v>205075.4</v>
+      </c>
+      <c r="AB59">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC59">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>26639169500</v>
       </c>
+      <c r="Q60">
+        <v>1213276277100</v>
+      </c>
+      <c r="R60">
+        <v>1186637107600</v>
+      </c>
+      <c r="S60">
+        <v>74785300</v>
+      </c>
+      <c r="T60">
+        <v>82563800</v>
+      </c>
+      <c r="U60">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V60">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W60">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X60">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y60">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z60">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA60">
+        <v>205075.4</v>
+      </c>
+      <c r="AB60">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC60">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>21861729700</v>
       </c>
+      <c r="Q61">
+        <v>1227345083900</v>
+      </c>
+      <c r="R61">
+        <v>1205483354200</v>
+      </c>
+      <c r="S61">
+        <v>75591400</v>
+      </c>
+      <c r="T61">
+        <v>83622700</v>
+      </c>
+      <c r="U61">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V61">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W61">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X61">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y61">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z61">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA61">
+        <v>205075.4</v>
+      </c>
+      <c r="AB61">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC61">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>7902060900</v>
       </c>
+      <c r="Q62">
+        <v>1238991036800</v>
+      </c>
+      <c r="R62">
+        <v>1231088975900</v>
+      </c>
+      <c r="S62">
+        <v>76448700</v>
+      </c>
+      <c r="T62">
+        <v>85292000</v>
+      </c>
+      <c r="U62">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V62">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W62">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X62">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y62">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z62">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA62">
+        <v>205075.4</v>
+      </c>
+      <c r="AB62">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC62">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>1148200500</v>
       </c>
+      <c r="Q63">
+        <v>1250890796800</v>
+      </c>
+      <c r="R63">
+        <v>1249742596300</v>
+      </c>
+      <c r="S63">
+        <v>77199200</v>
+      </c>
+      <c r="T63">
+        <v>86521000</v>
+      </c>
+      <c r="U63">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V63">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W63">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X63">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y63">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z63">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA63">
+        <v>205075.4</v>
+      </c>
+      <c r="AB63">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC63">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-3790618500</v>
       </c>
+      <c r="Q64">
+        <v>1263864466400</v>
+      </c>
+      <c r="R64">
+        <v>1267655084900</v>
+      </c>
+      <c r="S64">
+        <v>77933600</v>
+      </c>
+      <c r="T64">
+        <v>87620900</v>
+      </c>
+      <c r="U64">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V64">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W64">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X64">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y64">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z64">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA64">
+        <v>205075.4</v>
+      </c>
+      <c r="AB64">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC64">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-11445940400</v>
       </c>
+      <c r="Q65">
+        <v>1273195393100</v>
+      </c>
+      <c r="R65">
+        <v>1284641333500</v>
+      </c>
+      <c r="S65">
+        <v>78413100</v>
+      </c>
+      <c r="T65">
+        <v>88713300</v>
+      </c>
+      <c r="U65">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V65">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W65">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X65">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y65">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z65">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA65">
+        <v>205075.4</v>
+      </c>
+      <c r="AB65">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC65">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-16671729800</v>
       </c>
+      <c r="Q66">
+        <v>1285561653700</v>
+      </c>
+      <c r="R66">
+        <v>1302233383500</v>
+      </c>
+      <c r="S66">
+        <v>78983900</v>
+      </c>
+      <c r="T66">
+        <v>90085600</v>
+      </c>
+      <c r="U66">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V66">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W66">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X66">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y66">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z66">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA66">
+        <v>205075.4</v>
+      </c>
+      <c r="AB66">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-31670748000</v>
       </c>
+      <c r="Q67">
+        <v>1293368462400</v>
+      </c>
+      <c r="R67">
+        <v>1325039210400</v>
+      </c>
+      <c r="S67">
+        <v>79479600</v>
+      </c>
+      <c r="T67">
+        <v>91604200</v>
+      </c>
+      <c r="U67">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V67">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W67">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X67">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y67">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z67">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA67">
+        <v>205075.4</v>
+      </c>
+      <c r="AB67">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC67">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-49359906400</v>
       </c>
+      <c r="Q68">
+        <v>1302445376600</v>
+      </c>
+      <c r="R68">
+        <v>1351805283000</v>
+      </c>
+      <c r="S68">
+        <v>79951800</v>
+      </c>
+      <c r="T68">
+        <v>93548100</v>
+      </c>
+      <c r="U68">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V68">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W68">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X68">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y68">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z68">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA68">
+        <v>205075.4</v>
+      </c>
+      <c r="AB68">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC68">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-59410812200</v>
       </c>
+      <c r="Q69">
+        <v>1313954780800</v>
+      </c>
+      <c r="R69">
+        <v>1373365593000</v>
+      </c>
+      <c r="S69">
+        <v>80562900</v>
+      </c>
+      <c r="T69">
+        <v>94932000</v>
+      </c>
+      <c r="U69">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V69">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W69">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X69">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y69">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z69">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA69">
+        <v>205075.4</v>
+      </c>
+      <c r="AB69">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC69">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-63220019800</v>
       </c>
+      <c r="Q70">
+        <v>1326431629900</v>
+      </c>
+      <c r="R70">
+        <v>1389651649700</v>
+      </c>
+      <c r="S70">
+        <v>81190000</v>
+      </c>
+      <c r="T70">
+        <v>95905100</v>
+      </c>
+      <c r="U70">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V70">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W70">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X70">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y70">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z70">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA70">
+        <v>205075.4</v>
+      </c>
+      <c r="AB70">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC70">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-72003346500</v>
       </c>
+      <c r="Q71">
+        <v>1340780771200</v>
+      </c>
+      <c r="R71">
+        <v>1412784117700</v>
+      </c>
+      <c r="S71">
+        <v>81924000</v>
+      </c>
+      <c r="T71">
+        <v>97341500</v>
+      </c>
+      <c r="U71">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V71">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W71">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X71">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y71">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z71">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA71">
+        <v>205075.4</v>
+      </c>
+      <c r="AB71">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC71">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-87394808400</v>
       </c>
+      <c r="Q72">
+        <v>1350978336600</v>
+      </c>
+      <c r="R72">
+        <v>1438373145000</v>
+      </c>
+      <c r="S72">
+        <v>82548800</v>
+      </c>
+      <c r="T72">
+        <v>98843600</v>
+      </c>
+      <c r="U72">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V72">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W72">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X72">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y72">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z72">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA72">
+        <v>205075.4</v>
+      </c>
+      <c r="AB72">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC72">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-87711834400</v>
       </c>
+      <c r="Q73">
+        <v>1351008703600</v>
+      </c>
+      <c r="R73">
+        <v>1438720538000</v>
+      </c>
+      <c r="S73">
+        <v>82549900</v>
+      </c>
+      <c r="T73">
+        <v>98876400</v>
+      </c>
+      <c r="U73">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V73">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W73">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X73">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y73">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z73">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA73">
+        <v>205075.4</v>
+      </c>
+      <c r="AB73">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC73">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-137140339800</v>
       </c>
+      <c r="Q74">
+        <v>1390259964100</v>
+      </c>
+      <c r="R74">
+        <v>1527400303900</v>
+      </c>
+      <c r="S74">
+        <v>84964600</v>
+      </c>
+      <c r="T74">
+        <v>104777300</v>
+      </c>
+      <c r="U74">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V74">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W74">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X74">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y74">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z74">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA74">
+        <v>205075.4</v>
+      </c>
+      <c r="AB74">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC74">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-127738560100</v>
       </c>
+      <c r="Q75">
+        <v>1429294619500</v>
+      </c>
+      <c r="R75">
+        <v>1557033179600</v>
+      </c>
+      <c r="S75">
+        <v>87475700</v>
+      </c>
+      <c r="T75">
+        <v>106535600</v>
+      </c>
+      <c r="U75">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V75">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W75">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X75">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y75">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z75">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA75">
+        <v>205075.4</v>
+      </c>
+      <c r="AB75">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC75">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-125481576400</v>
       </c>
+      <c r="Q76">
+        <v>1462681714600</v>
+      </c>
+      <c r="R76">
+        <v>1588163291000</v>
+      </c>
+      <c r="S76">
+        <v>89227000</v>
+      </c>
+      <c r="T76">
+        <v>108478000</v>
+      </c>
+      <c r="U76">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V76">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W76">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X76">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y76">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z76">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA76">
+        <v>205075.4</v>
+      </c>
+      <c r="AB76">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC76">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-91848520000</v>
       </c>
+      <c r="Q77">
+        <v>1513828196200</v>
+      </c>
+      <c r="R77">
+        <v>1605676716200</v>
+      </c>
+      <c r="S77">
+        <v>92221000</v>
+      </c>
+      <c r="T77">
+        <v>109765600</v>
+      </c>
+      <c r="U77">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V77">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W77">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X77">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y77">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z77">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA77">
+        <v>205075.4</v>
+      </c>
+      <c r="AB77">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC77">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-71593495300</v>
       </c>
+      <c r="Q78">
+        <v>1556345553100</v>
+      </c>
+      <c r="R78">
+        <v>1627939048400</v>
+      </c>
+      <c r="S78">
+        <v>95308400</v>
+      </c>
+      <c r="T78">
+        <v>111152800</v>
+      </c>
+      <c r="U78">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V78">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W78">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X78">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y78">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z78">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA78">
+        <v>205075.4</v>
+      </c>
+      <c r="AB78">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC78">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-51826967400</v>
       </c>
+      <c r="Q79">
+        <v>1593857704300</v>
+      </c>
+      <c r="R79">
+        <v>1645684671700</v>
+      </c>
+      <c r="S79">
+        <v>97825700</v>
+      </c>
+      <c r="T79">
+        <v>112182900</v>
+      </c>
+      <c r="U79">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V79">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W79">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X79">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y79">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z79">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA79">
+        <v>205075.4</v>
+      </c>
+      <c r="AB79">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC79">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-34394410000</v>
       </c>
+      <c r="Q80">
+        <v>1630426380800</v>
+      </c>
+      <c r="R80">
+        <v>1664820790800</v>
+      </c>
+      <c r="S80">
+        <v>100380300</v>
+      </c>
+      <c r="T80">
+        <v>113318700</v>
+      </c>
+      <c r="U80">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V80">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W80">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X80">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y80">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z80">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA80">
+        <v>205075.4</v>
+      </c>
+      <c r="AB80">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC80">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-30358231100</v>
       </c>
+      <c r="Q81">
+        <v>1660001333200</v>
+      </c>
+      <c r="R81">
+        <v>1690359564300</v>
+      </c>
+      <c r="S81">
+        <v>102127500</v>
+      </c>
+      <c r="T81">
+        <v>115008900</v>
+      </c>
+      <c r="U81">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V81">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W81">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X81">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y81">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z81">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA81">
+        <v>205075.4</v>
+      </c>
+      <c r="AB81">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC81">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-47493915100</v>
       </c>
+      <c r="Q82">
+        <v>1680539000300</v>
+      </c>
+      <c r="R82">
+        <v>1728032915400</v>
+      </c>
+      <c r="S82">
+        <v>103524600</v>
+      </c>
+      <c r="T82">
+        <v>117143700</v>
+      </c>
+      <c r="U82">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V82">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W82">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X82">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y82">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z82">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA82">
+        <v>205075.4</v>
+      </c>
+      <c r="AB82">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC82">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-56150797400</v>
       </c>
+      <c r="Q83">
+        <v>1699240476600</v>
+      </c>
+      <c r="R83">
+        <v>1755391274000</v>
+      </c>
+      <c r="S83">
+        <v>104626100</v>
+      </c>
+      <c r="T83">
+        <v>118953500</v>
+      </c>
+      <c r="U83">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V83">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W83">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X83">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y83">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z83">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA83">
+        <v>205075.4</v>
+      </c>
+      <c r="AB83">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC83">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-57886276300</v>
       </c>
+      <c r="Q84">
+        <v>1722440835700</v>
+      </c>
+      <c r="R84">
+        <v>1780327112000</v>
+      </c>
+      <c r="S84">
+        <v>105928900</v>
+      </c>
+      <c r="T84">
+        <v>120631800</v>
+      </c>
+      <c r="U84">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V84">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W84">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X84">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y84">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z84">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA84">
+        <v>205075.4</v>
+      </c>
+      <c r="AB84">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC84">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-43589579800</v>
       </c>
+      <c r="Q85">
+        <v>1758626962100</v>
+      </c>
+      <c r="R85">
+        <v>1802216541900</v>
+      </c>
+      <c r="S85">
+        <v>108010500</v>
+      </c>
+      <c r="T85">
+        <v>122166700</v>
+      </c>
+      <c r="U85">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V85">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W85">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X85">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y85">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z85">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA85">
+        <v>205075.4</v>
+      </c>
+      <c r="AB85">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC85">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-28090141600</v>
       </c>
+      <c r="Q86">
+        <v>1791865094900</v>
+      </c>
+      <c r="R86">
+        <v>1819955236500</v>
+      </c>
+      <c r="S86">
+        <v>109877500</v>
+      </c>
+      <c r="T86">
+        <v>123336100</v>
+      </c>
+      <c r="U86">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V86">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W86">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X86">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y86">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z86">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA86">
+        <v>205075.4</v>
+      </c>
+      <c r="AB86">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC86">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>2562324900</v>
       </c>
+      <c r="Q87">
+        <v>1847402122900</v>
+      </c>
+      <c r="R87">
+        <v>1844839798000</v>
+      </c>
+      <c r="S87">
+        <v>113675300</v>
+      </c>
+      <c r="T87">
+        <v>125002100</v>
+      </c>
+      <c r="U87">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V87">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W87">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X87">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y87">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z87">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA87">
+        <v>205075.4</v>
+      </c>
+      <c r="AB87">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC87">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>83710701900</v>
       </c>
+      <c r="Q88">
+        <v>1955633673800</v>
+      </c>
+      <c r="R88">
+        <v>1871922971900</v>
+      </c>
+      <c r="S88">
+        <v>121054300</v>
+      </c>
+      <c r="T88">
+        <v>127182100</v>
+      </c>
+      <c r="U88">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V88">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W88">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X88">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y88">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z88">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA88">
+        <v>205075.4</v>
+      </c>
+      <c r="AB88">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC88">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>124660560600</v>
       </c>
+      <c r="Q89">
+        <v>2023021740200</v>
+      </c>
+      <c r="R89">
+        <v>1898361179600</v>
+      </c>
+      <c r="S89">
+        <v>125953900</v>
+      </c>
+      <c r="T89">
+        <v>129144900</v>
+      </c>
+      <c r="U89">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V89">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W89">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X89">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y89">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z89">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA89">
+        <v>205075.4</v>
+      </c>
+      <c r="AB89">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC89">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>133758271500</v>
       </c>
+      <c r="Q90">
+        <v>2069741207200</v>
+      </c>
+      <c r="R90">
+        <v>1935982935700</v>
+      </c>
+      <c r="S90">
+        <v>129335600</v>
+      </c>
+      <c r="T90">
+        <v>131871000</v>
+      </c>
+      <c r="U90">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V90">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W90">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X90">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y90">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z90">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA90">
+        <v>205075.4</v>
+      </c>
+      <c r="AB90">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC90">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>107612733600</v>
       </c>
+      <c r="Q91">
+        <v>2087939525000</v>
+      </c>
+      <c r="R91">
+        <v>1980326791400</v>
+      </c>
+      <c r="S91">
+        <v>130440100</v>
+      </c>
+      <c r="T91">
+        <v>134812200</v>
+      </c>
+      <c r="U91">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V91">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W91">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X91">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y91">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z91">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA91">
+        <v>205075.4</v>
+      </c>
+      <c r="AB91">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC91">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>110793815700</v>
       </c>
+      <c r="Q92">
+        <v>2116907317700</v>
+      </c>
+      <c r="R92">
+        <v>2006113502000</v>
+      </c>
+      <c r="S92">
+        <v>132300300</v>
+      </c>
+      <c r="T92">
+        <v>136850000</v>
+      </c>
+      <c r="U92">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V92">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W92">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X92">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y92">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z92">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA92">
+        <v>205075.4</v>
+      </c>
+      <c r="AB92">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC92">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>119597274800</v>
       </c>
+      <c r="Q93">
+        <v>2152438079400</v>
+      </c>
+      <c r="R93">
+        <v>2032840804600</v>
+      </c>
+      <c r="S93">
+        <v>134465700</v>
+      </c>
+      <c r="T93">
+        <v>138753000</v>
+      </c>
+      <c r="U93">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V93">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W93">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X93">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y93">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z93">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA93">
+        <v>205075.4</v>
+      </c>
+      <c r="AB93">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC93">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>136718001000</v>
       </c>
+      <c r="Q94">
+        <v>2189048088000</v>
+      </c>
+      <c r="R94">
+        <v>2052330087000</v>
+      </c>
+      <c r="S94">
+        <v>136764600</v>
+      </c>
+      <c r="T94">
+        <v>140007400</v>
+      </c>
+      <c r="U94">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V94">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W94">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X94">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y94">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z94">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA94">
+        <v>205075.4</v>
+      </c>
+      <c r="AB94">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC94">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>165702777100</v>
       </c>
+      <c r="Q95">
+        <v>2237464766200</v>
+      </c>
+      <c r="R95">
+        <v>2071761989100</v>
+      </c>
+      <c r="S95">
+        <v>139677400</v>
+      </c>
+      <c r="T95">
+        <v>141587200</v>
+      </c>
+      <c r="U95">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V95">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W95">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X95">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y95">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z95">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA95">
+        <v>205075.4</v>
+      </c>
+      <c r="AB95">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC95">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>225834817400</v>
       </c>
+      <c r="Q96">
+        <v>2317770837100</v>
+      </c>
+      <c r="R96">
+        <v>2091936019700</v>
+      </c>
+      <c r="S96">
+        <v>144779500</v>
+      </c>
+      <c r="T96">
+        <v>142859400</v>
+      </c>
+      <c r="U96">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V96">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W96">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X96">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y96">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z96">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA96">
+        <v>205075.4</v>
+      </c>
+      <c r="AB96">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC96">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>316219205600</v>
       </c>
+      <c r="Q97">
+        <v>2431781017000</v>
+      </c>
+      <c r="R97">
+        <v>2115561811400</v>
+      </c>
+      <c r="S97">
+        <v>154043100</v>
+      </c>
+      <c r="T97">
+        <v>144971000</v>
+      </c>
+      <c r="U97">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V97">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W97">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X97">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y97">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z97">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA97">
+        <v>205075.4</v>
+      </c>
+      <c r="AB97">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC97">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>392268123900</v>
       </c>
+      <c r="Q98">
+        <v>2546196364400</v>
+      </c>
+      <c r="R98">
+        <v>2153928240500</v>
+      </c>
+      <c r="S98">
+        <v>161317000</v>
+      </c>
+      <c r="T98">
+        <v>147776900</v>
+      </c>
+      <c r="U98">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V98">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W98">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X98">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y98">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z98">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA98">
+        <v>205075.4</v>
+      </c>
+      <c r="AB98">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC98">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>436923462200</v>
       </c>
+      <c r="Q99">
+        <v>2629906994200</v>
+      </c>
+      <c r="R99">
+        <v>2192983532000</v>
+      </c>
+      <c r="S99">
+        <v>166656600</v>
+      </c>
+      <c r="T99">
+        <v>150363200</v>
+      </c>
+      <c r="U99">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V99">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W99">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X99">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y99">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z99">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA99">
+        <v>205075.4</v>
+      </c>
+      <c r="AB99">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC99">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>448902004800</v>
       </c>
+      <c r="Q100">
+        <v>2690133417300</v>
+      </c>
+      <c r="R100">
+        <v>2241231412500</v>
+      </c>
+      <c r="S100">
+        <v>170415500</v>
+      </c>
+      <c r="T100">
+        <v>153905100</v>
+      </c>
+      <c r="U100">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V100">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W100">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X100">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y100">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z100">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA100">
+        <v>205075.4</v>
+      </c>
+      <c r="AB100">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC100">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>457591887100</v>
       </c>
+      <c r="Q101">
+        <v>2746024097600</v>
+      </c>
+      <c r="R101">
+        <v>2288432210500</v>
+      </c>
+      <c r="S101">
+        <v>173691900</v>
+      </c>
+      <c r="T101">
+        <v>156993900</v>
+      </c>
+      <c r="U101">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V101">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W101">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X101">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y101">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z101">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA101">
+        <v>205075.4</v>
+      </c>
+      <c r="AB101">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC101">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>456080736600</v>
       </c>
+      <c r="Q102">
+        <v>2782106654600</v>
+      </c>
+      <c r="R102">
+        <v>2326025918000</v>
+      </c>
+      <c r="S102">
+        <v>175867600</v>
+      </c>
+      <c r="T102">
+        <v>159700900</v>
+      </c>
+      <c r="U102">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V102">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W102">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X102">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y102">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z102">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA102">
+        <v>205075.4</v>
+      </c>
+      <c r="AB102">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC102">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>445047908700</v>
       </c>
+      <c r="Q103">
+        <v>2809772151700</v>
+      </c>
+      <c r="R103">
+        <v>2364724243000</v>
+      </c>
+      <c r="S103">
+        <v>177497100</v>
+      </c>
+      <c r="T103">
+        <v>162438100</v>
+      </c>
+      <c r="U103">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V103">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W103">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X103">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y103">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z103">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA103">
+        <v>205075.4</v>
+      </c>
+      <c r="AB103">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC103">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>520732551000</v>
       </c>
+      <c r="Q104">
+        <v>2925397810200</v>
+      </c>
+      <c r="R104">
+        <v>2404665259200</v>
+      </c>
+      <c r="S104">
+        <v>183438700</v>
+      </c>
+      <c r="T104">
+        <v>165072600</v>
+      </c>
+      <c r="U104">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V104">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W104">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X104">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y104">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z104">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA104">
+        <v>205075.4</v>
+      </c>
+      <c r="AB104">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC104">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>666062627700</v>
       </c>
+      <c r="Q105">
+        <v>3092927089000</v>
+      </c>
+      <c r="R105">
+        <v>2426864461300</v>
+      </c>
+      <c r="S105">
+        <v>193253800</v>
+      </c>
+      <c r="T105">
+        <v>166470000</v>
+      </c>
+      <c r="U105">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V105">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W105">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X105">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y105">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z105">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA105">
+        <v>205075.4</v>
+      </c>
+      <c r="AB105">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC105">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>738367017500</v>
       </c>
+      <c r="Q106">
+        <v>3202570569600</v>
+      </c>
+      <c r="R106">
+        <v>2464203552100</v>
+      </c>
+      <c r="S106">
+        <v>201277100</v>
+      </c>
+      <c r="T106">
+        <v>168757200</v>
+      </c>
+      <c r="U106">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V106">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W106">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X106">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y106">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z106">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA106">
+        <v>205075.4</v>
+      </c>
+      <c r="AB106">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC106">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>761136867500</v>
       </c>
+      <c r="Q107">
+        <v>3273337572600</v>
+      </c>
+      <c r="R107">
+        <v>2512200705100</v>
+      </c>
+      <c r="S107">
+        <v>205668800</v>
+      </c>
+      <c r="T107">
+        <v>171486900</v>
+      </c>
+      <c r="U107">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V107">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W107">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X107">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y107">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z107">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA107">
+        <v>205075.4</v>
+      </c>
+      <c r="AB107">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC107">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>739229009300</v>
       </c>
+      <c r="Q108">
+        <v>3313157891200</v>
+      </c>
+      <c r="R108">
+        <v>2573928881900</v>
+      </c>
+      <c r="S108">
+        <v>208660700</v>
+      </c>
+      <c r="T108">
+        <v>175697400</v>
+      </c>
+      <c r="U108">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V108">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W108">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X108">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y108">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z108">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA108">
+        <v>205075.4</v>
+      </c>
+      <c r="AB108">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC108">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>736622972700</v>
       </c>
+      <c r="Q109">
+        <v>3355459175200</v>
+      </c>
+      <c r="R109">
+        <v>2618836202500</v>
+      </c>
+      <c r="S109">
+        <v>211289500</v>
+      </c>
+      <c r="T109">
+        <v>178636500</v>
+      </c>
+      <c r="U109">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V109">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W109">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X109">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y109">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z109">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA109">
+        <v>205075.4</v>
+      </c>
+      <c r="AB109">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC109">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>724791354100</v>
       </c>
+      <c r="Q110">
+        <v>3386638377200</v>
+      </c>
+      <c r="R110">
+        <v>2661847023100</v>
+      </c>
+      <c r="S110">
+        <v>213048200</v>
+      </c>
+      <c r="T110">
+        <v>181403700</v>
+      </c>
+      <c r="U110">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V110">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W110">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X110">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y110">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z110">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA110">
+        <v>205075.4</v>
+      </c>
+      <c r="AB110">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC110">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>745986340100</v>
       </c>
+      <c r="Q111">
+        <v>3445197040900</v>
+      </c>
+      <c r="R111">
+        <v>2699210700800</v>
+      </c>
+      <c r="S111">
+        <v>216017300</v>
+      </c>
+      <c r="T111">
+        <v>183617800</v>
+      </c>
+      <c r="U111">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V111">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W111">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X111">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y111">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z111">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA111">
+        <v>205075.4</v>
+      </c>
+      <c r="AB111">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC111">
+        <v>4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>758660628700</v>
       </c>
+      <c r="Q112">
+        <v>3492954079000</v>
+      </c>
+      <c r="R112">
+        <v>2734293450300</v>
+      </c>
+      <c r="S112">
+        <v>219215500</v>
+      </c>
+      <c r="T112">
+        <v>185806200</v>
+      </c>
+      <c r="U112">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V112">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W112">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X112">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y112">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z112">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA112">
+        <v>205075.4</v>
+      </c>
+      <c r="AB112">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC112">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>759761904200</v>
       </c>
+      <c r="Q113">
+        <v>3531787045000</v>
+      </c>
+      <c r="R113">
+        <v>2772025140800</v>
+      </c>
+      <c r="S113">
+        <v>221460400</v>
+      </c>
+      <c r="T113">
+        <v>188034300</v>
+      </c>
+      <c r="U113">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V113">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W113">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X113">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y113">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z113">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA113">
+        <v>205075.4</v>
+      </c>
+      <c r="AB113">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC113">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>764647519300</v>
       </c>
+      <c r="Q114">
+        <v>3568898266900</v>
+      </c>
+      <c r="R114">
+        <v>2804250747600</v>
+      </c>
+      <c r="S114">
+        <v>223523200</v>
+      </c>
+      <c r="T114">
+        <v>190332900</v>
+      </c>
+      <c r="U114">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V114">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W114">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X114">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y114">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z114">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA114">
+        <v>205075.4</v>
+      </c>
+      <c r="AB114">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC114">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>746759648300</v>
       </c>
+      <c r="Q115">
+        <v>3597779839400</v>
+      </c>
+      <c r="R115">
+        <v>2851020191100</v>
+      </c>
+      <c r="S115">
+        <v>225269600</v>
+      </c>
+      <c r="T115">
+        <v>193367500</v>
+      </c>
+      <c r="U115">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V115">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W115">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X115">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y115">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z115">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA115">
+        <v>205075.4</v>
+      </c>
+      <c r="AB115">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC115">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>736584822500</v>
       </c>
+      <c r="Q116">
+        <v>3637002768400</v>
+      </c>
+      <c r="R116">
+        <v>2900417945900</v>
+      </c>
+      <c r="S116">
+        <v>227396300</v>
+      </c>
+      <c r="T116">
+        <v>196624900</v>
+      </c>
+      <c r="U116">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V116">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W116">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X116">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y116">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z116">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA116">
+        <v>205075.4</v>
+      </c>
+      <c r="AB116">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC116">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>714371127800</v>
       </c>
+      <c r="Q117">
+        <v>3670140201800</v>
+      </c>
+      <c r="R117">
+        <v>2955769074000</v>
+      </c>
+      <c r="S117">
+        <v>229441800</v>
+      </c>
+      <c r="T117">
+        <v>200072600</v>
+      </c>
+      <c r="U117">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V117">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W117">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X117">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y117">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z117">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA117">
+        <v>205075.4</v>
+      </c>
+      <c r="AB117">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC117">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>676494453300</v>
       </c>
+      <c r="Q118">
+        <v>3704540834900</v>
+      </c>
+      <c r="R118">
+        <v>3028046381600</v>
+      </c>
+      <c r="S118">
+        <v>231591700</v>
+      </c>
+      <c r="T118">
+        <v>205646000</v>
+      </c>
+      <c r="U118">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V118">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W118">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X118">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y118">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z118">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA118">
+        <v>205075.4</v>
+      </c>
+      <c r="AB118">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC118">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>676855082700</v>
       </c>
+      <c r="Q119">
+        <v>3705078826300</v>
+      </c>
+      <c r="R119">
+        <v>3028223743600</v>
+      </c>
+      <c r="S119">
+        <v>231632300</v>
+      </c>
+      <c r="T119">
+        <v>205657800</v>
+      </c>
+      <c r="U119">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V119">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W119">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X119">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y119">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z119">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA119">
+        <v>205075.4</v>
+      </c>
+      <c r="AB119">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC119">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>676852522700</v>
       </c>
+      <c r="Q120">
+        <v>3705080106300</v>
+      </c>
+      <c r="R120">
+        <v>3028227583600</v>
+      </c>
+      <c r="S120">
+        <v>231632400</v>
+      </c>
+      <c r="T120">
+        <v>205658100</v>
+      </c>
+      <c r="U120">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V120">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W120">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X120">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y120">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z120">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA120">
+        <v>205075.4</v>
+      </c>
+      <c r="AB120">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>676866602700</v>
       </c>
+      <c r="Q121">
+        <v>3705094186300</v>
+      </c>
+      <c r="R121">
+        <v>3028227583600</v>
+      </c>
+      <c r="S121">
+        <v>231633500</v>
+      </c>
+      <c r="T121">
+        <v>205658100</v>
+      </c>
+      <c r="U121">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V121">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W121">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X121">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y121">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z121">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA121">
+        <v>205075.4</v>
+      </c>
+      <c r="AB121">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>676866822700</v>
       </c>
+      <c r="Q122">
+        <v>3705122346300</v>
+      </c>
+      <c r="R122">
+        <v>3028255523600</v>
+      </c>
+      <c r="S122">
+        <v>231635700</v>
+      </c>
+      <c r="T122">
+        <v>205660300</v>
+      </c>
+      <c r="U122">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V122">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W122">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X122">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y122">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z122">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA122">
+        <v>205075.4</v>
+      </c>
+      <c r="AB122">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>676893702700</v>
       </c>
+      <c r="Q123">
+        <v>3705149226300</v>
+      </c>
+      <c r="R123">
+        <v>3028255523600</v>
+      </c>
+      <c r="S123">
+        <v>231637800</v>
+      </c>
+      <c r="T123">
+        <v>205660300</v>
+      </c>
+      <c r="U123">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V123">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W123">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X123">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y123">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z123">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA123">
+        <v>205075.4</v>
+      </c>
+      <c r="AB123">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>676932302700</v>
       </c>
+      <c r="Q124">
+        <v>3705213226300</v>
+      </c>
+      <c r="R124">
+        <v>3028280923600</v>
+      </c>
+      <c r="S124">
+        <v>231642800</v>
+      </c>
+      <c r="T124">
+        <v>205662300</v>
+      </c>
+      <c r="U124">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V124">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W124">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X124">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y124">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z124">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA124">
+        <v>205075.4</v>
+      </c>
+      <c r="AB124">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,6 +11487,45 @@
       <c r="P125">
         <v>676998862700</v>
       </c>
+      <c r="Q125">
+        <v>3705279786300</v>
+      </c>
+      <c r="R125">
+        <v>3028280923600</v>
+      </c>
+      <c r="S125">
+        <v>231648000</v>
+      </c>
+      <c r="T125">
+        <v>205662300</v>
+      </c>
+      <c r="U125">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V125">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W125">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X125">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y125">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z125">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA125">
+        <v>205075.4</v>
+      </c>
+      <c r="AB125">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6701,6 +11576,45 @@
       <c r="P126">
         <v>688129855200</v>
       </c>
+      <c r="Q126">
+        <v>3734126716400</v>
+      </c>
+      <c r="R126">
+        <v>3045996861200</v>
+      </c>
+      <c r="S126">
+        <v>232893700</v>
+      </c>
+      <c r="T126">
+        <v>206237500</v>
+      </c>
+      <c r="U126">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V126">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W126">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X126">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y126">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z126">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA126">
+        <v>205075.4</v>
+      </c>
+      <c r="AB126">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC126">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -6751,6 +11665,45 @@
       <c r="P127">
         <v>688134975200</v>
       </c>
+      <c r="Q127">
+        <v>3734131836400</v>
+      </c>
+      <c r="R127">
+        <v>3045996861200</v>
+      </c>
+      <c r="S127">
+        <v>232894100</v>
+      </c>
+      <c r="T127">
+        <v>206237500</v>
+      </c>
+      <c r="U127">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V127">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W127">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X127">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y127">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z127">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA127">
+        <v>205075.4</v>
+      </c>
+      <c r="AB127">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -6801,6 +11754,45 @@
       <c r="P128">
         <v>688175955200</v>
       </c>
+      <c r="Q128">
+        <v>3734172816400</v>
+      </c>
+      <c r="R128">
+        <v>3045996861200</v>
+      </c>
+      <c r="S128">
+        <v>232897300</v>
+      </c>
+      <c r="T128">
+        <v>206237500</v>
+      </c>
+      <c r="U128">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V128">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W128">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X128">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y128">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z128">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA128">
+        <v>205075.4</v>
+      </c>
+      <c r="AB128">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -6851,6 +11843,45 @@
       <c r="P129">
         <v>688268835200</v>
       </c>
+      <c r="Q129">
+        <v>3734265696400</v>
+      </c>
+      <c r="R129">
+        <v>3045996861200</v>
+      </c>
+      <c r="S129">
+        <v>232904500</v>
+      </c>
+      <c r="T129">
+        <v>206237500</v>
+      </c>
+      <c r="U129">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V129">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W129">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X129">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y129">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z129">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA129">
+        <v>205075.4</v>
+      </c>
+      <c r="AB129">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -6901,6 +11932,45 @@
       <c r="P130">
         <v>688281735200</v>
       </c>
+      <c r="Q130">
+        <v>3734278596400</v>
+      </c>
+      <c r="R130">
+        <v>3045996861200</v>
+      </c>
+      <c r="S130">
+        <v>232905500</v>
+      </c>
+      <c r="T130">
+        <v>206237500</v>
+      </c>
+      <c r="U130">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V130">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W130">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X130">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y130">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z130">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA130">
+        <v>205075.4</v>
+      </c>
+      <c r="AB130">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -6951,10 +12021,49 @@
       <c r="P131">
         <v>688176775200</v>
       </c>
+      <c r="Q131">
+        <v>3734282436400</v>
+      </c>
+      <c r="R131">
+        <v>3046105661200</v>
+      </c>
+      <c r="S131">
+        <v>232905800</v>
+      </c>
+      <c r="T131">
+        <v>206246000</v>
+      </c>
+      <c r="U131">
+        <v>28725249510.8</v>
+      </c>
+      <c r="V131">
+        <v>23431582009.2</v>
+      </c>
+      <c r="W131">
+        <v>56216773635.4</v>
+      </c>
+      <c r="X131">
+        <v>3615043.1</v>
+      </c>
+      <c r="Y131">
+        <v>1791583.1</v>
+      </c>
+      <c r="Z131">
+        <v>1586507.7</v>
+      </c>
+      <c r="AA131">
+        <v>205075.4</v>
+      </c>
+      <c r="AB131">
+        <v>5293667501.5</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P131"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC131"/>
   </ignoredErrors>
 </worksheet>
 </file>